--- a/results/train/DeepBench_IA_KNL7250.xlsx
+++ b/results/train/DeepBench_IA_KNL7250.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmudiger\Documents\Work\DL\DeepBench\src\my_DeepBench-internal\results\train\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="0" windowWidth="34425" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -76,12 +71,6 @@
   </si>
   <si>
     <t>Forward (msec)</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t xml:space="preserve">K </t>
@@ -251,6 +240,12 @@
   <si>
     <t>DIRECT CONV</t>
   </si>
+  <si>
+    <t>S (Fitler width)</t>
+  </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,6 +357,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -413,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +441,13 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -450,6 +466,13 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -790,63 +813,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K232" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="32.625" customWidth="1"/>
-    <col min="9" max="9" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
-    <col min="21" max="21" width="22.375" customWidth="1"/>
-    <col min="22" max="22" width="24.625" customWidth="1"/>
-    <col min="24" max="24" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" customWidth="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -872,7 +895,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -898,7 +921,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -924,7 +947,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -950,7 +973,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -976,7 +999,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -1002,7 +1025,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1028,7 +1051,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1054,7 +1077,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1080,7 +1103,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1106,7 +1129,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1132,7 +1155,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1158,7 +1181,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1184,7 +1207,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1210,7 +1233,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1236,7 +1259,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1262,7 +1285,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1288,7 +1311,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1314,7 +1337,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1340,7 +1363,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1366,7 +1389,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1377,7 +1400,7 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1392,7 +1415,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1403,7 +1426,7 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1418,7 +1441,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1429,7 +1452,7 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1444,7 +1467,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1455,7 +1478,7 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1470,7 +1493,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1496,7 +1519,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1507,7 +1530,7 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1522,7 +1545,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1548,7 +1571,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -1559,7 +1582,7 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1574,7 +1597,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -1585,7 +1608,7 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1600,7 +1623,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -1611,7 +1634,7 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1626,7 +1649,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -1637,7 +1660,7 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1652,7 +1675,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -1663,7 +1686,7 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1678,7 +1701,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1704,7 +1727,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1730,7 +1753,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -1741,7 +1764,7 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1756,7 +1779,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -1767,7 +1790,7 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -1782,7 +1805,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -1793,7 +1816,7 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -1808,7 +1831,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -1819,7 +1842,7 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -1834,7 +1857,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -1860,7 +1883,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -1871,7 +1894,7 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
@@ -1886,7 +1909,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -1900,10 +1923,10 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I44" s="13">
         <v>9.7014218552286664</v>
@@ -1915,7 +1938,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -1929,7 +1952,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I45" s="13">
         <v>14.819317409964837</v>
@@ -1941,7 +1964,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I46" s="13">
         <v>23.369406371536737</v>
@@ -1967,7 +1990,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12">
       <c r="C47" s="3">
         <v>4096</v>
       </c>
@@ -1981,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I47" s="13">
         <v>55.115699999999997</v>
@@ -1993,19 +2016,19 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12">
       <c r="I48" s="13"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12">
       <c r="I49" s="13"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -2031,7 +2054,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12">
       <c r="C51">
         <v>35</v>
       </c>
@@ -2057,7 +2080,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2083,7 +2106,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:12">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2109,7 +2132,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:12">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2135,7 +2158,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2161,7 +2184,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2187,7 +2210,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2213,7 +2236,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2224,7 +2247,7 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
@@ -2239,7 +2262,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:12">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2250,7 +2273,7 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -2265,7 +2288,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:12">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2276,7 +2299,7 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
         <v>8</v>
@@ -2291,7 +2314,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2302,7 +2325,7 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2317,7 +2340,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2328,7 +2351,7 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
         <v>8</v>
@@ -2343,7 +2366,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:12">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2354,7 +2377,7 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
         <v>8</v>
@@ -2369,7 +2392,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2380,7 +2403,7 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
         <v>8</v>
@@ -2395,7 +2418,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2406,7 +2429,7 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -2421,13 +2444,13 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12">
       <c r="I66" s="13"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2453,7 +2476,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2479,7 +2502,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2505,7 +2528,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -2531,7 +2554,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -2542,7 +2565,7 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
         <v>8</v>
@@ -2557,7 +2580,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:12">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -2568,7 +2591,7 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -2583,7 +2606,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -2594,7 +2617,7 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -2609,7 +2632,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -2620,7 +2643,7 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
         <v>8</v>
@@ -2635,7 +2658,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:12">
       <c r="C75">
         <f>3*1024</f>
         <v>3072</v>
@@ -2662,7 +2685,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12">
       <c r="C76">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2689,7 +2712,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12">
       <c r="C77">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2716,7 +2739,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:12">
       <c r="C78">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2743,7 +2766,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12">
       <c r="C79">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2755,7 +2778,7 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
         <v>8</v>
@@ -2770,7 +2793,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12">
       <c r="C80">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2782,7 +2805,7 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
@@ -2797,7 +2820,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:12">
       <c r="C81">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2809,7 +2832,7 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -2824,7 +2847,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:12">
       <c r="C82">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2836,7 +2859,7 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
         <v>8</v>
@@ -2851,13 +2874,13 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:12">
       <c r="I83" s="13"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:12">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -2871,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I84" s="13">
         <v>10.945200000000002</v>
@@ -2883,7 +2906,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:12">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -2897,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I85" s="13">
         <v>52.102900000000005</v>
@@ -2909,10 +2932,10 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:12">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:12">
       <c r="C87">
         <v>512</v>
       </c>
@@ -2936,7 +2959,7 @@
         <v>1.0599946299999998</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:12">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -2960,7 +2983,7 @@
         <v>1.1513642199999998</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:12">
       <c r="C89">
         <v>512</v>
       </c>
@@ -2984,7 +3007,7 @@
         <v>1.65647718</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:12">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -3008,7 +3031,7 @@
         <v>1.9034063400000001</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:12">
       <c r="C91">
         <v>512</v>
       </c>
@@ -3019,7 +3042,7 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
         <v>8</v>
@@ -3032,7 +3055,7 @@
         <v>1.0587884299999999</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:12">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -3043,7 +3066,7 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
         <v>8</v>
@@ -3056,7 +3079,7 @@
         <v>1.1531556999999999</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:12">
       <c r="C93">
         <v>512</v>
       </c>
@@ -3067,7 +3090,7 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -3080,7 +3103,7 @@
         <v>1.6326366700000003</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:12">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3091,7 +3114,7 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
         <v>8</v>
@@ -3104,7 +3127,7 @@
         <v>1.90198537</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:12">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3128,7 +3151,7 @@
         <v>2.2978992999999996</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:12">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3139,7 +3162,7 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
@@ -3152,7 +3175,7 @@
         <v>2.2968038299999995</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3176,7 +3199,7 @@
         <v>4.2576978099999989</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3200,7 +3223,7 @@
         <v>4.0902624799999998</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="3"/>
       <c r="C99" s="3">
         <v>4608</v>
@@ -3226,7 +3249,7 @@
         <v>4.2727005199999999</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="3"/>
       <c r="C100" s="3">
         <v>8448</v>
@@ -3252,7 +3275,7 @@
         <v>4.085631049999999</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="3"/>
       <c r="C101" s="3">
         <v>3072</v>
@@ -3278,7 +3301,7 @@
         <v>4.2606199999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3302,7 +3325,7 @@
         <v>4.2992993199999994</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3326,7 +3349,7 @@
         <v>4.2958588399999993</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="3"/>
       <c r="C104" s="3">
         <v>4608</v>
@@ -3352,7 +3375,7 @@
         <v>4.2809756399999994</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="3"/>
       <c r="C105" s="3">
         <v>8448</v>
@@ -3378,7 +3401,7 @@
         <v>4.2758863800000002</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="3"/>
       <c r="C106" s="3">
         <v>3072</v>
@@ -3404,7 +3427,7 @@
         <v>4.2289213400000003</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3415,7 +3438,7 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -3428,7 +3451,7 @@
         <v>4.0770304299999998</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3439,7 +3462,7 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
         <v>8</v>
@@ -3452,7 +3475,7 @@
         <v>3.99791746</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="3"/>
       <c r="C109" s="3">
         <v>4608</v>
@@ -3464,7 +3487,7 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>8</v>
@@ -3478,7 +3501,7 @@
         <v>4.2427837999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="3"/>
       <c r="C110" s="3">
         <v>8448</v>
@@ -3490,7 +3513,7 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>8</v>
@@ -3504,7 +3527,7 @@
         <v>4.0724741399999997</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="3"/>
       <c r="C111" s="3">
         <v>3072</v>
@@ -3516,7 +3539,7 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>8</v>
@@ -3530,7 +3553,7 @@
         <v>4.2419111999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -3541,7 +3564,7 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -3554,7 +3577,7 @@
         <v>4.2520935799999995</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -3565,7 +3588,7 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
         <v>8</v>
@@ -3578,7 +3601,7 @@
         <v>4.0903563199999997</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="3"/>
       <c r="C114" s="3">
         <v>4608</v>
@@ -3590,7 +3613,7 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>8</v>
@@ -3604,7 +3627,7 @@
         <v>4.2622795699999996</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="3"/>
       <c r="C115" s="3">
         <v>8448</v>
@@ -3616,7 +3639,7 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>8</v>
@@ -3630,7 +3653,7 @@
         <v>4.2413645799999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="3"/>
       <c r="C116" s="3">
         <v>3072</v>
@@ -3642,7 +3665,7 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>8</v>
@@ -3656,7 +3679,7 @@
         <v>4.2063460599999996</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="3"/>
       <c r="C117" s="3">
         <v>6144</v>
@@ -3682,7 +3705,7 @@
         <v>1.6500807199999998</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="3"/>
       <c r="C118" s="3">
         <v>4608</v>
@@ -3708,7 +3731,7 @@
         <v>1.4318038</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="3"/>
       <c r="C119" s="3">
         <v>8448</v>
@@ -3734,7 +3757,7 @@
         <v>1.76749198</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="3"/>
       <c r="C120" s="3">
         <v>6144</v>
@@ -3760,7 +3783,7 @@
         <v>2.5452160899999994</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="3"/>
       <c r="C121" s="3">
         <v>4608</v>
@@ -3786,7 +3809,7 @@
         <v>2.21903753</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="3"/>
       <c r="C122" s="3">
         <v>8448</v>
@@ -3812,7 +3835,7 @@
         <v>2.8292394500000002</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="3"/>
       <c r="C123" s="3">
         <v>6144</v>
@@ -3824,7 +3847,7 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>8</v>
@@ -3838,7 +3861,7 @@
         <v>1.6503789899999997</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="3"/>
       <c r="C124" s="3">
         <v>4608</v>
@@ -3850,7 +3873,7 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>8</v>
@@ -3864,7 +3887,7 @@
         <v>1.4152145599999997</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="3"/>
       <c r="C125" s="3">
         <v>8448</v>
@@ -3876,7 +3899,7 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>8</v>
@@ -3890,7 +3913,7 @@
         <v>1.7546539699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="3"/>
       <c r="C126" s="3">
         <v>6144</v>
@@ -3902,7 +3925,7 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>8</v>
@@ -3916,7 +3939,7 @@
         <v>2.5319974599999999</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="3"/>
       <c r="C127" s="3">
         <v>4608</v>
@@ -3928,7 +3951,7 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>8</v>
@@ -3942,7 +3965,7 @@
         <v>2.23528094</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="3"/>
       <c r="C128" s="3">
         <v>8448</v>
@@ -3954,7 +3977,7 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>8</v>
@@ -3968,7 +3991,7 @@
         <v>2.81700917</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10">
       <c r="C129" s="3">
         <v>512</v>
       </c>
@@ -3994,7 +4017,7 @@
         <v>4.4425542499999997</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10">
       <c r="C130" s="3">
         <v>512</v>
       </c>
@@ -4020,7 +4043,7 @@
         <v>4.4663887500000001</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10">
       <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>512</v>
@@ -4047,7 +4070,7 @@
         <v>4.4929700600000002</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10">
       <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>512</v>
@@ -4074,7 +4097,7 @@
         <v>4.44064893</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10">
       <c r="C133" s="3">
         <v>1024</v>
       </c>
@@ -4100,7 +4123,7 @@
         <v>4.3938375900000004</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10">
       <c r="C134" s="3">
         <v>1024</v>
       </c>
@@ -4126,7 +4149,7 @@
         <v>4.3022431599999997</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10">
       <c r="B135" s="3"/>
       <c r="C135" s="3">
         <v>1024</v>
@@ -4153,7 +4176,7 @@
         <v>4.3178591699999993</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10">
       <c r="B136" s="3"/>
       <c r="C136" s="3">
         <v>1024</v>
@@ -4180,7 +4203,7 @@
         <v>4.2699570899999992</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10">
       <c r="B137" s="3"/>
       <c r="C137" s="3">
         <v>512</v>
@@ -4206,7 +4229,7 @@
         <v>0.39052141000000001</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10">
       <c r="B138" s="3"/>
       <c r="C138" s="3">
         <v>1024</v>
@@ -4232,7 +4255,7 @@
         <v>0.61731619999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10">
       <c r="C139" s="3">
         <v>512</v>
       </c>
@@ -4244,7 +4267,7 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>8</v>
@@ -4258,7 +4281,7 @@
         <v>4.4033284400000001</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10">
       <c r="C140" s="3">
         <v>512</v>
       </c>
@@ -4270,7 +4293,7 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>8</v>
@@ -4284,7 +4307,7 @@
         <v>4.4219049899999998</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10">
       <c r="B141" s="3"/>
       <c r="C141" s="3">
         <v>512</v>
@@ -4297,7 +4320,7 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>8</v>
@@ -4311,7 +4334,7 @@
         <v>4.4222874000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10">
       <c r="B142" s="3"/>
       <c r="C142" s="3">
         <v>512</v>
@@ -4324,7 +4347,7 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>8</v>
@@ -4338,7 +4361,7 @@
         <v>4.400438509999999</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10">
       <c r="C143" s="3">
         <v>1024</v>
       </c>
@@ -4350,7 +4373,7 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>8</v>
@@ -4364,7 +4387,7 @@
         <v>4.2744737400000004</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10">
       <c r="C144" s="3">
         <v>1024</v>
       </c>
@@ -4376,7 +4399,7 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>8</v>
@@ -4390,7 +4413,7 @@
         <v>4.3034794199999995</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:10">
       <c r="B145" s="3"/>
       <c r="C145" s="3">
         <v>1024</v>
@@ -4403,7 +4426,7 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>8</v>
@@ -4417,7 +4440,7 @@
         <v>4.2977067299999998</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10">
       <c r="B146" s="3"/>
       <c r="C146" s="3">
         <v>1024</v>
@@ -4430,7 +4453,7 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>8</v>
@@ -4444,7 +4467,7 @@
         <v>4.2824884899999986</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10">
       <c r="B147" s="3"/>
       <c r="C147" s="3">
         <v>512</v>
@@ -4459,7 +4482,7 @@
         <v>8</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4470,7 +4493,7 @@
         <v>0.37523603</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10">
       <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>1024</v>
@@ -4485,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4496,7 +4519,7 @@
         <v>0.74416612999999987</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10">
       <c r="C149" s="3">
         <v>512</v>
       </c>
@@ -4522,7 +4545,7 @@
         <v>4.4141461299999998</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10">
       <c r="C150" s="3">
         <v>512</v>
       </c>
@@ -4548,7 +4571,7 @@
         <v>4.4351899399999999</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10">
       <c r="B151" s="3"/>
       <c r="C151" s="3">
         <v>512</v>
@@ -4575,7 +4598,7 @@
         <v>4.4221152699999999</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10">
       <c r="B152" s="3"/>
       <c r="C152" s="3">
         <v>512</v>
@@ -4602,7 +4625,7 @@
         <v>4.4024693199999998</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10">
       <c r="C153" s="3">
         <v>1024</v>
       </c>
@@ -4628,7 +4651,7 @@
         <v>4.2860078499999998</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10">
       <c r="C154" s="3">
         <v>1024</v>
       </c>
@@ -4654,7 +4677,7 @@
         <v>4.3105839599999998</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10">
       <c r="B155" s="3"/>
       <c r="C155" s="3">
         <v>1024</v>
@@ -4681,7 +4704,7 @@
         <v>4.3059116499999996</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10">
       <c r="B156" s="3"/>
       <c r="C156" s="3">
         <v>1024</v>
@@ -4708,7 +4731,7 @@
         <v>4.2938240299999997</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10">
       <c r="B157" s="3"/>
       <c r="C157" s="3">
         <v>512</v>
@@ -4734,7 +4757,7 @@
         <v>0.54402395000000003</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10">
       <c r="B158" s="3"/>
       <c r="C158" s="3">
         <v>1024</v>
@@ -4760,7 +4783,7 @@
         <v>1.09620674</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10">
       <c r="C159" s="3">
         <v>512</v>
       </c>
@@ -4772,7 +4795,7 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>8</v>
@@ -4786,7 +4809,7 @@
         <v>4.4106923499999997</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10">
       <c r="C160" s="3">
         <v>512</v>
       </c>
@@ -4798,7 +4821,7 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>8</v>
@@ -4812,7 +4835,7 @@
         <v>4.4182615900000002</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31">
       <c r="B161" s="3"/>
       <c r="C161" s="3">
         <v>512</v>
@@ -4825,7 +4848,7 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>8</v>
@@ -4839,7 +4862,7 @@
         <v>4.422924329999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31">
       <c r="B162" s="3"/>
       <c r="C162" s="3">
         <v>512</v>
@@ -4852,7 +4875,7 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>8</v>
@@ -4866,7 +4889,7 @@
         <v>4.4157897199999994</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31">
       <c r="C163" s="3">
         <v>1024</v>
       </c>
@@ -4878,7 +4901,7 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>8</v>
@@ -4892,7 +4915,7 @@
         <v>4.2919099200000002</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31">
       <c r="C164" s="3">
         <v>1024</v>
       </c>
@@ -4904,7 +4927,7 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>8</v>
@@ -4918,7 +4941,7 @@
         <v>4.2996642500000002</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31">
       <c r="B165" s="3"/>
       <c r="C165" s="3">
         <v>1024</v>
@@ -4931,7 +4954,7 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>8</v>
@@ -4945,7 +4968,7 @@
         <v>4.3004018100000003</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31">
       <c r="B166" s="3"/>
       <c r="C166" s="3">
         <v>1024</v>
@@ -4958,7 +4981,7 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>8</v>
@@ -4972,7 +4995,7 @@
         <v>4.3043731699999999</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31">
       <c r="B167" s="3"/>
       <c r="C167" s="3">
         <v>512</v>
@@ -4987,7 +5010,7 @@
         <v>8</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -4998,7 +5021,7 @@
         <v>0.57691214000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31">
       <c r="B168" s="3"/>
       <c r="C168" s="3">
         <v>1024</v>
@@ -5013,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -5024,47 +5047,47 @@
         <v>1.10957733</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31">
       <c r="J171" s="1"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31">
       <c r="A173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31">
       <c r="C174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F174" t="s">
         <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I174" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="J174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M174" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N174" t="s">
         <v>16</v>
@@ -5076,28 +5099,28 @@
         <v>14</v>
       </c>
       <c r="R174" t="s">
+        <v>33</v>
+      </c>
+      <c r="S174" t="s">
+        <v>34</v>
+      </c>
+      <c r="T174" t="s">
+        <v>62</v>
+      </c>
+      <c r="U174" t="s">
         <v>35</v>
       </c>
-      <c r="S174" t="s">
+      <c r="V174" t="s">
         <v>36</v>
       </c>
-      <c r="T174" t="s">
+      <c r="W174" t="s">
+        <v>63</v>
+      </c>
+      <c r="X174" t="s">
         <v>64</v>
       </c>
-      <c r="U174" t="s">
-        <v>37</v>
-      </c>
-      <c r="V174" t="s">
-        <v>38</v>
-      </c>
-      <c r="W174" t="s">
-        <v>65</v>
-      </c>
-      <c r="X174" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:31">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5114,10 +5137,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -5139,11 +5162,11 @@
         <v>2.6216999999999997</v>
       </c>
       <c r="R175" s="4">
-        <f t="shared" ref="R175:R238" si="11">(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="4">
-        <f t="shared" ref="S175:S238" si="12">(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="2">
@@ -5151,23 +5174,23 @@
         <v>2.8008699999999997</v>
       </c>
       <c r="U175" s="2">
-        <f t="shared" ref="U175:V210" si="13">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f t="shared" ref="U175:U206" si="11">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>3.8191036445833566</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W175" s="2">
-        <f t="shared" ref="W175:W238" si="14">(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f t="shared" ref="W175:W206" si="12">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>0.26100194530266624</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5184,10 +5207,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5209,11 +5232,11 @@
         <v>2.6246</v>
       </c>
       <c r="R176" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="R176:R239" si="13">(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="S176:S239" si="14">(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="2">
@@ -5221,23 +5244,23 @@
         <v>2.9829300000000001</v>
       </c>
       <c r="U176" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.8192102252113971</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W176" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.52142711270288811</v>
       </c>
       <c r="X176" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:31">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5254,10 +5277,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5279,11 +5302,11 @@
         <v>2.6320999999999999</v>
       </c>
       <c r="R177" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78.5</v>
       </c>
       <c r="S177" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>340.5</v>
       </c>
       <c r="T177" s="2">
@@ -5291,23 +5314,23 @@
         <v>3.39438</v>
       </c>
       <c r="U177" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.5906428084168547</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.0398826792295126</v>
       </c>
       <c r="X177" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:31">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5324,10 +5347,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5349,11 +5372,11 @@
         <v>2.6388000000000003</v>
       </c>
       <c r="R178" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78.5</v>
       </c>
       <c r="S178" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>340.5</v>
       </c>
       <c r="T178" s="2">
@@ -5361,23 +5384,23 @@
         <v>4.1813000000000002</v>
       </c>
       <c r="U178" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.5488819448946516</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.0744847658026373</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:31">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5394,10 +5417,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5421,11 +5444,11 @@
         <v>3.18</v>
       </c>
       <c r="R179" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
       <c r="S179" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="T179" s="2">
@@ -5433,24 +5456,24 @@
         <v>90.714200000000005</v>
       </c>
       <c r="U179" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3517432208079687</v>
       </c>
       <c r="V179" s="2">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$H179*$I179)/(O179/1000)/10^12</f>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>2.9494042799305956E-2</v>
       </c>
       <c r="W179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.80181132075471695</v>
       </c>
       <c r="X179" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:31">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5467,10 +5490,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5494,11 +5517,11 @@
         <v>3.23</v>
       </c>
       <c r="R180" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
       <c r="S180" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="T180" s="2">
@@ -5506,24 +5529,24 @@
         <v>91.646200000000007</v>
       </c>
       <c r="U180" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.8233418226110065</v>
       </c>
       <c r="V180" s="2">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$H180*$I180)/(O180/1000)/10^12</f>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>5.8879113266366481E-2</v>
       </c>
       <c r="W180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.5787987616099073</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:31">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5540,10 +5563,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -5567,11 +5590,11 @@
         <v>3.26</v>
       </c>
       <c r="R181" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
       <c r="S181" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="T181" s="2">
@@ -5579,24 +5602,24 @@
         <v>93.739000000000004</v>
       </c>
       <c r="U181" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.802704039571311</v>
       </c>
       <c r="V181" s="2">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$H181*$I181)/(O181/1000)/10^12</f>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>0.11744633809304468</v>
       </c>
       <c r="W181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.1285398773006139</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:31">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5613,10 +5636,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -5640,11 +5663,11 @@
         <v>6.35</v>
       </c>
       <c r="R182" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
       <c r="S182" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>166</v>
       </c>
       <c r="T182" s="2">
@@ -5652,24 +5675,24 @@
         <v>100.1116</v>
       </c>
       <c r="U182" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.2838688904630042</v>
       </c>
       <c r="V182" s="2">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$H182*$I182)/(O182/1000)/10^12</f>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>0.23298777841233581</v>
       </c>
       <c r="W182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.212296062992126</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:31">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5711,11 +5734,11 @@
         <v>0.66164999999999996</v>
       </c>
       <c r="R183" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="S183" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
       <c r="T183" s="2">
@@ -5723,23 +5746,23 @@
         <v>0.74599799999999994</v>
       </c>
       <c r="U183" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.2586939820742638</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16045994105644981</v>
       </c>
       <c r="X183" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:31">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5783,11 +5806,11 @@
         <v>0.66</v>
       </c>
       <c r="R184" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="S184" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="T184" s="2">
@@ -5795,24 +5818,24 @@
         <v>1.06</v>
       </c>
       <c r="U184" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.4702450526315793</v>
       </c>
       <c r="V184" s="2">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$H184*$I184)/(O184/1000)/10^12</f>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>4.0445074285714284</v>
       </c>
       <c r="W184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.2868887272727272</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:31">
       <c r="C185">
         <v>120</v>
       </c>
@@ -5856,11 +5879,11 @@
         <v>0.23</v>
       </c>
       <c r="R185" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="S185" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="T185" s="2">
@@ -5868,24 +5891,24 @@
         <v>0.61</v>
       </c>
       <c r="U185" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.4702450526315793</v>
       </c>
       <c r="V185" s="2">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$H185*$I185)/(O185/1000)/10^12</f>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>4.4702450526315793</v>
       </c>
       <c r="W185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.6928111304347828</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:31">
       <c r="C186">
         <v>60</v>
       </c>
@@ -5929,11 +5952,11 @@
         <v>0.2</v>
       </c>
       <c r="R186" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="S186" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="T186" s="2">
@@ -5941,24 +5964,24 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="U186" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.7185920000000001</v>
       </c>
       <c r="V186" s="2">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$H186*$I186)/(O186/1000)/10^12</f>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>4.4702450526315793</v>
       </c>
       <c r="W186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.2467328000000002</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:31">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6000,11 +6023,11 @@
         <v>0.06</v>
       </c>
       <c r="R187" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="T187" s="2">
@@ -6012,23 +6035,23 @@
         <v>0.09</v>
       </c>
       <c r="U187" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.6873855999999998</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.3436927999999999</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:31">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6072,11 +6095,11 @@
         <v>0.53</v>
       </c>
       <c r="R188" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="T188" s="2">
@@ -6084,24 +6107,24 @@
         <v>1.29</v>
       </c>
       <c r="U188" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.5261231157894732</v>
       </c>
       <c r="V188" s="2">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$H188*$I188)/(O188/1000)/10^12</f>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>4.5261231157894732</v>
       </c>
       <c r="W188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.2451448754716981</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:31">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6145,11 +6168,11 @@
         <v>0.44</v>
       </c>
       <c r="R189" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="T189" s="2">
@@ -6157,24 +6180,24 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="U189" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.914076525714286</v>
       </c>
       <c r="V189" s="2">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$H189*$I189)/(O189/1000)/10^12</f>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>4.914076525714286</v>
       </c>
       <c r="W189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.9089245090909093</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:31">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6218,11 +6241,11 @@
         <v>0.21</v>
       </c>
       <c r="R190" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T190" s="2">
@@ -6230,24 +6253,24 @@
         <v>0.60823000000000005</v>
       </c>
       <c r="U190" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6655099228169297</v>
       </c>
       <c r="V190" s="2">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$H190*$I190)/(O190/1000)/10^12</f>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>4.6242201600000001</v>
       </c>
       <c r="W190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.4040191999999996</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:31">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6291,11 +6314,11 @@
         <v>0.23666000000000001</v>
       </c>
       <c r="R191" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T191" s="2">
@@ -6303,24 +6326,24 @@
         <v>0.82665999999999995</v>
       </c>
       <c r="U191" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.1891173517241378</v>
       </c>
       <c r="V191" s="2">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$H191*$I191)/(O191/1000)/10^12</f>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>3.0828134400000007</v>
       </c>
       <c r="W191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.9079017662469364</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:31">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6362,11 +6385,11 @@
         <v>1.23</v>
       </c>
       <c r="R192" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="T192" s="2">
@@ -6374,23 +6397,23 @@
         <v>1.78</v>
       </c>
       <c r="U192" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.5223019054545452</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.1278585756097561</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:31">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6434,11 +6457,11 @@
         <v>4.66</v>
       </c>
       <c r="R193" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T193" s="2">
@@ -6446,24 +6469,24 @@
         <v>11.57</v>
       </c>
       <c r="U193" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.4840922763636364</v>
       </c>
       <c r="V193" s="2">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$H193*$I193)/(O193/1000)/10^12</f>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>4.0990317207756233</v>
       </c>
       <c r="W193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.1754301527896995</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:31">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6508,11 +6531,11 @@
         <v>3.93</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T194" s="2">
@@ -6520,24 +6543,24 @@
         <v>10.5</v>
       </c>
       <c r="U194" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.5530783113846152</v>
       </c>
       <c r="V194" s="2">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$H194*$I194)/(O194/1000)/10^12</f>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>4.4570796722891561</v>
       </c>
       <c r="W194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.7652683236641216</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:31">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6582,11 +6605,11 @@
         <v>3.62</v>
       </c>
       <c r="R195" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T195" s="2">
@@ -6594,24 +6617,24 @@
         <v>9.82</v>
       </c>
       <c r="U195" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.8357857882352944</v>
       </c>
       <c r="V195" s="2">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$H195*$I195)/(O195/1000)/10^12</f>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>4.7125810547770701</v>
       </c>
       <c r="W195" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.0877084287292815</v>
       </c>
       <c r="X195" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:31">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6655,11 +6678,11 @@
         <v>1.89</v>
       </c>
       <c r="R196" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T196" s="2">
@@ -6667,24 +6690,24 @@
         <v>5.25</v>
       </c>
       <c r="U196" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.5671310222222221</v>
       </c>
       <c r="V196" s="2">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$H196*$I196)/(O196/1000)/10^12</f>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>4.2521564689655174</v>
       </c>
       <c r="W196" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.9146837333333333</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:31">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6728,11 +6751,11 @@
         <v>0.48768</v>
       </c>
       <c r="R197" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T197" s="2">
@@ -6740,24 +6763,24 @@
         <v>1.7576800000000001</v>
       </c>
       <c r="U197" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.9833678451612906</v>
       </c>
       <c r="V197" s="2">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$H197*$I197)/(O197/1000)/10^12</f>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>2.8456739446153847</v>
       </c>
       <c r="W197" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.7928314960629921</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:31">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6799,11 +6822,11 @@
         <v>1.32</v>
       </c>
       <c r="R198" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="T198" s="2">
@@ -6811,23 +6834,23 @@
         <v>2.48</v>
       </c>
       <c r="U198" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3918380137931035</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W198" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.1019182545454544</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:31">
       <c r="C199">
         <v>112</v>
       </c>
@@ -6871,11 +6894,11 @@
         <v>9.17</v>
       </c>
       <c r="R199" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T199" s="2">
@@ -6883,24 +6906,24 @@
         <v>22.84</v>
       </c>
       <c r="U199" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.4908966652503794</v>
       </c>
       <c r="V199" s="2">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$H199*$I199)/(O199/1000)/10^12</f>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>4.1800860203389831</v>
       </c>
       <c r="W199" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.2273728488549618</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:31">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -6945,11 +6968,11 @@
         <v>7.84</v>
       </c>
       <c r="R200" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T200" s="2">
@@ -6957,24 +6980,24 @@
         <v>20.94</v>
       </c>
       <c r="U200" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.5954982956521739</v>
       </c>
       <c r="V200" s="2">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$H200*$I200)/(O200/1000)/10^12</f>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>4.4436950486486486</v>
       </c>
       <c r="W200" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.7748735999999998</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:31">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7019,11 +7042,11 @@
         <v>7.22</v>
       </c>
       <c r="R201" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T201" s="2">
@@ -7031,24 +7054,24 @@
         <v>19.54</v>
       </c>
       <c r="U201" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.87561927907743</v>
       </c>
       <c r="V201" s="2">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$H201*$I201)/(O201/1000)/10^12</f>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>4.7352014438400003</v>
       </c>
       <c r="W201" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.0990317207756233</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:31">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7092,11 +7115,11 @@
         <v>3.72</v>
       </c>
       <c r="R202" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T202" s="2">
@@ -7104,24 +7127,24 @@
         <v>10.39</v>
       </c>
       <c r="U202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6387161479623815</v>
       </c>
       <c r="V202" s="2">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$H202*$I202)/(O202/1000)/10^12</f>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>4.2521564689655174</v>
       </c>
       <c r="W202" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.9778237935483869</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:31">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7165,11 +7188,11 @@
         <v>0.95377999999999996</v>
       </c>
       <c r="R203" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T203" s="2">
@@ -7177,24 +7200,24 @@
         <v>3.4537800000000001</v>
       </c>
       <c r="U203" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.057335642975207</v>
       </c>
       <c r="V203" s="2">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$H203*$I203)/(O203/1000)/10^12</f>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>2.867733432558139</v>
       </c>
       <c r="W203" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.87864720166076</v>
       </c>
       <c r="X203" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:31">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7236,11 +7259,11 @@
         <v>1.41</v>
       </c>
       <c r="R204" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T204" s="2">
@@ -7248,23 +7271,23 @@
         <v>2.4</v>
       </c>
       <c r="U204" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.814592387878788</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W204" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.6783308255319151</v>
       </c>
       <c r="X204" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:31">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7308,11 +7331,11 @@
         <v>1.24</v>
       </c>
       <c r="R205" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T205" s="2">
@@ -7320,24 +7343,24 @@
         <v>2.7</v>
       </c>
       <c r="U205" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="V205" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="V205:V228" si="16">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>5.4274884507042254</v>
       </c>
       <c r="W205" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.1076748387096771</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:31">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7381,11 +7404,11 @@
         <v>0.09</v>
       </c>
       <c r="R206" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T206" s="2">
@@ -7393,24 +7416,24 @@
         <v>0.25</v>
       </c>
       <c r="U206" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.8535167999999995</v>
       </c>
       <c r="V206" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.8535167999999995</v>
       </c>
       <c r="W206" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.425348266666667</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:31">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7454,11 +7477,11 @@
         <v>0.89</v>
       </c>
       <c r="R207" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T207" s="2">
@@ -7466,24 +7489,24 @@
         <v>2.41</v>
       </c>
       <c r="U207" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U207:U238" si="17">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>4.6994107317073173</v>
       </c>
       <c r="V207" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.5050239999999997</v>
       </c>
       <c r="W207" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="W207:W238" si="18">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>4.3297941573033709</v>
       </c>
       <c r="X207" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:31">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7527,11 +7550,11 @@
         <v>0.21</v>
       </c>
       <c r="R208" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T208" s="2">
@@ -7539,24 +7562,24 @@
         <v>0.52</v>
       </c>
       <c r="U208" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.1104179200000006</v>
       </c>
       <c r="V208" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.8535167999999995</v>
       </c>
       <c r="W208" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.9360128000000003</v>
       </c>
       <c r="X208" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:31">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7600,11 +7623,11 @@
         <v>0.21312</v>
       </c>
       <c r="R209" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T209" s="2">
@@ -7612,24 +7635,24 @@
         <v>0.39312000000000002</v>
       </c>
       <c r="U209" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.1746431999999993</v>
       </c>
       <c r="V209" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.33971456</v>
       </c>
       <c r="W209" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5670582582582584</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:31">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7673,11 +7696,11 @@
         <v>1.0803</v>
       </c>
       <c r="R210" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T210" s="2">
@@ -7685,24 +7708,24 @@
         <v>3.7603</v>
       </c>
       <c r="U210" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.6421792405063291</v>
       </c>
       <c r="V210" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.7951301818181817</v>
       </c>
       <c r="W210" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.8643369434416366</v>
       </c>
       <c r="X210" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:31">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7746,11 +7769,11 @@
         <v>0.6</v>
       </c>
       <c r="R211" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T211" s="2">
@@ -7758,7 +7781,7 @@
         <v>1.44</v>
       </c>
       <c r="U211" s="2">
-        <f t="shared" ref="U211:V228" si="16">(2*$R211*$S211*$F211*$G211*$E211*$H211*$I211)/(N211/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>4.4040191999999996</v>
       </c>
       <c r="V211" s="2">
@@ -7766,14 +7789,14 @@
         <v>4.4040191999999996</v>
       </c>
       <c r="W211" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.0828134400000007</v>
       </c>
       <c r="X211" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="212" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="2:31">
       <c r="C212">
         <v>56</v>
       </c>
@@ -7817,11 +7840,11 @@
         <v>0.18</v>
       </c>
       <c r="R212" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T212" s="2">
@@ -7829,7 +7852,7 @@
         <v>0.31</v>
       </c>
       <c r="U212" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.425348266666667</v>
       </c>
       <c r="V212" s="2">
@@ -7837,14 +7860,14 @@
         <v>2.9360127999999994</v>
       </c>
       <c r="W212" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1417827555555558</v>
       </c>
       <c r="X212" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="213" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="2:31">
       <c r="C213">
         <v>28</v>
       </c>
@@ -7888,11 +7911,11 @@
         <v>0.53</v>
       </c>
       <c r="R213" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T213" s="2">
@@ -7900,7 +7923,7 @@
         <v>1.27</v>
       </c>
       <c r="U213" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.9991569297297298</v>
       </c>
       <c r="V213" s="2">
@@ -7908,14 +7931,14 @@
         <v>4.9991569297297298</v>
       </c>
       <c r="W213" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.4899774792452831</v>
       </c>
       <c r="X213" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="214" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="2:31">
       <c r="B214" s="3"/>
       <c r="C214" s="3">
         <v>28</v>
@@ -7960,11 +7983,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R214" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T214" s="2">
@@ -7972,7 +7995,7 @@
         <v>0.27</v>
       </c>
       <c r="U214" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.425348266666667</v>
       </c>
       <c r="V214" s="2">
@@ -7980,14 +8003,14 @@
         <v>2.9360127999999994</v>
       </c>
       <c r="W214" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.4680063999999997</v>
       </c>
       <c r="X214" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="215" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="2:31">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8031,11 +8054,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="R215" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T215" s="2">
@@ -8043,7 +8066,7 @@
         <v>0.26</v>
       </c>
       <c r="U215" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.425348266666667</v>
       </c>
       <c r="V215" s="2">
@@ -8051,14 +8074,14 @@
         <v>3.425348266666667</v>
       </c>
       <c r="W215" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.4680063999999997</v>
       </c>
       <c r="X215" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="216" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="216" spans="2:31">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8102,11 +8125,11 @@
         <v>0.49</v>
       </c>
       <c r="R216" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T216" s="2">
@@ -8114,7 +8137,7 @@
         <v>1.3199999999999998</v>
       </c>
       <c r="U216" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5114343024390244</v>
       </c>
       <c r="V216" s="2">
@@ -8122,14 +8145,14 @@
         <v>4.4040191999999996</v>
       </c>
       <c r="W216" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.7748735999999998</v>
       </c>
       <c r="X216" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="217" spans="2:31">
       <c r="B217" s="3"/>
       <c r="C217" s="3">
         <v>14</v>
@@ -8174,11 +8197,11 @@
         <v>0.11</v>
       </c>
       <c r="R217" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T217" s="2">
@@ -8186,7 +8209,7 @@
         <v>0.3</v>
       </c>
       <c r="U217" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9360127999999994</v>
       </c>
       <c r="V217" s="2">
@@ -8194,14 +8217,14 @@
         <v>1.7126741333333335</v>
       </c>
       <c r="W217" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.8683717818181815</v>
       </c>
       <c r="X217" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="218" spans="2:31">
       <c r="B218" s="3"/>
       <c r="C218">
         <v>7</v>
@@ -8246,11 +8269,11 @@
         <v>0.1</v>
       </c>
       <c r="R218" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T218" s="2">
@@ -8258,7 +8281,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U218" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.9360127999999994</v>
       </c>
       <c r="V218" s="2">
@@ -8266,14 +8289,14 @@
         <v>1.8683717818181815</v>
       </c>
       <c r="W218" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.0552089599999999</v>
       </c>
       <c r="X218" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="219" spans="2:31">
       <c r="B219" s="3"/>
       <c r="C219">
         <v>7</v>
@@ -8318,11 +8341,11 @@
         <v>5.49</v>
       </c>
       <c r="R219" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="S219" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="T219" s="2">
@@ -8330,7 +8353,7 @@
         <v>28.009999999999998</v>
       </c>
       <c r="U219" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90876586666666659</v>
       </c>
       <c r="V219" s="2">
@@ -8338,14 +8361,14 @@
         <v>3.2605215087396507E-2</v>
       </c>
       <c r="W219" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.12911427613843351</v>
       </c>
       <c r="X219" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="2:31">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8389,11 +8412,11 @@
         <v>1.2</v>
       </c>
       <c r="R220" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T220" s="2">
@@ -8401,7 +8424,7 @@
         <v>2.7800000000000002</v>
       </c>
       <c r="U220" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.6827545924050638</v>
       </c>
       <c r="V220" s="2">
@@ -8409,14 +8432,14 @@
         <v>4.6827545924050638</v>
       </c>
       <c r="W220" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.0828134400000007</v>
       </c>
       <c r="X220" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="2:31">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8460,11 +8483,11 @@
         <v>0.32</v>
       </c>
       <c r="R221" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T221" s="2">
@@ -8472,7 +8495,7 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="U221" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="V221" s="2">
@@ -8480,14 +8503,14 @@
         <v>2.9360127999999994</v>
       </c>
       <c r="W221" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.2845055999999999</v>
       </c>
       <c r="X221" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="2:31">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8531,11 +8554,11 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="R222" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="T222" s="2">
@@ -8543,7 +8566,7 @@
         <v>2.6100000000000003</v>
       </c>
       <c r="U222" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.9325015040000002</v>
       </c>
       <c r="V222" s="2">
@@ -8551,14 +8574,14 @@
         <v>4.9325015040000002</v>
       </c>
       <c r="W222" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.3327712864864862</v>
       </c>
       <c r="X222" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="2:31">
       <c r="C223" s="3">
         <v>28</v>
       </c>
@@ -8602,11 +8625,11 @@
         <v>0.18</v>
       </c>
       <c r="R223" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T223" s="2">
@@ -8614,7 +8637,7 @@
         <v>0.42</v>
       </c>
       <c r="U223" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="V223" s="2">
@@ -8622,14 +8645,14 @@
         <v>3.161859938461538</v>
       </c>
       <c r="W223" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.2835655111111115</v>
       </c>
       <c r="X223" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="224" spans="2:31" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="2:31">
       <c r="B224" s="3"/>
       <c r="C224">
         <v>14</v>
@@ -8674,11 +8697,11 @@
         <v>0.16</v>
       </c>
       <c r="R224" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T224" s="2">
@@ -8686,7 +8709,7 @@
         <v>0.38</v>
       </c>
       <c r="U224" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="V224" s="2">
@@ -8694,14 +8717,14 @@
         <v>3.7367435636363631</v>
       </c>
       <c r="W224" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.5690111999999998</v>
       </c>
       <c r="X224" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8745,11 +8768,11 @@
         <v>1.05</v>
       </c>
       <c r="R225" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T225" s="2">
@@ -8757,7 +8780,7 @@
         <v>2.66</v>
       </c>
       <c r="U225" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.6242201600000001</v>
       </c>
       <c r="V225" s="2">
@@ -8765,14 +8788,14 @@
         <v>4.5671310222222221</v>
       </c>
       <c r="W225" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.5232153599999996</v>
       </c>
       <c r="X225" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24">
       <c r="C226" s="3">
         <v>14</v>
       </c>
@@ -8816,11 +8839,11 @@
         <v>0.21</v>
       </c>
       <c r="R226" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T226" s="2">
@@ -8828,7 +8851,7 @@
         <v>0.61</v>
       </c>
       <c r="U226" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.7402786133333334</v>
       </c>
       <c r="V226" s="2">
@@ -8836,14 +8859,14 @@
         <v>1.6441671680000001</v>
       </c>
       <c r="W226" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.9573418666666667</v>
       </c>
       <c r="X226" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24">
       <c r="B227" s="3"/>
       <c r="C227">
         <v>7</v>
@@ -8888,11 +8911,11 @@
         <v>0.19</v>
       </c>
       <c r="R227" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T227" s="2">
@@ -8900,7 +8923,7 @@
         <v>0.49000000000000005</v>
       </c>
       <c r="U227" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.161859938461538</v>
       </c>
       <c r="V227" s="2">
@@ -8908,14 +8931,14 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="W227" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.1633778526315788</v>
       </c>
       <c r="X227" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24">
       <c r="B228" s="3"/>
       <c r="C228">
         <v>7</v>
@@ -8960,11 +8983,11 @@
         <v>5.94</v>
       </c>
       <c r="R228" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="S228" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="T228" s="2">
@@ -8972,7 +8995,7 @@
         <v>28.48</v>
       </c>
       <c r="U228" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0989726759689922</v>
       </c>
       <c r="V228" s="2">
@@ -8980,14 +9003,14 @@
         <v>6.6714105976470581E-2</v>
       </c>
       <c r="W228" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.23866578316498316</v>
       </c>
       <c r="X228" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24">
       <c r="B229" s="3"/>
       <c r="C229" s="12">
         <v>700</v>
@@ -9032,11 +9055,11 @@
         <v>8.49</v>
       </c>
       <c r="R229" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79.5</v>
       </c>
       <c r="S229" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
       <c r="T229" s="2">
@@ -9044,21 +9067,21 @@
         <v>15.629999999999999</v>
       </c>
       <c r="U229" s="2">
-        <f t="shared" ref="U229:W268" si="17">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(N229/1000)/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.19895932773109243</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W229" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.16732268551236745</v>
       </c>
       <c r="X229" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24">
       <c r="B230" s="3"/>
       <c r="C230">
         <v>350</v>
@@ -9103,15 +9126,15 @@
         <v>13.17</v>
       </c>
       <c r="R230" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="S230" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="T230" s="2">
-        <f t="shared" ref="T230:T268" si="18">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="19">N230+O230+P230</f>
         <v>28.520000000000003</v>
       </c>
       <c r="U230" s="2">
@@ -9119,18 +9142,18 @@
         <v>4.4877913043478266</v>
       </c>
       <c r="V230" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="V230:V268" si="20">(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>4.133935419274092</v>
       </c>
       <c r="W230" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.5079835990888384</v>
       </c>
       <c r="X230" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24">
       <c r="B231" s="3"/>
       <c r="C231">
         <v>350</v>
@@ -9175,15 +9198,15 @@
         <v>19.23</v>
       </c>
       <c r="R231" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="S231" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>174</v>
       </c>
       <c r="T231" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>192.65</v>
       </c>
       <c r="U231" s="2">
@@ -9191,18 +9214,18 @@
         <v>2.2678597450280469</v>
       </c>
       <c r="V231" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.2891406904622586</v>
       </c>
       <c r="W231" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.312674446177847</v>
       </c>
       <c r="X231" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24">
       <c r="B232" s="3"/>
       <c r="C232">
         <v>175</v>
@@ -9247,15 +9270,15 @@
         <v>11.96</v>
       </c>
       <c r="R232" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="S232" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>175</v>
       </c>
       <c r="T232" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27.48</v>
       </c>
       <c r="U232" s="2">
@@ -9263,18 +9286,18 @@
         <v>4.4756292682926828</v>
       </c>
       <c r="V232" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.0577572481572473</v>
       </c>
       <c r="W232" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7617177257525083</v>
       </c>
       <c r="X232" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="3"/>
       <c r="C233">
         <v>175</v>
@@ -9319,15 +9342,15 @@
         <v>15.34</v>
       </c>
       <c r="R233" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="S233" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>86.5</v>
       </c>
       <c r="T233" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>139.46</v>
       </c>
       <c r="U233" s="2">
@@ -9335,18 +9358,18 @@
         <v>1.5095783601962158</v>
       </c>
       <c r="V233" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.45075712910650761</v>
       </c>
       <c r="W233" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8085636505867018</v>
       </c>
       <c r="X233" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24">
       <c r="B234" s="3"/>
       <c r="C234">
         <v>84</v>
@@ -9391,15 +9414,15 @@
         <v>8.98</v>
       </c>
       <c r="R234" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="S234" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="T234" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24.34</v>
       </c>
       <c r="U234" s="2">
@@ -9407,18 +9430,18 @@
         <v>4.0862033814432994</v>
       </c>
       <c r="V234" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.1722287157894735</v>
       </c>
       <c r="W234" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.5310621648106904</v>
       </c>
       <c r="X234" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="3"/>
       <c r="C235">
         <v>84</v>
@@ -9463,15 +9486,15 @@
         <v>13.53</v>
       </c>
       <c r="R235" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="S235" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="T235" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>165.89000000000001</v>
       </c>
       <c r="U235" s="2">
@@ -9479,18 +9502,18 @@
         <v>0.51377578542026292</v>
       </c>
       <c r="V235" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.50217332121998703</v>
       </c>
       <c r="W235" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8597527272727277</v>
       </c>
       <c r="X235" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24">
       <c r="B236" s="3"/>
       <c r="C236">
         <v>42</v>
@@ -9535,15 +9558,15 @@
         <v>8.25</v>
       </c>
       <c r="R236" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="S236" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="T236" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21.8</v>
       </c>
       <c r="U236" s="2">
@@ -9551,19 +9574,18 @@
         <v>4.6699467216494845</v>
       </c>
       <c r="V236" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.6906713372781068</v>
       </c>
       <c r="W236" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.8435076654545455</v>
       </c>
       <c r="X236" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="3"/>
       <c r="C237">
         <v>112</v>
@@ -9608,15 +9630,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R237" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
       <c r="T237" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.65</v>
       </c>
       <c r="U237" s="2">
@@ -9624,19 +9646,18 @@
         <v>4.3267557052631576</v>
       </c>
       <c r="V237" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.567131022222223</v>
       </c>
       <c r="W237" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.9360127999999994</v>
       </c>
       <c r="X237" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24">
       <c r="B238" s="3"/>
       <c r="C238">
         <v>56</v>
@@ -9681,15 +9702,15 @@
         <v>0.42</v>
       </c>
       <c r="R238" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T238" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.79</v>
       </c>
       <c r="U238" s="2">
@@ -9697,19 +9718,18 @@
         <v>4.3267557052631576</v>
       </c>
       <c r="V238" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.567131022222223</v>
       </c>
       <c r="W238" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.9573418666666667</v>
       </c>
       <c r="X238" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24">
       <c r="B239" s="3"/>
       <c r="C239">
         <v>56</v>
@@ -9754,35 +9774,34 @@
         <v>0.25</v>
       </c>
       <c r="R239" s="4">
-        <f t="shared" ref="R239:R268" si="19">(D239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f t="shared" ref="S239:S268" si="20">(C239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="T239" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.63</v>
       </c>
       <c r="U239" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="U239:U268" si="21">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>4.3267557052631576</v>
       </c>
       <c r="V239" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.3267557052631576</v>
       </c>
       <c r="W239" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="W239:W268" si="22">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>3.2883343360000001</v>
       </c>
       <c r="X239" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24">
       <c r="B240" s="3"/>
       <c r="C240">
         <v>56</v>
@@ -9827,35 +9846,34 @@
         <v>0.17</v>
       </c>
       <c r="R240" s="4">
+        <f t="shared" ref="R240:R268" si="23">(D240-I240+1+2*K240)/M240</f>
+        <v>28</v>
+      </c>
+      <c r="S240" s="4">
+        <f t="shared" ref="S240:S268" si="24">(C240-H240+1+2*J240)/L240</f>
+        <v>28</v>
+      </c>
+      <c r="T240" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S240" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="U240" s="2">
+        <f t="shared" si="21"/>
+        <v>3.425348266666667</v>
+      </c>
+      <c r="V240" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T240" s="2">
-        <f t="shared" si="18"/>
-        <v>0.53</v>
-      </c>
-      <c r="U240" s="2">
-        <f t="shared" si="17"/>
-        <v>3.425348266666667</v>
-      </c>
-      <c r="V240" s="2">
-        <f t="shared" si="17"/>
         <v>1.7126741333333335</v>
       </c>
       <c r="W240" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.4178928941176472</v>
       </c>
       <c r="X240" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24">
       <c r="B241" s="3"/>
       <c r="C241" s="3">
         <v>28</v>
@@ -9900,35 +9918,34 @@
         <v>0.25</v>
       </c>
       <c r="R241" s="4">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="S241" s="4">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T241" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S241" s="4">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="U241" s="2">
+        <f t="shared" si="21"/>
+        <v>3.9146837333333333</v>
+      </c>
+      <c r="V241" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T241" s="2">
-        <f t="shared" si="18"/>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="U241" s="2">
-        <f t="shared" si="17"/>
         <v>3.9146837333333333</v>
       </c>
-      <c r="V241" s="2">
-        <f t="shared" si="17"/>
-        <v>3.9146837333333333</v>
-      </c>
       <c r="W241" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.2883343360000001</v>
       </c>
       <c r="X241" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24">
       <c r="B242" s="3"/>
       <c r="C242" s="3">
         <v>28</v>
@@ -9973,35 +9990,34 @@
         <v>0.21</v>
       </c>
       <c r="R242" s="4">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="S242" s="4">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T242" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S242" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="U242" s="2">
+        <f t="shared" si="21"/>
+        <v>4.1104179199999997</v>
+      </c>
+      <c r="V242" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T242" s="2">
-        <f t="shared" si="18"/>
-        <v>0.61</v>
-      </c>
-      <c r="U242" s="2">
-        <f t="shared" si="17"/>
         <v>4.1104179199999997</v>
       </c>
-      <c r="V242" s="2">
-        <f t="shared" si="17"/>
-        <v>4.1104179199999997</v>
-      </c>
       <c r="W242" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.9146837333333333</v>
       </c>
       <c r="X242" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24">
       <c r="B243" s="3"/>
       <c r="C243" s="3">
         <v>28</v>
@@ -10046,35 +10062,34 @@
         <v>0.18</v>
       </c>
       <c r="R243" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S243" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T243" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S243" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="U243" s="2">
+        <f t="shared" si="21"/>
+        <v>2.5690111999999998</v>
+      </c>
+      <c r="V243" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T243" s="2">
-        <f t="shared" si="18"/>
-        <v>0.54</v>
-      </c>
-      <c r="U243" s="2">
-        <f t="shared" si="17"/>
-        <v>2.5690111999999998</v>
-      </c>
-      <c r="V243" s="2">
-        <f t="shared" si="17"/>
         <v>2.0552089599999999</v>
       </c>
       <c r="W243" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.2835655111111115</v>
       </c>
       <c r="X243" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24">
       <c r="B244" s="3"/>
       <c r="C244" s="3">
         <v>14</v>
@@ -10119,35 +10134,34 @@
         <v>0.24</v>
       </c>
       <c r="R244" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S244" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T244" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S244" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="U244" s="2">
+        <f t="shared" si="21"/>
+        <v>4.1104179199999997</v>
+      </c>
+      <c r="V244" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T244" s="2">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
-      </c>
-      <c r="U244" s="2">
-        <f t="shared" si="17"/>
-        <v>4.1104179199999997</v>
-      </c>
-      <c r="V244" s="2">
-        <f t="shared" si="17"/>
         <v>2.6518825290322585</v>
       </c>
       <c r="W244" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.425348266666667</v>
       </c>
       <c r="X244" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24">
       <c r="B245" s="3"/>
       <c r="C245" s="3">
         <v>28</v>
@@ -10192,35 +10206,34 @@
         <v>0.7</v>
       </c>
       <c r="R245" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S245" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T245" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S245" s="4">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="U245" s="2">
+        <f t="shared" si="21"/>
+        <v>2.5294879507692309</v>
+      </c>
+      <c r="V245" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T245" s="2">
-        <f t="shared" si="18"/>
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="U245" s="2">
-        <f t="shared" si="17"/>
-        <v>2.5294879507692309</v>
-      </c>
-      <c r="V245" s="2">
-        <f t="shared" si="17"/>
         <v>2.2835655111111115</v>
       </c>
       <c r="W245" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.3488102400000002</v>
       </c>
       <c r="X245" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24">
       <c r="B246" s="3"/>
       <c r="C246" s="3">
         <v>14</v>
@@ -10265,35 +10278,34 @@
         <v>0.24</v>
       </c>
       <c r="R246" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S246" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T246" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S246" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="U246" s="2">
+        <f t="shared" si="21"/>
+        <v>3.161859938461538</v>
+      </c>
+      <c r="V246" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T246" s="2">
-        <f t="shared" si="18"/>
-        <v>0.77</v>
-      </c>
-      <c r="U246" s="2">
-        <f t="shared" si="17"/>
-        <v>3.161859938461538</v>
-      </c>
-      <c r="V246" s="2">
-        <f t="shared" si="17"/>
         <v>3.0447540148148149</v>
       </c>
       <c r="W246" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.425348266666667</v>
       </c>
       <c r="X246" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24">
       <c r="B247" s="3"/>
       <c r="C247" s="3">
         <v>14</v>
@@ -10338,35 +10350,34 @@
         <v>0.24</v>
       </c>
       <c r="R247" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S247" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T247" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S247" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="U247" s="2">
+        <f t="shared" si="21"/>
+        <v>4.1104179199999997</v>
+      </c>
+      <c r="V247" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T247" s="2">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
-      </c>
-      <c r="U247" s="2">
-        <f t="shared" si="17"/>
-        <v>4.1104179199999997</v>
-      </c>
-      <c r="V247" s="2">
-        <f t="shared" si="17"/>
         <v>2.6518825290322585</v>
       </c>
       <c r="W247" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.425348266666667</v>
       </c>
       <c r="X247" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24">
       <c r="B248" s="3"/>
       <c r="C248" s="3">
         <v>14</v>
@@ -10411,35 +10422,34 @@
         <v>0.19</v>
       </c>
       <c r="R248" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S248" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T248" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S248" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="U248" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0276044799999999</v>
+      </c>
+      <c r="V248" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T248" s="2">
-        <f t="shared" si="18"/>
-        <v>0.95</v>
-      </c>
-      <c r="U248" s="2">
-        <f t="shared" si="17"/>
-        <v>1.0276044799999999</v>
-      </c>
-      <c r="V248" s="2">
-        <f t="shared" si="17"/>
         <v>1.1417827555555558</v>
       </c>
       <c r="W248" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.1633778526315788</v>
       </c>
       <c r="X248" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24">
       <c r="B249" s="3"/>
       <c r="C249" s="3">
         <v>7</v>
@@ -10484,35 +10494,34 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="R249" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S249" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T249" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S249" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="U249" s="2">
+        <f t="shared" si="21"/>
+        <v>2.9833678451612906</v>
+      </c>
+      <c r="V249" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T249" s="2">
-        <f t="shared" si="18"/>
-        <v>1.85</v>
-      </c>
-      <c r="U249" s="2">
-        <f t="shared" si="17"/>
-        <v>2.9833678451612906</v>
-      </c>
-      <c r="V249" s="2">
-        <f t="shared" si="17"/>
         <v>2.8456739446153847</v>
       </c>
       <c r="W249" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.1891173517241378</v>
       </c>
       <c r="X249" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24">
       <c r="B250" s="3"/>
       <c r="C250" s="3">
         <v>7</v>
@@ -10557,35 +10566,34 @@
         <v>0.37</v>
       </c>
       <c r="R250" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S250" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T250" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S250" s="4">
+        <v>1.2799999999999998</v>
+      </c>
+      <c r="U250" s="2">
+        <f t="shared" si="21"/>
+        <v>2.7402786133333334</v>
+      </c>
+      <c r="V250" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T250" s="2">
-        <f t="shared" si="18"/>
-        <v>1.2799999999999998</v>
-      </c>
-      <c r="U250" s="2">
-        <f t="shared" si="17"/>
-        <v>2.7402786133333334</v>
-      </c>
-      <c r="V250" s="2">
-        <f t="shared" si="17"/>
         <v>1.3476780065573772</v>
       </c>
       <c r="W250" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.2218475243243243</v>
       </c>
       <c r="X250" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24">
       <c r="B251" s="3"/>
       <c r="C251" s="3">
         <v>14</v>
@@ -10630,35 +10638,34 @@
         <v>0.82</v>
       </c>
       <c r="R251" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S251" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T251" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S251" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="U251" s="2">
+        <f t="shared" si="21"/>
+        <v>1.6441671680000001</v>
+      </c>
+      <c r="V251" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T251" s="2">
-        <f t="shared" si="18"/>
-        <v>3.51</v>
-      </c>
-      <c r="U251" s="2">
-        <f t="shared" si="17"/>
-        <v>1.6441671680000001</v>
-      </c>
-      <c r="V251" s="2">
-        <f t="shared" si="17"/>
         <v>0.97287998106508888</v>
       </c>
       <c r="W251" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.0050819121951222</v>
       </c>
       <c r="X251" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24">
       <c r="B252" s="3"/>
       <c r="C252" s="3">
         <v>7</v>
@@ -10703,35 +10710,34 @@
         <v>0.37</v>
       </c>
       <c r="R252" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S252" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T252" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S252" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="U252" s="2">
+        <f t="shared" si="21"/>
+        <v>1.6119285960784311</v>
+      </c>
+      <c r="V252" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T252" s="2">
-        <f t="shared" si="18"/>
-        <v>1.52</v>
-      </c>
-      <c r="U252" s="2">
-        <f t="shared" si="17"/>
-        <v>1.6119285960784311</v>
-      </c>
-      <c r="V252" s="2">
-        <f t="shared" si="17"/>
         <v>1.2845055999999999</v>
       </c>
       <c r="W252" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.2218475243243243</v>
       </c>
       <c r="X252" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24">
       <c r="B253" s="3"/>
       <c r="C253">
         <v>112</v>
@@ -10776,35 +10782,34 @@
         <v>0.53</v>
       </c>
       <c r="R253" s="4">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="S253" s="4">
+        <f t="shared" si="24"/>
+        <v>112</v>
+      </c>
+      <c r="T253" s="2">
         <f t="shared" si="19"/>
-        <v>112</v>
-      </c>
-      <c r="S253" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="U253" s="2">
+        <f t="shared" si="21"/>
+        <v>3.6537048177777778</v>
+      </c>
+      <c r="V253" s="2">
         <f t="shared" si="20"/>
-        <v>112</v>
-      </c>
-      <c r="T253" s="2">
-        <f t="shared" si="18"/>
-        <v>1.42</v>
-      </c>
-      <c r="U253" s="2">
-        <f t="shared" si="17"/>
-        <v>3.6537048177777778</v>
-      </c>
-      <c r="V253" s="2">
-        <f t="shared" si="17"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="W253" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.1022022037735848</v>
       </c>
       <c r="X253" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24">
       <c r="B254" s="3"/>
       <c r="C254">
         <v>56</v>
@@ -10849,35 +10854,34 @@
         <v>0.68</v>
       </c>
       <c r="R254" s="4">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="S254" s="4">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="T254" s="2">
         <f t="shared" si="19"/>
-        <v>56</v>
-      </c>
-      <c r="S254" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="U254" s="2">
+        <f t="shared" si="21"/>
+        <v>4.567131022222223</v>
+      </c>
+      <c r="V254" s="2">
         <f t="shared" si="20"/>
-        <v>56</v>
-      </c>
-      <c r="T254" s="2">
-        <f t="shared" si="18"/>
-        <v>1.46</v>
-      </c>
-      <c r="U254" s="2">
-        <f t="shared" si="17"/>
-        <v>4.567131022222223</v>
-      </c>
-      <c r="V254" s="2">
-        <f t="shared" si="17"/>
         <v>3.9146837333333333</v>
       </c>
       <c r="W254" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.4178928941176472</v>
       </c>
       <c r="X254" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24">
       <c r="B255" s="3"/>
       <c r="C255">
         <v>56</v>
@@ -10922,35 +10926,34 @@
         <v>0.53</v>
       </c>
       <c r="R255" s="4">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+      <c r="S255" s="4">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="T255" s="2">
         <f t="shared" si="19"/>
-        <v>56</v>
-      </c>
-      <c r="S255" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="U255" s="2">
+        <f t="shared" si="21"/>
+        <v>3.9146837333333333</v>
+      </c>
+      <c r="V255" s="2">
         <f t="shared" si="20"/>
-        <v>56</v>
-      </c>
-      <c r="T255" s="2">
-        <f t="shared" si="18"/>
-        <v>1.31</v>
-      </c>
-      <c r="U255" s="2">
-        <f t="shared" si="17"/>
-        <v>3.9146837333333333</v>
-      </c>
-      <c r="V255" s="2">
-        <f t="shared" si="17"/>
         <v>4.567131022222223</v>
       </c>
       <c r="W255" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.1022022037735848</v>
       </c>
       <c r="X255" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24">
       <c r="B256" s="3"/>
       <c r="C256">
         <v>56</v>
@@ -10995,35 +10998,34 @@
         <v>0.35</v>
       </c>
       <c r="R256" s="4">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="S256" s="4">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T256" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S256" s="4">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="U256" s="2">
+        <f t="shared" si="21"/>
+        <v>3.0447540148148149</v>
+      </c>
+      <c r="V256" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T256" s="2">
-        <f t="shared" si="18"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="U256" s="2">
-        <f t="shared" si="17"/>
-        <v>3.0447540148148149</v>
-      </c>
-      <c r="V256" s="2">
-        <f t="shared" si="17"/>
         <v>1.7491140085106385</v>
       </c>
       <c r="W256" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.3488102400000002</v>
       </c>
       <c r="X256" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24">
       <c r="B257" s="3"/>
       <c r="C257" s="3">
         <v>28</v>
@@ -11068,35 +11070,34 @@
         <v>0.46</v>
       </c>
       <c r="R257" s="4">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="S257" s="4">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T257" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S257" s="4">
+        <v>1.23</v>
+      </c>
+      <c r="U257" s="2">
+        <f t="shared" si="21"/>
+        <v>4.567131022222223</v>
+      </c>
+      <c r="V257" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T257" s="2">
-        <f t="shared" si="18"/>
-        <v>1.23</v>
-      </c>
-      <c r="U257" s="2">
-        <f t="shared" si="17"/>
-        <v>4.567131022222223</v>
-      </c>
-      <c r="V257" s="2">
-        <f t="shared" si="17"/>
         <v>4.0101638243902444</v>
       </c>
       <c r="W257" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.5742764521739132</v>
       </c>
       <c r="X257" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24">
       <c r="B258" s="3"/>
       <c r="C258" s="3">
         <v>28</v>
@@ -11141,35 +11142,34 @@
         <v>0.49</v>
       </c>
       <c r="R258" s="4">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="S258" s="4">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T258" s="2">
         <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-      <c r="S258" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="U258" s="2">
+        <f t="shared" si="21"/>
+        <v>4.3267557052631576</v>
+      </c>
+      <c r="V258" s="2">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="T258" s="2">
-        <f t="shared" si="18"/>
-        <v>1.22</v>
-      </c>
-      <c r="U258" s="2">
-        <f t="shared" si="17"/>
-        <v>4.3267557052631576</v>
-      </c>
-      <c r="V258" s="2">
-        <f t="shared" si="17"/>
         <v>4.6976204800000003</v>
       </c>
       <c r="W258" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.3554431999999998</v>
       </c>
       <c r="X258" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24">
       <c r="B259" s="3"/>
       <c r="C259" s="3">
         <v>28</v>
@@ -11214,35 +11214,34 @@
         <v>0.33</v>
       </c>
       <c r="R259" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S259" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T259" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S259" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="U259" s="2">
+        <f t="shared" si="21"/>
+        <v>2.3488102400000002</v>
+      </c>
+      <c r="V259" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T259" s="2">
-        <f t="shared" si="18"/>
-        <v>1.07</v>
-      </c>
-      <c r="U259" s="2">
-        <f t="shared" si="17"/>
-        <v>2.3488102400000002</v>
-      </c>
-      <c r="V259" s="2">
-        <f t="shared" si="17"/>
         <v>2.1079066256410255</v>
       </c>
       <c r="W259" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.4911623757575758</v>
       </c>
       <c r="X259" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24">
       <c r="B260" s="3"/>
       <c r="C260" s="3">
         <v>14</v>
@@ -11287,35 +11286,34 @@
         <v>0.52</v>
       </c>
       <c r="R260" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S260" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T260" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S260" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="U260" s="2">
+        <f t="shared" si="21"/>
+        <v>4.215813251282051</v>
+      </c>
+      <c r="V260" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T260" s="2">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="U260" s="2">
-        <f t="shared" si="17"/>
-        <v>4.215813251282051</v>
-      </c>
-      <c r="V260" s="2">
-        <f t="shared" si="17"/>
         <v>2.7867240135593221</v>
       </c>
       <c r="W260" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.161859938461538</v>
       </c>
       <c r="X260" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24">
       <c r="B261" s="3"/>
       <c r="C261" s="3">
         <v>28</v>
@@ -11360,35 +11358,34 @@
         <v>1.4</v>
       </c>
       <c r="R261" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S261" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T261" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S261" s="4">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="U261" s="2">
+        <f t="shared" si="21"/>
+        <v>2.4911623757575758</v>
+      </c>
+      <c r="V261" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T261" s="2">
-        <f t="shared" si="18"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="U261" s="2">
-        <f t="shared" si="17"/>
-        <v>2.4911623757575758</v>
-      </c>
-      <c r="V261" s="2">
-        <f t="shared" si="17"/>
         <v>2.2218475243243243</v>
       </c>
       <c r="W261" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.3488102400000002</v>
       </c>
       <c r="X261" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24">
       <c r="B262" s="3"/>
       <c r="C262" s="3">
         <v>14</v>
@@ -11433,35 +11430,34 @@
         <v>0.51</v>
       </c>
       <c r="R262" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S262" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T262" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S262" s="4">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="U262" s="2">
+        <f t="shared" si="21"/>
+        <v>3.425348266666667</v>
+      </c>
+      <c r="V262" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T262" s="2">
-        <f t="shared" si="18"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="U262" s="2">
-        <f t="shared" si="17"/>
-        <v>3.425348266666667</v>
-      </c>
-      <c r="V262" s="2">
-        <f t="shared" si="17"/>
         <v>2.6953560131147545</v>
       </c>
       <c r="W262" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.2238571921568622</v>
       </c>
       <c r="X262" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24">
       <c r="B263" s="3"/>
       <c r="C263" s="3">
         <v>14</v>
@@ -11506,35 +11502,34 @@
         <v>0.52</v>
       </c>
       <c r="R263" s="4">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S263" s="4">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="T263" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="S263" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="U263" s="2">
+        <f t="shared" si="21"/>
+        <v>4.4436950486486486</v>
+      </c>
+      <c r="V263" s="2">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="T263" s="2">
-        <f t="shared" si="18"/>
-        <v>1.49</v>
-      </c>
-      <c r="U263" s="2">
-        <f t="shared" si="17"/>
-        <v>4.4436950486486486</v>
-      </c>
-      <c r="V263" s="2">
-        <f t="shared" si="17"/>
         <v>2.7402786133333334</v>
       </c>
       <c r="W263" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.161859938461538</v>
       </c>
       <c r="X263" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A264" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24">
       <c r="B264" s="3"/>
       <c r="C264" s="3">
         <v>14</v>
@@ -11579,35 +11574,34 @@
         <v>0.41</v>
       </c>
       <c r="R264" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S264" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T264" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S264" s="4">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="U264" s="2">
+        <f t="shared" si="21"/>
+        <v>1.3048945777777778</v>
+      </c>
+      <c r="V264" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T264" s="2">
-        <f t="shared" si="18"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="U264" s="2">
-        <f t="shared" si="17"/>
-        <v>1.3048945777777778</v>
-      </c>
-      <c r="V264" s="2">
-        <f t="shared" si="17"/>
         <v>1.4680063999999997</v>
       </c>
       <c r="W264" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.0050819121951222</v>
       </c>
       <c r="X264" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24">
       <c r="B265" s="3"/>
       <c r="C265" s="3">
         <v>7</v>
@@ -11652,35 +11646,34 @@
         <v>1.22</v>
       </c>
       <c r="R265" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S265" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T265" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S265" s="4">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="U265" s="2">
+        <f t="shared" si="21"/>
+        <v>3.057335642975207</v>
+      </c>
+      <c r="V265" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T265" s="2">
-        <f t="shared" si="18"/>
-        <v>3.7199999999999998</v>
-      </c>
-      <c r="U265" s="2">
-        <f t="shared" si="17"/>
-        <v>3.057335642975207</v>
-      </c>
-      <c r="V265" s="2">
-        <f t="shared" si="17"/>
         <v>2.867733432558139</v>
       </c>
       <c r="W265" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>3.0322755147540987</v>
       </c>
       <c r="X265" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A266" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24">
       <c r="B266" s="3"/>
       <c r="C266" s="3">
         <v>7</v>
@@ -11725,35 +11718,34 @@
         <v>0.74</v>
       </c>
       <c r="R266" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S266" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T266" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S266" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="U266" s="2">
+        <f t="shared" si="21"/>
+        <v>2.3828509681159424</v>
+      </c>
+      <c r="V266" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T266" s="2">
-        <f t="shared" si="18"/>
-        <v>2.34</v>
-      </c>
-      <c r="U266" s="2">
-        <f t="shared" si="17"/>
-        <v>2.3828509681159424</v>
-      </c>
-      <c r="V266" s="2">
-        <f t="shared" si="17"/>
         <v>1.8067771076923076</v>
       </c>
       <c r="W266" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.2218475243243243</v>
       </c>
       <c r="X266" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24">
       <c r="B267" s="3"/>
       <c r="C267" s="3">
         <v>14</v>
@@ -11798,35 +11790,34 @@
         <v>1.71</v>
       </c>
       <c r="R267" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S267" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T267" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S267" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="U267" s="2">
+        <f t="shared" si="21"/>
+        <v>1.7216410136125655</v>
+      </c>
+      <c r="V267" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T267" s="2">
-        <f t="shared" si="18"/>
-        <v>6.24</v>
-      </c>
-      <c r="U267" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7216410136125655</v>
-      </c>
-      <c r="V267" s="2">
-        <f t="shared" si="17"/>
         <v>1.255089441221374</v>
       </c>
       <c r="W267" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1.9230025356725147</v>
       </c>
       <c r="X267" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24">
       <c r="B268" s="3"/>
       <c r="C268" s="3">
         <v>7</v>
@@ -11871,45 +11862,45 @@
         <v>0.73</v>
       </c>
       <c r="R268" s="4">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S268" s="4">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="T268" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="S268" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="U268" s="2">
+        <f t="shared" si="21"/>
+        <v>1.9573418666666667</v>
+      </c>
+      <c r="V268" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="T268" s="2">
-        <f t="shared" si="18"/>
-        <v>2.64</v>
-      </c>
-      <c r="U268" s="2">
-        <f t="shared" si="17"/>
-        <v>1.9573418666666667</v>
-      </c>
-      <c r="V268" s="2">
-        <f t="shared" si="17"/>
         <v>1.536604829906542</v>
       </c>
       <c r="W268" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2.2522837917808221</v>
       </c>
       <c r="X268" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24">
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -11929,13 +11920,13 @@
         <v>11</v>
       </c>
       <c r="I278" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J278" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -11950,7 +11941,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -11965,7 +11956,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -11980,7 +11971,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="C283">
         <v>1760</v>
       </c>
@@ -11995,7 +11986,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -12010,7 +12001,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -12025,7 +12016,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12040,7 +12031,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="C287">
         <v>2048</v>
       </c>
@@ -12055,7 +12046,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12070,7 +12061,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12085,7 +12076,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12100,7 +12091,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12115,7 +12106,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -12135,13 +12126,13 @@
         <v>5</v>
       </c>
       <c r="I295" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J295" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12156,7 +12147,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12171,7 +12162,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12186,7 +12177,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12201,7 +12192,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12216,7 +12207,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12231,7 +12222,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12246,7 +12237,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12261,7 +12252,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12276,7 +12267,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -12291,7 +12282,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -12306,7 +12297,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -12321,7 +12312,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -12336,7 +12327,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -12351,7 +12342,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -12366,7 +12357,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -12381,7 +12372,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -12396,7 +12387,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -12411,7 +12402,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -12426,7 +12417,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="C315">
         <v>256</v>
       </c>
@@ -12441,7 +12432,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="C316">
         <v>256</v>
       </c>
@@ -12456,7 +12447,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="C317">
         <v>256</v>
       </c>
@@ -12471,20 +12462,20 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C320" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D320" t="s">
         <v>8</v>
@@ -12499,13 +12490,13 @@
         <v>5</v>
       </c>
       <c r="I320" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J320" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="3:10">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -12520,7 +12511,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:10">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -12535,7 +12526,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:10">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -12550,7 +12541,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:10">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -12565,7 +12556,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:10">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -12580,7 +12571,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:10">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -12595,7 +12586,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:10">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -12610,7 +12601,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:10">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -12625,7 +12616,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:10">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -12640,7 +12631,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:10">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -12655,7 +12646,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:10">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -12670,7 +12661,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:10">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -12685,7 +12676,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:10">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -12700,7 +12691,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:10">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -12715,7 +12706,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:10">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -12730,7 +12721,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:10">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -12745,7 +12736,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="C337">
         <v>512</v>
       </c>
@@ -12760,7 +12751,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -12775,7 +12766,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -12790,7 +12781,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -12801,19 +12792,19 @@
         <v>2</v>
       </c>
       <c r="G343" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I343" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J343" t="s">
         <v>1</v>
       </c>
       <c r="K343" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
       <c r="C345">
         <v>100000</v>
       </c>
@@ -12835,7 +12826,7 @@
         <v>2.5298221281347035E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="C346">
         <v>100000</v>
       </c>
@@ -12847,7 +12838,7 @@
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2">
-        <f t="shared" ref="I346:I369" si="21">C346*4*D346/(G346/1000)/10^9</f>
+        <f t="shared" ref="I346:I369" si="25">C346*4*D346/(G346/1000)/10^9</f>
         <v>2.8368794326241136</v>
       </c>
       <c r="J346" t="s">
@@ -12857,7 +12848,7 @@
         <v>1.6248076809271893E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="C347">
         <v>100000</v>
       </c>
@@ -12869,7 +12860,7 @@
       </c>
       <c r="H347" s="2"/>
       <c r="I347" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.9603960396039604</v>
       </c>
       <c r="J347" t="s">
@@ -12879,7 +12870,7 @@
         <v>7.9347337699509482E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="C348">
         <v>100000</v>
       </c>
@@ -12893,7 +12884,7 @@
         <v>1.02</v>
       </c>
       <c r="I348" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.2745098039215677</v>
       </c>
       <c r="J348" t="s">
@@ -12903,7 +12894,7 @@
         <v>4.3817804600413325E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="C349">
         <v>100000</v>
       </c>
@@ -12917,7 +12908,7 @@
         <v>1.19</v>
       </c>
       <c r="I349" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10.756302521008404</v>
       </c>
       <c r="J349" t="s">
@@ -12927,7 +12918,7 @@
         <v>4.0987803063838354E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="C350">
         <v>3097600</v>
       </c>
@@ -12939,7 +12930,7 @@
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.4130187854958498</v>
       </c>
       <c r="J350" t="s">
@@ -12949,7 +12940,7 @@
         <v>1.7204650534085403E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="C351">
         <f>1760*1760</f>
         <v>3097600</v>
@@ -12962,7 +12953,7 @@
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.5805445090241674</v>
       </c>
       <c r="J351" t="s">
@@ -12972,7 +12963,7 @@
         <v>6.9397406291589817E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="C352">
         <f>1760*1760</f>
         <v>3097600</v>
@@ -12985,7 +12976,7 @@
       </c>
       <c r="H352" s="2"/>
       <c r="I352" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12.344109589041098</v>
       </c>
       <c r="J352" t="s">
@@ -12995,7 +12986,7 @@
         <v>5.9329587896765144E-2</v>
       </c>
     </row>
-    <row r="353" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:11">
       <c r="C353">
         <v>3097600</v>
       </c>
@@ -13009,7 +13000,7 @@
         <v>9.4939999999999998</v>
       </c>
       <c r="I353" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>20.881230250684645</v>
       </c>
       <c r="J353" t="s">
@@ -13019,7 +13010,7 @@
         <v>9.3936148526538921E-2</v>
       </c>
     </row>
-    <row r="354" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:11">
       <c r="C354">
         <v>3097600</v>
       </c>
@@ -13033,7 +13024,7 @@
         <v>10.219999999999999</v>
       </c>
       <c r="I354" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>38.795772994129166</v>
       </c>
       <c r="J354" t="s">
@@ -13043,7 +13034,7 @@
         <v>0.20337158110217823</v>
       </c>
     </row>
-    <row r="355" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:11">
       <c r="C355">
         <v>4194304</v>
       </c>
@@ -13055,7 +13046,7 @@
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.5151926364234045</v>
       </c>
       <c r="J355" t="s">
@@ -13065,7 +13056,7 @@
         <v>1.4966629547095755E-2</v>
       </c>
     </row>
-    <row r="356" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:11">
       <c r="C356">
         <f>2048*2048</f>
         <v>4194304</v>
@@ -13078,7 +13069,7 @@
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.504905390292997</v>
       </c>
       <c r="J356" t="s">
@@ -13088,7 +13079,7 @@
         <v>0.15587174214718943</v>
       </c>
     </row>
-    <row r="357" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:11">
       <c r="C357">
         <f>2048*2048</f>
         <v>4194304</v>
@@ -13101,7 +13092,7 @@
       </c>
       <c r="H357" s="2"/>
       <c r="I357" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12.67161329305136</v>
       </c>
       <c r="J357" t="s">
@@ -13111,7 +13102,7 @@
         <v>3.487119154832595E-2</v>
       </c>
     </row>
-    <row r="358" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:11">
       <c r="C358">
         <v>4194304</v>
       </c>
@@ -13125,7 +13116,7 @@
         <v>11.534000000000001</v>
       </c>
       <c r="I358" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>23.27340523669152</v>
       </c>
       <c r="J358" t="s">
@@ -13135,7 +13126,7 @@
         <v>2.244994432064374E-2</v>
       </c>
     </row>
-    <row r="359" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:11">
       <c r="C359">
         <v>4194304</v>
       </c>
@@ -13149,7 +13140,7 @@
         <v>12.296000000000001</v>
       </c>
       <c r="I359" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>43.662240728692254</v>
       </c>
       <c r="J359" t="s">
@@ -13159,7 +13150,7 @@
         <v>0.10892199043352088</v>
       </c>
     </row>
-    <row r="360" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:11">
       <c r="C360">
         <v>6553600</v>
       </c>
@@ -13171,7 +13162,7 @@
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.6399311531841647</v>
       </c>
       <c r="J360" t="s">
@@ -13181,7 +13172,7 @@
         <v>1.0198039027186119E-2</v>
       </c>
     </row>
-    <row r="361" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:11">
       <c r="C361">
         <f>2560*2560</f>
         <v>6553600</v>
@@ -13194,7 +13185,7 @@
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.8042274486454293</v>
       </c>
       <c r="J361" t="s">
@@ -13204,7 +13195,7 @@
         <v>0.34713686061840238</v>
       </c>
     </row>
-    <row r="362" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:11">
       <c r="C362">
         <f>2560*2560</f>
         <v>6553600</v>
@@ -13217,7 +13208,7 @@
       </c>
       <c r="H362" s="2"/>
       <c r="I362" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>13.099013116802002</v>
       </c>
       <c r="J362" t="s">
@@ -13227,7 +13218,7 @@
         <v>4.1952353926806012E-2</v>
       </c>
     </row>
-    <row r="363" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:11">
       <c r="C363">
         <v>6553600</v>
       </c>
@@ -13241,7 +13232,7 @@
         <v>17.770000000000003</v>
       </c>
       <c r="I363" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>23.603286437816539</v>
       </c>
       <c r="J363" t="s">
@@ -13251,7 +13242,7 @@
         <v>0.22163032283512157</v>
       </c>
     </row>
-    <row r="364" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:11">
       <c r="C364">
         <v>6553600</v>
       </c>
@@ -13265,7 +13256,7 @@
         <v>19.187999999999999</v>
       </c>
       <c r="I364" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>43.717990410673337</v>
       </c>
       <c r="J364" t="s">
@@ -13275,9 +13266,9 @@
         <v>0.19374209661299763</v>
       </c>
     </row>
-    <row r="365" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:11">
       <c r="C365">
-        <f t="shared" ref="C365:C367" si="22">4096*4096</f>
+        <f t="shared" ref="C365:C367" si="26">4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D365">
@@ -13288,7 +13279,7 @@
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.0021984732824425</v>
       </c>
       <c r="J365" t="s">
@@ -13298,9 +13289,9 @@
         <v>0.53312662660947818</v>
       </c>
     </row>
-    <row r="366" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:11">
       <c r="C366">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>16777216</v>
       </c>
       <c r="D366">
@@ -13311,7 +13302,7 @@
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.0875239477503635</v>
       </c>
       <c r="J366" t="s">
@@ -13321,9 +13312,9 @@
         <v>0.79520060362150091</v>
       </c>
     </row>
-    <row r="367" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:11">
       <c r="C367">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>16777216</v>
       </c>
       <c r="D367">
@@ -13334,7 +13325,7 @@
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10.619331276208561</v>
       </c>
       <c r="J367" t="s">
@@ -13344,7 +13335,7 @@
         <v>0.36968094351751413</v>
       </c>
     </row>
-    <row r="368" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:11">
       <c r="C368">
         <v>16777216</v>
       </c>
@@ -13359,7 +13350,7 @@
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>19.974362378153135</v>
       </c>
       <c r="J368" t="s">
@@ -13369,7 +13360,7 @@
         <v>0.3254289476982648</v>
       </c>
     </row>
-    <row r="369" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:11">
       <c r="C369">
         <v>16777216</v>
       </c>
@@ -13384,7 +13375,7 @@
       </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>38.565542130594061</v>
       </c>
       <c r="J369" t="s">
@@ -13396,7 +13387,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13408,92 +13404,92 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/train/DeepBench_IA_KNL7250.xlsx
+++ b/results/train/DeepBench_IA_KNL7250.xlsx
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE369"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5162,12 +5162,12 @@
         <v>2.6216999999999997</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="2">
         <f>N175+P175</f>
@@ -5175,14 +5175,14 @@
       </c>
       <c r="U175" s="2">
         <f t="shared" ref="U175:U206" si="11">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>3.8191036445833566</v>
+        <v>3.8490729474800469</v>
       </c>
       <c r="V175" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="12">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>0.26100194530266624</v>
+        <v>0.26305008200785751</v>
       </c>
       <c r="X175" s="3" t="s">
         <v>72</v>
@@ -5232,12 +5232,12 @@
         <v>2.6246</v>
       </c>
       <c r="R176" s="4">
-        <f t="shared" ref="R176:R239" si="13">(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="13">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="4">
-        <f t="shared" ref="S176:S239" si="14">(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="14">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="2">
         <f>N176+P176</f>
@@ -5245,14 +5245,14 @@
       </c>
       <c r="U176" s="2">
         <f t="shared" si="11"/>
-        <v>3.8192102252113971</v>
+        <v>3.8491803644685065</v>
       </c>
       <c r="V176" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="12"/>
-        <v>0.52142711270288811</v>
+        <v>0.52551886001676451</v>
       </c>
       <c r="X176" s="3" t="s">
         <v>72</v>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="R177" s="4">
         <f t="shared" si="13"/>
-        <v>78.5</v>
+        <v>341</v>
       </c>
       <c r="S177" s="4">
         <f t="shared" si="14"/>
-        <v>340.5</v>
+        <v>79</v>
       </c>
       <c r="T177" s="2">
         <f>N177+P177</f>
@@ -5315,14 +5315,14 @@
       </c>
       <c r="U177" s="2">
         <f t="shared" si="11"/>
-        <v>3.5906428084168547</v>
+        <v>3.6188193314792461</v>
       </c>
       <c r="V177" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="12"/>
-        <v>1.0398826792295126</v>
+        <v>1.048042855514608</v>
       </c>
       <c r="X177" s="3" t="s">
         <v>72</v>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="R178" s="4">
         <f t="shared" si="13"/>
-        <v>78.5</v>
+        <v>341</v>
       </c>
       <c r="S178" s="4">
         <f t="shared" si="14"/>
-        <v>340.5</v>
+        <v>79</v>
       </c>
       <c r="T178" s="2">
         <f>N178+P178</f>
@@ -5385,14 +5385,14 @@
       </c>
       <c r="U178" s="2">
         <f t="shared" si="11"/>
-        <v>3.5488819448946516</v>
+        <v>3.5767307617504054</v>
       </c>
       <c r="V178" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="12"/>
-        <v>2.0744847658026373</v>
+        <v>2.0907636804608156</v>
       </c>
       <c r="X178" s="3" t="s">
         <v>72</v>
@@ -5445,11 +5445,11 @@
       </c>
       <c r="R179" s="4">
         <f t="shared" si="13"/>
-        <v>37.5</v>
+        <v>166</v>
       </c>
       <c r="S179" s="4">
         <f t="shared" si="14"/>
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="T179" s="2">
         <f>N179+O179+P179</f>
@@ -5457,15 +5457,15 @@
       </c>
       <c r="U179" s="2">
         <f t="shared" si="11"/>
-        <v>2.3517432208079687</v>
+        <v>2.3830997970854089</v>
       </c>
       <c r="V179" s="2">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>2.9494042799305956E-2</v>
+        <v>2.9887296703296703E-2</v>
       </c>
       <c r="W179" s="2">
         <f t="shared" si="12"/>
-        <v>0.80181132075471695</v>
+        <v>0.81250213836477991</v>
       </c>
       <c r="X179" s="3" t="s">
         <v>72</v>
@@ -5518,11 +5518,11 @@
       </c>
       <c r="R180" s="4">
         <f t="shared" si="13"/>
-        <v>37.5</v>
+        <v>166</v>
       </c>
       <c r="S180" s="4">
         <f t="shared" si="14"/>
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="T180" s="2">
         <f>N180+O180+P180</f>
@@ -5530,15 +5530,15 @@
       </c>
       <c r="U180" s="2">
         <f t="shared" si="11"/>
-        <v>2.8233418226110065</v>
+        <v>2.8609863802458197</v>
       </c>
       <c r="V180" s="2">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>5.8879113266366481E-2</v>
+        <v>5.966416810991803E-2</v>
       </c>
       <c r="W180" s="2">
         <f t="shared" si="12"/>
-        <v>1.5787987616099073</v>
+        <v>1.599849411764706</v>
       </c>
       <c r="X180" s="3" t="s">
         <v>72</v>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="R181" s="4">
         <f t="shared" si="13"/>
-        <v>37.5</v>
+        <v>166</v>
       </c>
       <c r="S181" s="4">
         <f t="shared" si="14"/>
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="T181" s="2">
         <f>N181+O181+P181</f>
@@ -5603,15 +5603,15 @@
       </c>
       <c r="U181" s="2">
         <f t="shared" si="11"/>
-        <v>2.802704039571311</v>
+        <v>2.8400734267655952</v>
       </c>
       <c r="V181" s="2">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>0.11744633809304468</v>
+        <v>0.1190122892676186</v>
       </c>
       <c r="W181" s="2">
         <f t="shared" si="12"/>
-        <v>3.1285398773006139</v>
+        <v>3.1702537423312886</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>72</v>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="R182" s="4">
         <f t="shared" si="13"/>
-        <v>37.5</v>
+        <v>166</v>
       </c>
       <c r="S182" s="4">
         <f t="shared" si="14"/>
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="T182" s="2">
         <f>N182+O182+P182</f>
@@ -5676,15 +5676,15 @@
       </c>
       <c r="U182" s="2">
         <f t="shared" si="11"/>
-        <v>3.2838688904630042</v>
+        <v>3.3276538090025114</v>
       </c>
       <c r="V182" s="2">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>0.23298777841233581</v>
+        <v>0.23609428212450029</v>
       </c>
       <c r="W182" s="2">
         <f t="shared" si="12"/>
-        <v>3.212296062992126</v>
+        <v>3.2551266771653546</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>72</v>
@@ -5735,11 +5735,11 @@
       </c>
       <c r="R183" s="4">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>480</v>
       </c>
       <c r="S183" s="4">
         <f t="shared" si="14"/>
-        <v>480</v>
+        <v>48</v>
       </c>
       <c r="T183" s="2">
         <f>N183+P183</f>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="R184" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="S184" s="4">
         <f t="shared" si="14"/>
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="T184" s="2">
         <f>N184+O184+P184</f>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="R185" s="4">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="S185" s="4">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="T185" s="2">
         <f>N185+O185+P185</f>
@@ -5953,11 +5953,11 @@
       </c>
       <c r="R186" s="4">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="S186" s="4">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="T186" s="2">
         <f>N186+O186+P186</f>
@@ -8342,11 +8342,11 @@
       </c>
       <c r="R219" s="4">
         <f t="shared" si="13"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S219" s="4">
         <f t="shared" si="14"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T219" s="2">
         <f t="shared" si="15"/>
@@ -8354,15 +8354,15 @@
       </c>
       <c r="U219" s="2">
         <f t="shared" si="17"/>
-        <v>0.90876586666666659</v>
+        <v>1.0539533128205127</v>
       </c>
       <c r="V219" s="2">
         <f t="shared" si="16"/>
-        <v>3.2605215087396507E-2</v>
+        <v>3.7814332290708373E-2</v>
       </c>
       <c r="W219" s="2">
         <f t="shared" si="18"/>
-        <v>0.12911427613843351</v>
+        <v>0.14974200072859745</v>
       </c>
       <c r="X219" s="3" t="s">
         <v>72</v>
@@ -8984,11 +8984,11 @@
       </c>
       <c r="R228" s="4">
         <f t="shared" si="13"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S228" s="4">
         <f t="shared" si="14"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T228" s="2">
         <f t="shared" si="15"/>
@@ -8996,15 +8996,15 @@
       </c>
       <c r="U228" s="2">
         <f t="shared" si="17"/>
-        <v>1.0989726759689922</v>
+        <v>1.2745481922480617</v>
       </c>
       <c r="V228" s="2">
         <f t="shared" si="16"/>
-        <v>6.6714105976470581E-2</v>
+        <v>7.7372572611764695E-2</v>
       </c>
       <c r="W228" s="2">
         <f t="shared" si="18"/>
-        <v>0.23866578316498316</v>
+        <v>0.27679581952861948</v>
       </c>
       <c r="X228" s="3" t="s">
         <v>72</v>
@@ -9056,11 +9056,11 @@
       </c>
       <c r="R229" s="4">
         <f t="shared" si="13"/>
-        <v>79.5</v>
+        <v>349</v>
       </c>
       <c r="S229" s="4">
         <f t="shared" si="14"/>
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="T229" s="2">
         <f>N229+P229</f>
@@ -9068,14 +9068,14 @@
       </c>
       <c r="U229" s="2">
         <f t="shared" si="17"/>
-        <v>0.19895932773109243</v>
+        <v>0.2002106442577031</v>
       </c>
       <c r="V229" s="2" t="s">
         <v>55</v>
       </c>
       <c r="W229" s="2">
         <f t="shared" si="18"/>
-        <v>0.16732268551236745</v>
+        <v>0.16837502944640753</v>
       </c>
       <c r="X229" s="3" t="s">
         <v>72</v>
@@ -9127,11 +9127,11 @@
       </c>
       <c r="R230" s="4">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="S230" s="4">
         <f t="shared" si="14"/>
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="T230" s="2">
         <f t="shared" ref="T230:T268" si="19">N230+O230+P230</f>
@@ -9199,11 +9199,11 @@
       </c>
       <c r="R231" s="4">
         <f t="shared" si="13"/>
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="S231" s="4">
         <f t="shared" si="14"/>
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="T231" s="2">
         <f t="shared" si="19"/>
@@ -9271,11 +9271,11 @@
       </c>
       <c r="R232" s="4">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="S232" s="4">
         <f t="shared" si="14"/>
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="T232" s="2">
         <f t="shared" si="19"/>
@@ -9343,11 +9343,11 @@
       </c>
       <c r="R233" s="4">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="S233" s="4">
         <f t="shared" si="14"/>
-        <v>86.5</v>
+        <v>19</v>
       </c>
       <c r="T233" s="2">
         <f t="shared" si="19"/>
@@ -9355,15 +9355,15 @@
       </c>
       <c r="U233" s="2">
         <f t="shared" si="17"/>
-        <v>1.5095783601962158</v>
+        <v>1.5183042466713386</v>
       </c>
       <c r="V233" s="2">
         <f t="shared" si="20"/>
-        <v>0.45075712910650761</v>
+        <v>0.45336266164469557</v>
       </c>
       <c r="W233" s="2">
         <f t="shared" si="18"/>
-        <v>2.8085636505867018</v>
+        <v>2.8247981225554106</v>
       </c>
       <c r="X233" s="3" t="s">
         <v>72</v>
@@ -9415,11 +9415,11 @@
       </c>
       <c r="R234" s="4">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="S234" s="4">
         <f t="shared" si="14"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="T234" s="2">
         <f t="shared" si="19"/>
@@ -9487,11 +9487,11 @@
       </c>
       <c r="R235" s="4">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="S235" s="4">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="T235" s="2">
         <f t="shared" si="19"/>
@@ -9559,11 +9559,11 @@
       </c>
       <c r="R236" s="4">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="S236" s="4">
         <f t="shared" si="14"/>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="T236" s="2">
         <f t="shared" si="19"/>
@@ -9846,11 +9846,11 @@
         <v>0.17</v>
       </c>
       <c r="R240" s="4">
-        <f t="shared" ref="R240:R268" si="23">(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="23">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f t="shared" ref="S240:S268" si="24">(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="24">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="2">
@@ -13400,7 +13400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/results/train/DeepBench_IA_KNL7250.xlsx
+++ b/results/train/DeepBench_IA_KNL7250.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="32800" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:AE369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3216,11 +3216,12 @@
         <v>8</v>
       </c>
       <c r="I98" s="2">
-        <v>147.66284045419013</v>
+        <f>144847.5/1000</f>
+        <v>144.8475</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="5"/>
-        <v>4.0902624799999998</v>
+        <v>4.169763206130586</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3342,11 +3343,12 @@
         <v>8</v>
       </c>
       <c r="I103" s="2">
-        <v>281.19163058905355</v>
+        <f>285128.3/1000</f>
+        <v>285.12829999999997</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="5"/>
-        <v>4.2958588399999993</v>
+        <v>4.2365473788466463</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3468,11 +3470,12 @@
         <v>8</v>
       </c>
       <c r="I108" s="2">
-        <v>151.0735982028003</v>
+        <f>144892.5/1000</f>
+        <v>144.89250000000001</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="5"/>
-        <v>3.99791746</v>
+        <v>4.1684681815828979</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3594,11 +3597,12 @@
         <v>8</v>
       </c>
       <c r="I113" s="2">
-        <v>295.3189056155382</v>
+        <f>286129.4/1000</f>
+        <v>286.12940000000003</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" si="5"/>
-        <v>4.0903563199999997</v>
+        <v>4.2217246882005135</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3698,11 +3702,11 @@
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
-        <v>0.2440202949586612</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="5"/>
-        <v>1.6500807199999998</v>
+        <v>1.4749200879120878</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3776,11 +3780,11 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
-        <v>0.31639999887003706</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="5"/>
-        <v>2.5452160899999994</v>
+        <v>2.3546969824561401</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3854,11 +3858,11 @@
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
-        <v>0.24397619361356512</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="5"/>
-        <v>1.6503789899999997</v>
+        <v>1.5368442137404577</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3932,11 +3936,11 @@
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
-        <v>0.31805180720836901</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" si="5"/>
-        <v>2.5319974599999999</v>
+        <v>2.3074681031518627</v>
       </c>
     </row>
     <row r="127" spans="1:10">

--- a/results/train/DeepBench_IA_KNL7250.xlsx
+++ b/results/train/DeepBench_IA_KNL7250.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="32800" windowHeight="20080" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="32800" windowHeight="19280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="75">
-  <si>
-    <t xml:space="preserve">OSU MPI </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="75">
   <si>
     <t>Selected Algorithm</t>
   </si>
@@ -246,6 +251,9 @@
   <si>
     <t>R (Filter height)</t>
   </si>
+  <si>
+    <t>OSU Allreduce</t>
+  </si>
 </sst>
 </file>
 
@@ -297,6 +305,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -811,13 +820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE369"/>
+  <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -835,41 +844,41 @@
     <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -880,10 +889,10 @@
         <v>1760</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="13">
         <v>7.7356378963034378E-2</v>
@@ -895,7 +904,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -906,10 +915,10 @@
         <v>1760</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="13">
         <v>9.1403771276049151E-2</v>
@@ -921,7 +930,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -932,10 +941,10 @@
         <v>1760</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13">
         <v>0.14639056739378112</v>
@@ -947,7 +956,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -958,10 +967,10 @@
         <v>1760</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="13">
         <v>0.27744476997700024</v>
@@ -973,7 +982,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -984,10 +993,10 @@
         <v>1760</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="13">
         <v>10.011700000000001</v>
@@ -999,7 +1008,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -1010,10 +1019,10 @@
         <v>2048</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="13">
         <v>6.295216378649858E-2</v>
@@ -1025,7 +1034,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1036,10 +1045,10 @@
         <v>2048</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="13">
         <v>0.10586211151636711</v>
@@ -1051,7 +1060,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1062,10 +1071,10 @@
         <v>2048</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="13">
         <v>0.17985673817215311</v>
@@ -1077,7 +1086,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1088,10 +1097,10 @@
         <v>2048</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="13">
         <v>0.36640791308710147</v>
@@ -1103,7 +1112,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1114,10 +1123,10 @@
         <v>2048</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="13">
         <v>13.191700000000001</v>
@@ -1129,7 +1138,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1140,10 +1149,10 @@
         <v>2560</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="13">
         <v>0.11476063047886545</v>
@@ -1155,7 +1164,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1166,10 +1175,10 @@
         <v>2560</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="13">
         <v>0.1809272063806546</v>
@@ -1181,7 +1190,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1192,10 +1201,10 @@
         <v>2560</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="13">
         <v>0.30669922927075632</v>
@@ -1207,7 +1216,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1218,10 +1227,10 @@
         <v>2560</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="13">
         <v>0.57476437105345346</v>
@@ -1233,7 +1242,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1244,10 +1253,10 @@
         <v>2560</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="13">
         <v>20.099799999999998</v>
@@ -1259,7 +1268,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1270,10 +1279,10 @@
         <v>4096</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="13">
         <v>0.33791721481006559</v>
@@ -1285,7 +1294,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1296,10 +1305,10 @@
         <v>4096</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="13">
         <v>0.43667394269615678</v>
@@ -1311,7 +1320,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1322,10 +1331,10 @@
         <v>4096</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21" s="13">
         <v>0.68239355548656533</v>
@@ -1337,7 +1346,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1348,10 +1357,10 @@
         <v>4096</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" s="13">
         <v>1.2370999999999999</v>
@@ -1363,7 +1372,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1374,10 +1383,10 @@
         <v>4096</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="13">
         <v>51.761600000000001</v>
@@ -1389,7 +1398,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1400,10 +1409,10 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" s="13">
         <v>6.4758328472423424E-2</v>
@@ -1415,7 +1424,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1426,10 +1435,10 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="13">
         <v>9.8997281397898776E-2</v>
@@ -1441,7 +1450,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1452,10 +1461,10 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="13">
         <v>0.15679155114432392</v>
@@ -1467,7 +1476,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1478,10 +1487,10 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I27" s="13">
         <v>0.26350000000000001</v>
@@ -1493,7 +1502,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1504,10 +1513,10 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="13">
         <v>10.022200000000002</v>
@@ -1519,7 +1528,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1530,10 +1539,10 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="13">
         <v>6.1242220596004308E-2</v>
@@ -1545,7 +1554,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -1556,10 +1565,10 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" s="13">
         <v>0.10929302295429701</v>
@@ -1571,7 +1580,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -1582,10 +1591,10 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" s="13">
         <v>0.18271031870486523</v>
@@ -1597,7 +1606,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -1608,10 +1617,10 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" s="13">
         <v>0.36969999999999997</v>
@@ -1623,7 +1632,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -1634,10 +1643,10 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I33" s="13">
         <v>13.147</v>
@@ -1649,7 +1658,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -1660,10 +1669,10 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" s="13">
         <v>0.11558753734338122</v>
@@ -1675,7 +1684,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -1686,10 +1695,10 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" s="13">
         <v>0.17572922057995649</v>
@@ -1701,7 +1710,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -1712,10 +1721,10 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I36" s="13">
         <v>0.3073868147869605</v>
@@ -1727,7 +1736,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -1738,10 +1747,10 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I37" s="13">
         <v>0.56329999999999991</v>
@@ -1753,7 +1762,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -1764,10 +1773,10 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I38" s="13">
         <v>20.104500000000002</v>
@@ -1779,7 +1788,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -1790,10 +1799,10 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="13">
         <v>0.34007619449715504</v>
@@ -1805,7 +1814,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -1816,10 +1825,10 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40" s="13">
         <v>0.43582398207597262</v>
@@ -1831,7 +1840,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -1842,10 +1851,10 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I41" s="13">
         <v>0.68032879554214654</v>
@@ -1857,7 +1866,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -1868,10 +1877,10 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42" s="13">
         <v>1.2324999999999999</v>
@@ -1883,7 +1892,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -1894,10 +1903,10 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I43" s="13">
         <v>52.286099999999998</v>
@@ -1909,7 +1918,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -1920,13 +1929,13 @@
         <v>1760</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
         <v>22</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
       </c>
       <c r="I44" s="13">
         <v>9.7014218552286664</v>
@@ -1938,7 +1947,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -1949,10 +1958,10 @@
         <v>2048</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="13">
         <v>14.819317409964837</v>
@@ -1964,7 +1973,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -1975,10 +1984,10 @@
         <v>2560</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="13">
         <v>23.369406371536737</v>
@@ -1990,7 +1999,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
         <v>4096</v>
       </c>
@@ -2001,10 +2010,10 @@
         <v>4096</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="13">
         <v>55.115699999999997</v>
@@ -2016,19 +2025,19 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="13"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="13"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -2039,10 +2048,10 @@
         <v>1760</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I50" s="13">
         <v>38.194600000000001</v>
@@ -2054,7 +2063,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>35</v>
       </c>
@@ -2065,10 +2074,10 @@
         <v>1760</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I51" s="13">
         <v>0.54730000000000001</v>
@@ -2080,7 +2089,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2091,10 +2100,10 @@
         <v>2048</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I52" s="13">
         <v>44.437100000000001</v>
@@ -2106,7 +2115,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2117,10 +2126,10 @@
         <v>2048</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I53" s="13">
         <v>0.66190000000000004</v>
@@ -2132,7 +2141,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2143,10 +2152,10 @@
         <v>2560</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I54" s="13">
         <v>55.539699999999996</v>
@@ -2158,7 +2167,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2169,10 +2178,10 @@
         <v>2560</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I55" s="13">
         <v>0.80349999999999999</v>
@@ -2184,7 +2193,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2195,10 +2204,10 @@
         <v>4096</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I56" s="13">
         <v>87.715199999999996</v>
@@ -2210,7 +2219,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2221,10 +2230,10 @@
         <v>4096</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I57" s="13">
         <v>1.2481</v>
@@ -2236,7 +2245,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2247,10 +2256,10 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I58" s="13">
         <v>37.909599999999998</v>
@@ -2262,7 +2271,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2273,10 +2282,10 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I59" s="13">
         <v>0.53960000000000008</v>
@@ -2288,7 +2297,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2299,10 +2308,10 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I60" s="13">
         <v>44.522400000000005</v>
@@ -2314,7 +2323,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2325,10 +2334,10 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I61" s="13">
         <v>0.64229999999999998</v>
@@ -2340,7 +2349,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2351,10 +2360,10 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I62" s="13">
         <v>55.704500000000003</v>
@@ -2366,7 +2375,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2377,10 +2386,10 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I63" s="13">
         <v>0.83720000000000006</v>
@@ -2392,7 +2401,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2403,10 +2412,10 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I64" s="13">
         <v>87.778100000000009</v>
@@ -2418,7 +2427,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2429,10 +2438,10 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I65" s="13">
         <v>1.2887999999999999</v>
@@ -2444,13 +2453,13 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="13"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2461,10 +2470,10 @@
         <v>2560</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I67" s="13">
         <v>0.3831384926141691</v>
@@ -2476,7 +2485,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2487,10 +2496,10 @@
         <v>2560</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I68" s="13">
         <v>0.4926029105295946</v>
@@ -2502,7 +2511,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2513,10 +2522,10 @@
         <v>2560</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I69" s="13">
         <v>0.7779679445844544</v>
@@ -2528,7 +2537,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -2539,10 +2548,10 @@
         <v>2560</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I70" s="13">
         <v>1.3814000000000002</v>
@@ -2554,7 +2563,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -2565,10 +2574,10 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I71" s="13">
         <v>0.38737225707861489</v>
@@ -2580,7 +2589,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -2591,10 +2600,10 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I72" s="13">
         <v>0.48829698241569464</v>
@@ -2606,7 +2615,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -2617,10 +2626,10 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I73" s="13">
         <v>0.76290000000000002</v>
@@ -2632,7 +2641,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -2643,10 +2652,10 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I74" s="13">
         <v>1.3599000000000001</v>
@@ -2658,7 +2667,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75">
         <f>3*1024</f>
         <v>3072</v>
@@ -2670,10 +2679,10 @@
         <v>1024</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I75" s="13">
         <v>4.8450724264313495E-2</v>
@@ -2685,7 +2694,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2697,10 +2706,10 @@
         <v>1024</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I76" s="13">
         <v>8.4680267294530751E-2</v>
@@ -2712,7 +2721,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2724,10 +2733,10 @@
         <v>1024</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I77" s="13">
         <v>0.14181100737104649</v>
@@ -2739,7 +2748,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2751,10 +2760,10 @@
         <v>1024</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I78" s="13">
         <v>0.25630000000000003</v>
@@ -2766,7 +2775,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2778,10 +2787,10 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I79" s="13">
         <v>5.0262903176011661E-2</v>
@@ -2793,7 +2802,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2805,10 +2814,10 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I80" s="13">
         <v>8.3912497052613791E-2</v>
@@ -2820,7 +2829,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2832,10 +2841,10 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I81" s="13">
         <v>0.13992666211977828</v>
@@ -2847,7 +2856,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2859,10 +2868,10 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I82" s="13">
         <v>0.27034239266366439</v>
@@ -2874,13 +2883,13 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="13"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -2891,10 +2900,10 @@
         <v>1024</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" s="13">
         <v>10.945200000000002</v>
@@ -2906,7 +2915,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -2917,10 +2926,10 @@
         <v>2560</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" s="13">
         <v>52.102900000000005</v>
@@ -2932,10 +2941,10 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="3:12">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>512</v>
       </c>
@@ -2946,10 +2955,10 @@
         <v>500000</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I87" s="2">
         <v>3.8641705194298961</v>
@@ -2959,7 +2968,7 @@
         <v>1.0599946299999998</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -2970,10 +2979,10 @@
         <v>500000</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I88" s="2">
         <v>7.1150378461474171</v>
@@ -2983,7 +2992,7 @@
         <v>1.1513642199999998</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>512</v>
       </c>
@@ -2994,10 +3003,10 @@
         <v>500000</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I89" s="2">
         <v>4.9454348655741818</v>
@@ -3007,7 +3016,7 @@
         <v>1.65647718</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -3018,10 +3027,10 @@
         <v>500000</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I90" s="2">
         <v>8.6077258731837585</v>
@@ -3031,7 +3040,7 @@
         <v>1.9034063400000001</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>512</v>
       </c>
@@ -3042,10 +3051,10 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I91" s="2">
         <v>3.8685726854797609</v>
@@ -3055,7 +3064,7 @@
         <v>1.0587884299999999</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -3066,10 +3075,10 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I92" s="2">
         <v>7.1039843101846518</v>
@@ -3079,7 +3088,7 @@
         <v>1.1531556999999999</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>512</v>
       </c>
@@ -3090,10 +3099,10 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I93" s="2">
         <v>5.0176503753281487</v>
@@ -3103,7 +3112,7 @@
         <v>1.6326366700000003</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3114,10 +3123,10 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I94" s="2">
         <v>8.614156690385057</v>
@@ -3127,7 +3136,7 @@
         <v>1.90198537</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3138,10 +3147,10 @@
         <v>512</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I95" s="2">
         <v>0.31942357091104912</v>
@@ -3151,7 +3160,7 @@
         <v>2.2978992999999996</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3162,10 +3171,10 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I96" s="2">
         <v>0.31957592129232915</v>
@@ -3175,7 +3184,7 @@
         <v>2.2968038299999995</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3186,10 +3195,10 @@
         <v>2560</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I97" s="2">
         <v>221.64992493913047</v>
@@ -3199,7 +3208,7 @@
         <v>4.2576978099999989</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3210,10 +3219,10 @@
         <v>2048</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I98" s="2">
         <f>144847.5/1000</f>
@@ -3224,7 +3233,7 @@
         <v>4.169763206130586</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="3">
         <v>4608</v>
@@ -3236,10 +3245,10 @@
         <v>1536</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2">
@@ -3250,7 +3259,7 @@
         <v>4.2727005199999999</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="3">
         <v>8448</v>
@@ -3262,10 +3271,10 @@
         <v>2816</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2">
@@ -3276,7 +3285,7 @@
         <v>4.085631049999999</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="3">
         <v>3072</v>
@@ -3288,10 +3297,10 @@
         <v>1024</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2">
@@ -3302,7 +3311,7 @@
         <v>4.2606199999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3313,10 +3322,10 @@
         <v>2560</v>
       </c>
       <c r="F102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I102" s="2">
         <v>439.01032691996892</v>
@@ -3326,7 +3335,7 @@
         <v>4.2992993199999994</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3337,10 +3346,10 @@
         <v>2048</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I103" s="2">
         <f>285128.3/1000</f>
@@ -3351,7 +3360,7 @@
         <v>4.2365473788466463</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="3">
         <v>4608</v>
@@ -3363,10 +3372,10 @@
         <v>1536</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2">
@@ -3377,7 +3386,7 @@
         <v>4.2809756399999994</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="C105" s="3">
         <v>8448</v>
@@ -3389,10 +3398,10 @@
         <v>2816</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2">
@@ -3403,7 +3412,7 @@
         <v>4.2758863800000002</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="C106" s="3">
         <v>3072</v>
@@ -3415,10 +3424,10 @@
         <v>1024</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2">
@@ -3429,7 +3438,7 @@
         <v>4.2289213400000003</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3440,10 +3449,10 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I107" s="2">
         <v>231.47200301862847</v>
@@ -3453,7 +3462,7 @@
         <v>4.0770304299999998</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3464,10 +3473,10 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I108" s="2">
         <f>144892.5/1000</f>
@@ -3478,7 +3487,7 @@
         <v>4.1684681815828979</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="C109" s="3">
         <v>4608</v>
@@ -3490,10 +3499,10 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2">
@@ -3504,7 +3513,7 @@
         <v>4.2427837999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="C110" s="3">
         <v>8448</v>
@@ -3516,10 +3525,10 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2">
@@ -3530,7 +3539,7 @@
         <v>4.0724741399999997</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="C111" s="3">
         <v>3072</v>
@@ -3542,10 +3551,10 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2">
@@ -3556,7 +3565,7 @@
         <v>4.2419111999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -3567,10 +3576,10 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I112" s="2">
         <v>443.8841160217363</v>
@@ -3580,7 +3589,7 @@
         <v>4.2520935799999995</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -3591,10 +3600,10 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I113" s="2">
         <f>286129.4/1000</f>
@@ -3605,7 +3614,7 @@
         <v>4.2217246882005135</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="C114" s="3">
         <v>4608</v>
@@ -3617,10 +3626,10 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2">
@@ -3631,7 +3640,7 @@
         <v>4.2622795699999996</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="C115" s="3">
         <v>8448</v>
@@ -3643,10 +3652,10 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2">
@@ -3657,7 +3666,7 @@
         <v>4.2413645799999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="C116" s="3">
         <v>3072</v>
@@ -3669,10 +3678,10 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2">
@@ -3683,7 +3692,7 @@
         <v>4.2063460599999996</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="C117" s="3">
         <v>6144</v>
@@ -3695,10 +3704,10 @@
         <v>2048</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
@@ -3709,7 +3718,7 @@
         <v>1.4749200879120878</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="C118" s="3">
         <v>4608</v>
@@ -3721,10 +3730,10 @@
         <v>1536</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2">
@@ -3735,7 +3744,7 @@
         <v>1.4318038</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="C119" s="3">
         <v>8448</v>
@@ -3747,10 +3756,10 @@
         <v>2816</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2">
@@ -3761,7 +3770,7 @@
         <v>1.76749198</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="C120" s="3">
         <v>6144</v>
@@ -3773,10 +3782,10 @@
         <v>2048</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
@@ -3787,7 +3796,7 @@
         <v>2.3546969824561401</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="C121" s="3">
         <v>4608</v>
@@ -3799,10 +3808,10 @@
         <v>1536</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2">
@@ -3813,7 +3822,7 @@
         <v>2.21903753</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="C122" s="3">
         <v>8448</v>
@@ -3825,10 +3834,10 @@
         <v>2816</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2">
@@ -3839,7 +3848,7 @@
         <v>2.8292394500000002</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="C123" s="3">
         <v>6144</v>
@@ -3851,10 +3860,10 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
@@ -3865,7 +3874,7 @@
         <v>1.5368442137404577</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="C124" s="3">
         <v>4608</v>
@@ -3877,10 +3886,10 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="2">
@@ -3891,7 +3900,7 @@
         <v>1.4152145599999997</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="C125" s="3">
         <v>8448</v>
@@ -3903,10 +3912,10 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2">
@@ -3917,7 +3926,7 @@
         <v>1.7546539699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="C126" s="3">
         <v>6144</v>
@@ -3929,10 +3938,10 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
@@ -3943,7 +3952,7 @@
         <v>2.3074681031518627</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="C127" s="3">
         <v>4608</v>
@@ -3955,10 +3964,10 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2">
@@ -3969,7 +3978,7 @@
         <v>2.23528094</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="C128" s="3">
         <v>8448</v>
@@ -3981,10 +3990,10 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2">
@@ -3995,7 +4004,7 @@
         <v>2.81700917</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="3">
         <v>512</v>
       </c>
@@ -4007,10 +4016,10 @@
         <v>2816</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2">
@@ -4021,7 +4030,7 @@
         <v>4.4425542499999997</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="3">
         <v>512</v>
       </c>
@@ -4033,10 +4042,10 @@
         <v>2048</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2">
@@ -4047,7 +4056,7 @@
         <v>4.4663887500000001</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>512</v>
@@ -4060,10 +4069,10 @@
         <v>2560</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2">
@@ -4074,7 +4083,7 @@
         <v>4.4929700600000002</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>512</v>
@@ -4087,10 +4096,10 @@
         <v>1530</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2">
@@ -4101,7 +4110,7 @@
         <v>4.44064893</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="3">
         <v>1024</v>
       </c>
@@ -4113,10 +4122,10 @@
         <v>2816</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2">
@@ -4127,7 +4136,7 @@
         <v>4.3938375900000004</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="3">
         <v>1024</v>
       </c>
@@ -4139,10 +4148,10 @@
         <v>2048</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2">
@@ -4153,7 +4162,7 @@
         <v>4.3022431599999997</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="3"/>
       <c r="C135" s="3">
         <v>1024</v>
@@ -4166,10 +4175,10 @@
         <v>2560</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2">
@@ -4180,7 +4189,7 @@
         <v>4.3178591699999993</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="3"/>
       <c r="C136" s="3">
         <v>1024</v>
@@ -4193,10 +4202,10 @@
         <v>1530</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="2">
@@ -4207,7 +4216,7 @@
         <v>4.2699570899999992</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="3"/>
       <c r="C137" s="3">
         <v>512</v>
@@ -4219,10 +4228,10 @@
         <v>512</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2">
@@ -4233,7 +4242,7 @@
         <v>0.39052141000000001</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="3"/>
       <c r="C138" s="3">
         <v>1024</v>
@@ -4245,10 +4254,10 @@
         <v>512</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2">
@@ -4259,7 +4268,7 @@
         <v>0.61731619999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="3">
         <v>512</v>
       </c>
@@ -4271,10 +4280,10 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2">
@@ -4285,7 +4294,7 @@
         <v>4.4033284400000001</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="3">
         <v>512</v>
       </c>
@@ -4297,10 +4306,10 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2">
@@ -4311,7 +4320,7 @@
         <v>4.4219049899999998</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="3"/>
       <c r="C141" s="3">
         <v>512</v>
@@ -4324,10 +4333,10 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2">
@@ -4338,7 +4347,7 @@
         <v>4.4222874000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="3"/>
       <c r="C142" s="3">
         <v>512</v>
@@ -4351,10 +4360,10 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2">
@@ -4365,7 +4374,7 @@
         <v>4.400438509999999</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="3">
         <v>1024</v>
       </c>
@@ -4377,10 +4386,10 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2">
@@ -4391,7 +4400,7 @@
         <v>4.2744737400000004</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="3">
         <v>1024</v>
       </c>
@@ -4403,10 +4412,10 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2">
@@ -4417,7 +4426,7 @@
         <v>4.3034794199999995</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
       <c r="C145" s="3">
         <v>1024</v>
@@ -4430,10 +4439,10 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2">
@@ -4444,7 +4453,7 @@
         <v>4.2977067299999998</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
       <c r="C146" s="3">
         <v>1024</v>
@@ -4457,10 +4466,10 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2">
@@ -4471,7 +4480,7 @@
         <v>4.2824884899999986</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
       <c r="C147" s="3">
         <v>512</v>
@@ -4483,10 +4492,10 @@
         <v>512</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4497,7 +4506,7 @@
         <v>0.37523603</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>1024</v>
@@ -4509,10 +4518,10 @@
         <v>512</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4523,7 +4532,7 @@
         <v>0.74416612999999987</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="3">
         <v>512</v>
       </c>
@@ -4535,10 +4544,10 @@
         <v>2816</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2">
@@ -4549,7 +4558,7 @@
         <v>4.4141461299999998</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="3">
         <v>512</v>
       </c>
@@ -4561,10 +4570,10 @@
         <v>2048</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2">
@@ -4575,7 +4584,7 @@
         <v>4.4351899399999999</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
       <c r="C151" s="3">
         <v>512</v>
@@ -4588,10 +4597,10 @@
         <v>2560</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2">
@@ -4602,7 +4611,7 @@
         <v>4.4221152699999999</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="C152" s="3">
         <v>512</v>
@@ -4615,10 +4624,10 @@
         <v>1530</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2">
@@ -4629,7 +4638,7 @@
         <v>4.4024693199999998</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="3">
         <v>1024</v>
       </c>
@@ -4641,10 +4650,10 @@
         <v>2816</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2">
@@ -4655,7 +4664,7 @@
         <v>4.2860078499999998</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="3">
         <v>1024</v>
       </c>
@@ -4667,10 +4676,10 @@
         <v>2048</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2">
@@ -4681,7 +4690,7 @@
         <v>4.3105839599999998</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="C155" s="3">
         <v>1024</v>
@@ -4694,10 +4703,10 @@
         <v>2560</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2">
@@ -4708,7 +4717,7 @@
         <v>4.3059116499999996</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
       <c r="C156" s="3">
         <v>1024</v>
@@ -4721,10 +4730,10 @@
         <v>1530</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2">
@@ -4735,7 +4744,7 @@
         <v>4.2938240299999997</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="C157" s="3">
         <v>512</v>
@@ -4747,10 +4756,10 @@
         <v>512</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2">
@@ -4761,7 +4770,7 @@
         <v>0.54402395000000003</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
       <c r="C158" s="3">
         <v>1024</v>
@@ -4773,10 +4782,10 @@
         <v>512</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2">
@@ -4787,7 +4796,7 @@
         <v>1.09620674</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="3">
         <v>512</v>
       </c>
@@ -4799,10 +4808,10 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2">
@@ -4813,7 +4822,7 @@
         <v>4.4106923499999997</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="3">
         <v>512</v>
       </c>
@@ -4825,10 +4834,10 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2">
@@ -4839,7 +4848,7 @@
         <v>4.4182615900000002</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
       <c r="C161" s="3">
         <v>512</v>
@@ -4852,10 +4861,10 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2">
@@ -4866,7 +4875,7 @@
         <v>4.422924329999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
       <c r="C162" s="3">
         <v>512</v>
@@ -4879,10 +4888,10 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2">
@@ -4893,7 +4902,7 @@
         <v>4.4157897199999994</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="3">
         <v>1024</v>
       </c>
@@ -4905,10 +4914,10 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2">
@@ -4919,7 +4928,7 @@
         <v>4.2919099200000002</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="3">
         <v>1024</v>
       </c>
@@ -4931,10 +4940,10 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2">
@@ -4945,7 +4954,7 @@
         <v>4.2996642500000002</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
       <c r="C165" s="3">
         <v>1024</v>
@@ -4958,10 +4967,10 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2">
@@ -4972,7 +4981,7 @@
         <v>4.3004018100000003</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
       <c r="C166" s="3">
         <v>1024</v>
@@ -4985,10 +4994,10 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2">
@@ -4999,7 +5008,7 @@
         <v>4.3043731699999999</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
       <c r="C167" s="3">
         <v>512</v>
@@ -5011,10 +5020,10 @@
         <v>512</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -5025,7 +5034,7 @@
         <v>0.57691214000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
       <c r="C168" s="3">
         <v>1024</v>
@@ -5037,10 +5046,10 @@
         <v>512</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -5051,80 +5060,80 @@
         <v>1.10957733</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="J171" s="1"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174" t="s">
         <v>73</v>
       </c>
-      <c r="I174" t="s">
-        <v>74</v>
-      </c>
       <c r="J174" t="s">
+        <v>31</v>
+      </c>
+      <c r="K174" t="s">
+        <v>30</v>
+      </c>
+      <c r="L174" t="s">
+        <v>60</v>
+      </c>
+      <c r="M174" t="s">
+        <v>59</v>
+      </c>
+      <c r="N174" t="s">
+        <v>15</v>
+      </c>
+      <c r="O174" t="s">
+        <v>14</v>
+      </c>
+      <c r="P174" t="s">
+        <v>13</v>
+      </c>
+      <c r="R174" t="s">
         <v>32</v>
       </c>
-      <c r="K174" t="s">
-        <v>31</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="S174" t="s">
+        <v>33</v>
+      </c>
+      <c r="T174" t="s">
         <v>61</v>
       </c>
-      <c r="M174" t="s">
-        <v>60</v>
-      </c>
-      <c r="N174" t="s">
-        <v>16</v>
-      </c>
-      <c r="O174" t="s">
-        <v>15</v>
-      </c>
-      <c r="P174" t="s">
-        <v>14</v>
-      </c>
-      <c r="R174" t="s">
-        <v>33</v>
-      </c>
-      <c r="S174" t="s">
+      <c r="U174" t="s">
         <v>34</v>
       </c>
-      <c r="T174" t="s">
+      <c r="V174" t="s">
+        <v>35</v>
+      </c>
+      <c r="W174" t="s">
         <v>62</v>
       </c>
-      <c r="U174" t="s">
-        <v>35</v>
-      </c>
-      <c r="V174" t="s">
-        <v>36</v>
-      </c>
-      <c r="W174" t="s">
+      <c r="X174" t="s">
         <v>63</v>
       </c>
-      <c r="X174" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31">
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5182,19 +5191,19 @@
         <v>3.8490729474800469</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="12">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>0.26305008200785751</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5252,19 +5261,19 @@
         <v>3.8491803644685065</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="12"/>
         <v>0.52551886001676451</v>
       </c>
       <c r="X176" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5322,19 +5331,19 @@
         <v>3.6188193314792461</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="12"/>
         <v>1.048042855514608</v>
       </c>
       <c r="X177" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5392,19 +5401,19 @@
         <v>3.5767307617504054</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="12"/>
         <v>2.0907636804608156</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5472,12 +5481,12 @@
         <v>0.81250213836477991</v>
       </c>
       <c r="X179" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5545,12 +5554,12 @@
         <v>1.599849411764706</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5618,12 +5627,12 @@
         <v>3.1702537423312886</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5691,12 +5700,12 @@
         <v>3.2551266771653546</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5754,19 +5763,19 @@
         <v>1.2586939820742638</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W183" s="2">
         <f t="shared" si="12"/>
         <v>0.16045994105644981</v>
       </c>
       <c r="X183" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5834,12 +5843,12 @@
         <v>1.2868887272727272</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185">
         <v>120</v>
       </c>
@@ -5907,12 +5916,12 @@
         <v>3.6928111304347828</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186">
         <v>60</v>
       </c>
@@ -5980,12 +5989,12 @@
         <v>4.2467328000000002</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6043,19 +6052,19 @@
         <v>2.6873855999999998</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W187" s="2">
         <f t="shared" si="12"/>
         <v>1.3436927999999999</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6123,12 +6132,12 @@
         <v>3.2451448754716981</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6196,12 +6205,12 @@
         <v>3.9089245090909093</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6269,12 +6278,12 @@
         <v>4.4040191999999996</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6342,12 +6351,12 @@
         <v>3.9079017662469364</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6405,19 +6414,19 @@
         <v>2.5223019054545452</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W192" s="2">
         <f t="shared" si="12"/>
         <v>1.1278585756097561</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6485,12 +6494,12 @@
         <v>3.1754301527896995</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6559,12 +6568,12 @@
         <v>3.7652683236641216</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6633,12 +6642,12 @@
         <v>4.0877084287292815</v>
       </c>
       <c r="X195" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6706,12 +6715,12 @@
         <v>3.9146837333333333</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6779,12 +6788,12 @@
         <v>3.7928314960629921</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6842,19 +6851,19 @@
         <v>2.3918380137931035</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W198" s="2">
         <f t="shared" si="12"/>
         <v>2.1019182545454544</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199">
         <v>112</v>
       </c>
@@ -6922,12 +6931,12 @@
         <v>3.2273728488549618</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -6996,12 +7005,12 @@
         <v>3.7748735999999998</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7070,12 +7079,12 @@
         <v>4.0990317207756233</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7143,12 +7152,12 @@
         <v>3.9778237935483869</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7216,12 +7225,12 @@
         <v>3.87864720166076</v>
       </c>
       <c r="X203" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7279,19 +7288,19 @@
         <v>3.814592387878788</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W204" s="2">
         <f t="shared" si="12"/>
         <v>2.6783308255319151</v>
       </c>
       <c r="X204" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7359,12 +7368,12 @@
         <v>3.1076748387096771</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7432,12 +7441,12 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7505,12 +7514,12 @@
         <v>4.3297941573033709</v>
       </c>
       <c r="X207" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7578,12 +7587,12 @@
         <v>2.9360128000000003</v>
       </c>
       <c r="X208" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7651,12 +7660,12 @@
         <v>1.5670582582582584</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7724,12 +7733,12 @@
         <v>3.8643369434416366</v>
       </c>
       <c r="X210" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7797,10 +7806,10 @@
         <v>3.0828134400000007</v>
       </c>
       <c r="X211" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="212" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212">
         <v>56</v>
       </c>
@@ -7868,10 +7877,10 @@
         <v>1.1417827555555558</v>
       </c>
       <c r="X212" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="213" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213">
         <v>28</v>
       </c>
@@ -7939,10 +7948,10 @@
         <v>3.4899774792452831</v>
       </c>
       <c r="X213" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="214" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="3"/>
       <c r="C214" s="3">
         <v>28</v>
@@ -8011,10 +8020,10 @@
         <v>1.4680063999999997</v>
       </c>
       <c r="X214" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="215" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8082,10 +8091,10 @@
         <v>1.4680063999999997</v>
       </c>
       <c r="X215" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="216" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8153,10 +8162,10 @@
         <v>3.7748735999999998</v>
       </c>
       <c r="X216" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="217" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="3"/>
       <c r="C217" s="3">
         <v>14</v>
@@ -8225,10 +8234,10 @@
         <v>1.8683717818181815</v>
       </c>
       <c r="X217" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="3"/>
       <c r="C218">
         <v>7</v>
@@ -8297,10 +8306,10 @@
         <v>2.0552089599999999</v>
       </c>
       <c r="X218" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="219" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="3"/>
       <c r="C219">
         <v>7</v>
@@ -8369,10 +8378,10 @@
         <v>0.14974200072859745</v>
       </c>
       <c r="X219" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8440,10 +8449,10 @@
         <v>3.0828134400000007</v>
       </c>
       <c r="X220" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8511,10 +8520,10 @@
         <v>1.2845055999999999</v>
       </c>
       <c r="X221" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="222" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8582,10 +8591,10 @@
         <v>3.3327712864864862</v>
       </c>
       <c r="X222" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="223" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="3">
         <v>28</v>
       </c>
@@ -8653,10 +8662,10 @@
         <v>2.2835655111111115</v>
       </c>
       <c r="X223" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="2:31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="3"/>
       <c r="C224">
         <v>14</v>
@@ -8725,10 +8734,10 @@
         <v>2.5690111999999998</v>
       </c>
       <c r="X224" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="225" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8796,10 +8805,10 @@
         <v>3.5232153599999996</v>
       </c>
       <c r="X225" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="226" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C226" s="3">
         <v>14</v>
       </c>
@@ -8867,10 +8876,10 @@
         <v>1.9573418666666667</v>
       </c>
       <c r="X226" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="227" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="3"/>
       <c r="C227">
         <v>7</v>
@@ -8939,10 +8948,10 @@
         <v>2.1633778526315788</v>
       </c>
       <c r="X227" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="228" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" s="3"/>
       <c r="C228">
         <v>7</v>
@@ -9011,10 +9020,10 @@
         <v>0.27679581952861948</v>
       </c>
       <c r="X228" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="229" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" s="3"/>
       <c r="C229" s="12">
         <v>700</v>
@@ -9075,17 +9084,17 @@
         <v>0.2002106442577031</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W229" s="2">
         <f t="shared" si="18"/>
         <v>0.16837502944640753</v>
       </c>
       <c r="X229" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="230" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" s="3"/>
       <c r="C230">
         <v>350</v>
@@ -9154,10 +9163,10 @@
         <v>2.5079835990888384</v>
       </c>
       <c r="X230" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="231" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" s="3"/>
       <c r="C231">
         <v>350</v>
@@ -9226,10 +9235,10 @@
         <v>2.312674446177847</v>
       </c>
       <c r="X231" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="232" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" s="3"/>
       <c r="C232">
         <v>175</v>
@@ -9298,10 +9307,10 @@
         <v>2.7617177257525083</v>
       </c>
       <c r="X232" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="233" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="3"/>
       <c r="C233">
         <v>175</v>
@@ -9370,10 +9379,10 @@
         <v>2.8247981225554106</v>
       </c>
       <c r="X233" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="234" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" s="3"/>
       <c r="C234">
         <v>84</v>
@@ -9442,10 +9451,10 @@
         <v>3.5310621648106904</v>
       </c>
       <c r="X234" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="235" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" s="3"/>
       <c r="C235">
         <v>84</v>
@@ -9514,10 +9523,10 @@
         <v>2.8597527272727277</v>
       </c>
       <c r="X235" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="236" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
       <c r="C236">
         <v>42</v>
@@ -9586,10 +9595,10 @@
         <v>3.8435076654545455</v>
       </c>
       <c r="X236" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="237" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
       <c r="C237">
         <v>112</v>
@@ -9658,10 +9667,10 @@
         <v>2.9360127999999994</v>
       </c>
       <c r="X237" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="238" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" s="3"/>
       <c r="C238">
         <v>56</v>
@@ -9730,10 +9739,10 @@
         <v>1.9573418666666667</v>
       </c>
       <c r="X238" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="239" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" s="3"/>
       <c r="C239">
         <v>56</v>
@@ -9802,10 +9811,10 @@
         <v>3.2883343360000001</v>
       </c>
       <c r="X239" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="240" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" s="3"/>
       <c r="C240">
         <v>56</v>
@@ -9874,10 +9883,10 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X240" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="241" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" s="3"/>
       <c r="C241" s="3">
         <v>28</v>
@@ -9946,10 +9955,10 @@
         <v>3.2883343360000001</v>
       </c>
       <c r="X241" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="242" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" s="3"/>
       <c r="C242" s="3">
         <v>28</v>
@@ -10018,10 +10027,10 @@
         <v>3.9146837333333333</v>
       </c>
       <c r="X242" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="243" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
       <c r="C243" s="3">
         <v>28</v>
@@ -10090,10 +10099,10 @@
         <v>2.2835655111111115</v>
       </c>
       <c r="X243" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="244" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" s="3"/>
       <c r="C244" s="3">
         <v>14</v>
@@ -10162,10 +10171,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X244" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="245" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" s="3"/>
       <c r="C245" s="3">
         <v>28</v>
@@ -10234,10 +10243,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X245" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="246" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" s="3"/>
       <c r="C246" s="3">
         <v>14</v>
@@ -10306,10 +10315,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X246" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="247" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" s="3"/>
       <c r="C247" s="3">
         <v>14</v>
@@ -10378,10 +10387,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X247" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="248" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" s="3"/>
       <c r="C248" s="3">
         <v>14</v>
@@ -10450,10 +10459,10 @@
         <v>2.1633778526315788</v>
       </c>
       <c r="X248" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="249" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" s="3"/>
       <c r="C249" s="3">
         <v>7</v>
@@ -10522,10 +10531,10 @@
         <v>3.1891173517241378</v>
       </c>
       <c r="X249" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="250" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" s="3"/>
       <c r="C250" s="3">
         <v>7</v>
@@ -10594,10 +10603,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X250" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="251" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" s="3"/>
       <c r="C251" s="3">
         <v>14</v>
@@ -10666,10 +10675,10 @@
         <v>2.0050819121951222</v>
       </c>
       <c r="X251" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="252" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" s="3"/>
       <c r="C252" s="3">
         <v>7</v>
@@ -10738,10 +10747,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X252" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="253" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
       <c r="C253">
         <v>112</v>
@@ -10810,10 +10819,10 @@
         <v>3.1022022037735848</v>
       </c>
       <c r="X253" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="254" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
       <c r="C254">
         <v>56</v>
@@ -10882,10 +10891,10 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X254" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="255" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
       <c r="C255">
         <v>56</v>
@@ -10954,10 +10963,10 @@
         <v>3.1022022037735848</v>
       </c>
       <c r="X255" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="256" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" s="3"/>
       <c r="C256">
         <v>56</v>
@@ -11026,10 +11035,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X256" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="257" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" s="3"/>
       <c r="C257" s="3">
         <v>28</v>
@@ -11098,10 +11107,10 @@
         <v>3.5742764521739132</v>
       </c>
       <c r="X257" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="258" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" s="3"/>
       <c r="C258" s="3">
         <v>28</v>
@@ -11170,10 +11179,10 @@
         <v>3.3554431999999998</v>
       </c>
       <c r="X258" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="259" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" s="3"/>
       <c r="C259" s="3">
         <v>28</v>
@@ -11242,10 +11251,10 @@
         <v>2.4911623757575758</v>
       </c>
       <c r="X259" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="260" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" s="3"/>
       <c r="C260" s="3">
         <v>14</v>
@@ -11314,10 +11323,10 @@
         <v>3.161859938461538</v>
       </c>
       <c r="X260" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="261" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" s="3"/>
       <c r="C261" s="3">
         <v>28</v>
@@ -11386,10 +11395,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X261" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="262" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" s="3"/>
       <c r="C262" s="3">
         <v>14</v>
@@ -11458,10 +11467,10 @@
         <v>3.2238571921568622</v>
       </c>
       <c r="X262" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="263" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" s="3"/>
       <c r="C263" s="3">
         <v>14</v>
@@ -11530,10 +11539,10 @@
         <v>3.161859938461538</v>
       </c>
       <c r="X263" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="264" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" s="3"/>
       <c r="C264" s="3">
         <v>14</v>
@@ -11602,10 +11611,10 @@
         <v>2.0050819121951222</v>
       </c>
       <c r="X264" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="265" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" s="3"/>
       <c r="C265" s="3">
         <v>7</v>
@@ -11674,10 +11683,10 @@
         <v>3.0322755147540987</v>
       </c>
       <c r="X265" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="266" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" s="3"/>
       <c r="C266" s="3">
         <v>7</v>
@@ -11746,10 +11755,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X266" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="267" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" s="3"/>
       <c r="C267" s="3">
         <v>14</v>
@@ -11818,10 +11827,10 @@
         <v>1.9230025356725147</v>
       </c>
       <c r="X267" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="268" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" s="3"/>
       <c r="C268" s="3">
         <v>7</v>
@@ -11890,47 +11899,47 @@
         <v>2.2522837917808221</v>
       </c>
       <c r="X268" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="270" spans="2:24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24" x14ac:dyDescent="0.2">
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="2:24">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G278" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I278" t="s">
+        <v>36</v>
+      </c>
+      <c r="J278" t="s">
         <v>37</v>
       </c>
-      <c r="J278" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -11945,7 +11954,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -11960,7 +11969,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -11975,7 +11984,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C283">
         <v>1760</v>
       </c>
@@ -11990,7 +11999,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -12005,7 +12014,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -12020,7 +12029,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12035,7 +12044,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C287">
         <v>2048</v>
       </c>
@@ -12050,7 +12059,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12065,7 +12074,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12080,7 +12089,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12095,7 +12104,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12110,33 +12119,33 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G295" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I295" t="s">
+        <v>36</v>
+      </c>
+      <c r="J295" t="s">
         <v>37</v>
       </c>
-      <c r="J295" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12151,7 +12160,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12166,7 +12175,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12181,7 +12190,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12196,7 +12205,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12211,7 +12220,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12226,7 +12235,7 @@
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12241,7 +12250,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12256,7 +12265,7 @@
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12271,7 +12280,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -12286,7 +12295,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -12301,7 +12310,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -12316,7 +12325,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -12331,7 +12340,7 @@
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -12346,7 +12355,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -12361,7 +12370,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -12376,7 +12385,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -12391,7 +12400,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -12406,7 +12415,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -12421,7 +12430,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315">
         <v>256</v>
       </c>
@@ -12436,7 +12445,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>256</v>
       </c>
@@ -12451,7 +12460,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>256</v>
       </c>
@@ -12466,41 +12475,41 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" t="s">
         <v>65</v>
       </c>
-      <c r="C320" t="s">
-        <v>66</v>
-      </c>
       <c r="D320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I320" t="s">
+        <v>36</v>
+      </c>
+      <c r="J320" t="s">
         <v>37</v>
       </c>
-      <c r="J320" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10">
+    </row>
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -12515,7 +12524,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -12530,7 +12539,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -12545,7 +12554,7 @@
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -12560,7 +12569,7 @@
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -12575,7 +12584,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -12590,7 +12599,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -12605,7 +12614,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -12620,7 +12629,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -12635,7 +12644,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -12650,7 +12659,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -12665,7 +12674,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -12680,7 +12689,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -12695,7 +12704,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -12710,7 +12719,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -12725,7 +12734,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -12740,7 +12749,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C337">
         <v>512</v>
       </c>
@@ -12755,7 +12764,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -12770,7 +12779,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -12785,30 +12794,30 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I343" t="s">
+        <v>38</v>
+      </c>
+      <c r="J343" t="s">
+        <v>0</v>
+      </c>
+      <c r="K343" t="s">
         <v>39</v>
       </c>
-      <c r="J343" t="s">
-        <v>1</v>
-      </c>
-      <c r="K343" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11">
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C345">
         <v>100000</v>
       </c>
@@ -12816,21 +12825,20 @@
         <v>2</v>
       </c>
       <c r="G345" s="2">
-        <v>0.5</v>
+        <v>0.4445164499999999</v>
       </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2">
-        <f>C345*4*D345/(G345/1000)/10^9</f>
-        <v>1.6</v>
+        <v>1.7997084247388375</v>
       </c>
       <c r="J345" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K345" s="2">
-        <v>2.5298221281347035E-2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11">
+        <v>5.5666513649070123E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C346">
         <v>100000</v>
       </c>
@@ -12838,21 +12846,20 @@
         <v>4</v>
       </c>
       <c r="G346" s="2">
-        <v>0.56399999999999995</v>
+        <v>0.7709703499999998</v>
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2">
-        <f t="shared" ref="I346:I369" si="25">C346*4*D346/(G346/1000)/10^9</f>
-        <v>2.8368794326241136</v>
+        <v>2.0753067870898021</v>
       </c>
       <c r="J346" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K346" s="2">
-        <v>1.6248076809271893E-2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11">
+        <v>8.5766595280753876E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C347">
         <v>100000</v>
       </c>
@@ -12860,21 +12867,20 @@
         <v>8</v>
       </c>
       <c r="G347" s="2">
-        <v>0.80800000000000005</v>
+        <v>0.76725119999999991</v>
       </c>
       <c r="H347" s="2"/>
       <c r="I347" s="2">
-        <f t="shared" si="25"/>
-        <v>3.9603960396039604</v>
+        <v>4.1707331314698504</v>
       </c>
       <c r="J347" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K347" s="2">
-        <v>7.9347337699509482E-2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11">
+        <v>1.2150396556664745E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C348">
         <v>100000</v>
       </c>
@@ -12885,20 +12891,19 @@
         <v>2</v>
       </c>
       <c r="G348" s="2">
-        <v>1.02</v>
+        <v>1.1690529999999999</v>
       </c>
       <c r="I348" s="2">
-        <f t="shared" si="25"/>
-        <v>6.2745098039215677</v>
+        <v>5.474516553141731</v>
       </c>
       <c r="J348" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K348" s="2">
-        <v>4.3817804600413325E-2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11">
+        <v>2.0839271219199769E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C349">
         <v>100000</v>
       </c>
@@ -12909,20 +12914,19 @@
         <v>4</v>
       </c>
       <c r="G349" s="2">
-        <v>1.19</v>
+        <v>1.4574516499999999</v>
       </c>
       <c r="I349" s="2">
-        <f t="shared" si="25"/>
-        <v>10.756302521008404</v>
+        <v>8.7824525774148334</v>
       </c>
       <c r="J349" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K349" s="2">
-        <v>4.0987803063838354E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11">
+        <v>5.4721532677322403E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C350">
         <v>3097600</v>
       </c>
@@ -12930,67 +12934,62 @@
         <v>2</v>
       </c>
       <c r="G350" s="2">
-        <v>4.5780000000000003</v>
+        <v>6.0303596499999994</v>
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2">
-        <f t="shared" si="25"/>
-        <v>5.4130187854958498</v>
+        <v>4.1093403110708335</v>
       </c>
       <c r="J350" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K350" s="2">
-        <v>1.7204650534085403E-2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11">
+        <v>1.1829708851135504E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C351">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D351">
         <v>4</v>
       </c>
       <c r="G351" s="2">
-        <v>6.5379999999999994</v>
+        <v>8.4984675000000003</v>
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2">
-        <f t="shared" si="25"/>
-        <v>7.5805445090241674</v>
+        <v>5.8318279148564143</v>
       </c>
       <c r="J351" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K351" s="2">
-        <v>6.9397406291589817E-2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11">
+        <v>0.11091616430368532</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C352">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D352">
         <v>8</v>
       </c>
       <c r="G352" s="2">
-        <v>8.0299999999999994</v>
+        <v>10.474517499999999</v>
       </c>
       <c r="H352" s="2"/>
       <c r="I352" s="2">
-        <f t="shared" si="25"/>
-        <v>12.344109589041098</v>
+        <v>9.4632712198915137</v>
       </c>
       <c r="J352" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K352" s="2">
-        <v>5.9329587896765144E-2</v>
-      </c>
-    </row>
-    <row r="353" spans="3:11">
+        <v>0.39885700329309404</v>
+      </c>
+    </row>
+    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C353">
         <v>3097600</v>
       </c>
@@ -13001,20 +13000,19 @@
         <v>2</v>
       </c>
       <c r="G353" s="2">
-        <v>9.4939999999999998</v>
+        <v>11.995003150000001</v>
       </c>
       <c r="I353" s="2">
-        <f t="shared" si="25"/>
-        <v>20.881230250684645</v>
+        <v>16.527415417977611</v>
       </c>
       <c r="J353" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K353" s="2">
-        <v>9.3936148526538921E-2</v>
-      </c>
-    </row>
-    <row r="354" spans="3:11">
+        <v>0.20739777582202684</v>
+      </c>
+    </row>
+    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C354">
         <v>3097600</v>
       </c>
@@ -13025,20 +13023,19 @@
         <v>4</v>
       </c>
       <c r="G354" s="2">
-        <v>10.219999999999999</v>
+        <v>13.057235100000003</v>
       </c>
       <c r="I354" s="2">
-        <f t="shared" si="25"/>
-        <v>38.795772994129166</v>
+        <v>30.365754844990107</v>
       </c>
       <c r="J354" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K354" s="2">
-        <v>0.20337158110217823</v>
-      </c>
-    </row>
-    <row r="355" spans="3:11">
+        <v>0.26585140401040808</v>
+      </c>
+    </row>
+    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C355">
         <v>4194304</v>
       </c>
@@ -13046,67 +13043,62 @@
         <v>2</v>
       </c>
       <c r="G355" s="2">
-        <v>6.0840000000000005</v>
+        <v>8.0017447500000003</v>
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2">
-        <f t="shared" si="25"/>
-        <v>5.5151926364234045</v>
+        <v>4.1933894479700822</v>
       </c>
       <c r="J355" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K355" s="2">
-        <v>1.4966629547095755E-2</v>
-      </c>
-    </row>
-    <row r="356" spans="3:11">
+        <v>7.7280202808045336E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C356">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D356">
         <v>4</v>
       </c>
       <c r="G356" s="2">
-        <v>8.9420000000000019</v>
+        <v>11.263607949999999</v>
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2">
-        <f t="shared" si="25"/>
-        <v>7.504905390292997</v>
+        <v>5.9580255543251583</v>
       </c>
       <c r="J356" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K356" s="2">
-        <v>0.15587174214718943</v>
-      </c>
-    </row>
-    <row r="357" spans="3:11">
+        <v>9.9715355578015377E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C357">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D357">
         <v>8</v>
       </c>
       <c r="G357" s="2">
-        <v>10.592000000000001</v>
+        <v>13.393151850000001</v>
       </c>
       <c r="H357" s="2"/>
       <c r="I357" s="2">
-        <f t="shared" si="25"/>
-        <v>12.67161329305136</v>
+        <v>10.021369839094298</v>
       </c>
       <c r="J357" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K357" s="2">
-        <v>3.487119154832595E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="3:11">
+        <v>3.4559887239818274E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C358">
         <v>4194304</v>
       </c>
@@ -13117,20 +13109,19 @@
         <v>2</v>
       </c>
       <c r="G358" s="2">
-        <v>11.534000000000001</v>
+        <v>14.730728450000001</v>
       </c>
       <c r="I358" s="2">
-        <f t="shared" si="25"/>
-        <v>23.27340523669152</v>
+        <v>18.222822918170078</v>
       </c>
       <c r="J358" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K358" s="2">
-        <v>2.244994432064374E-2</v>
-      </c>
-    </row>
-    <row r="359" spans="3:11">
+        <v>0.57054643201283484</v>
+      </c>
+    </row>
+    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C359">
         <v>4194304</v>
       </c>
@@ -13141,20 +13132,19 @@
         <v>4</v>
       </c>
       <c r="G359" s="2">
-        <v>12.296000000000001</v>
+        <v>16.5919141</v>
       </c>
       <c r="I359" s="2">
-        <f t="shared" si="25"/>
-        <v>43.662240728692254</v>
+        <v>32.357382563835714</v>
       </c>
       <c r="J359" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K359" s="2">
-        <v>0.10892199043352088</v>
-      </c>
-    </row>
-    <row r="360" spans="3:11">
+        <v>0.51876071718358907</v>
+      </c>
+    </row>
+    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C360">
         <v>6553600</v>
       </c>
@@ -13162,67 +13152,62 @@
         <v>2</v>
       </c>
       <c r="G360" s="2">
-        <v>9.2960000000000012</v>
+        <v>12.041322900000001</v>
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2">
-        <f t="shared" si="25"/>
-        <v>5.6399311531841647</v>
+        <v>4.3540730894277404</v>
       </c>
       <c r="J360" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K360" s="2">
-        <v>1.0198039027186119E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="3:11">
+        <v>2.9252402470656268E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C361">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D361">
         <v>4</v>
       </c>
       <c r="G361" s="2">
-        <v>13.436000000000002</v>
+        <v>17.198658599999998</v>
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2">
-        <f t="shared" si="25"/>
-        <v>7.8042274486454293</v>
+        <v>6.0968475762406262</v>
       </c>
       <c r="J361" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K361" s="2">
-        <v>0.34713686061840238</v>
-      </c>
-    </row>
-    <row r="362" spans="3:11">
+        <v>0.10913955320568611</v>
+      </c>
+    </row>
+    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C362">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D362">
         <v>8</v>
       </c>
       <c r="G362" s="2">
-        <v>16.009999999999998</v>
+        <v>20.353788049999999</v>
       </c>
       <c r="H362" s="2"/>
       <c r="I362" s="2">
-        <f t="shared" si="25"/>
-        <v>13.099013116802002</v>
+        <v>10.303497289292055</v>
       </c>
       <c r="J362" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K362" s="2">
-        <v>4.1952353926806012E-2</v>
-      </c>
-    </row>
-    <row r="363" spans="3:11">
+        <v>4.2157436276633459E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C363">
         <v>6553600</v>
       </c>
@@ -13233,20 +13218,19 @@
         <v>2</v>
       </c>
       <c r="G363" s="2">
-        <v>17.770000000000003</v>
+        <v>22.591115449999997</v>
       </c>
       <c r="I363" s="2">
-        <f t="shared" si="25"/>
-        <v>23.603286437816539</v>
+        <v>18.566166019040026</v>
       </c>
       <c r="J363" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K363" s="2">
-        <v>0.22163032283512157</v>
-      </c>
-    </row>
-    <row r="364" spans="3:11">
+        <v>0.41622908672097442</v>
+      </c>
+    </row>
+    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C364">
         <v>6553600</v>
       </c>
@@ -13257,89 +13241,82 @@
         <v>4</v>
       </c>
       <c r="G364" s="2">
-        <v>19.187999999999999</v>
+        <v>24.7970817</v>
       </c>
       <c r="I364" s="2">
-        <f t="shared" si="25"/>
-        <v>43.717990410673337</v>
+        <v>33.829013032610206</v>
       </c>
       <c r="J364" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K364" s="2">
-        <v>0.19374209661299763</v>
-      </c>
-    </row>
-    <row r="365" spans="3:11">
+        <v>0.51456875228211085</v>
+      </c>
+    </row>
+    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C365">
-        <f t="shared" ref="C365:C367" si="26">4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D365">
         <v>2</v>
       </c>
       <c r="G365" s="2">
-        <v>33.536000000000001</v>
+        <v>41.680708999999993</v>
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2">
-        <f t="shared" si="25"/>
-        <v>4.0021984732824425</v>
+        <v>3.2201402332191615</v>
       </c>
       <c r="J365" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K365" s="2">
-        <v>0.53312662660947818</v>
-      </c>
-    </row>
-    <row r="366" spans="3:11">
+        <v>0.55184563427513533</v>
+      </c>
+    </row>
+    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C366">
-        <f t="shared" si="26"/>
         <v>16777216</v>
       </c>
       <c r="D366">
         <v>4</v>
       </c>
       <c r="G366" s="2">
-        <v>44.095999999999997</v>
+        <v>54.634749250000006</v>
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2">
-        <f t="shared" si="25"/>
-        <v>6.0875239477503635</v>
+        <v>4.9132733230216115</v>
       </c>
       <c r="J366" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K366" s="2">
-        <v>0.79520060362150091</v>
-      </c>
-    </row>
-    <row r="367" spans="3:11">
+        <v>0.32170558766835178</v>
+      </c>
+    </row>
+    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C367">
-        <f t="shared" si="26"/>
         <v>16777216</v>
       </c>
       <c r="D367">
         <v>8</v>
       </c>
       <c r="G367" s="2">
-        <v>50.555999999999997</v>
+        <v>61.778912650000009</v>
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2">
-        <f t="shared" si="25"/>
-        <v>10.619331276208561</v>
+        <v>8.6901968482606495</v>
       </c>
       <c r="J367" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K367" s="2">
-        <v>0.36968094351751413</v>
-      </c>
-    </row>
-    <row r="368" spans="3:11">
+        <v>0.19942395799382726</v>
+      </c>
+    </row>
+    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C368">
         <v>16777216</v>
       </c>
@@ -13350,21 +13327,20 @@
         <v>2</v>
       </c>
       <c r="G368" s="2">
-        <v>53.756000000000007</v>
+        <v>65.370429350000009</v>
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2">
-        <f t="shared" si="25"/>
-        <v>19.974362378153135</v>
+        <v>16.425497502105664</v>
       </c>
       <c r="J368" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K368" s="2">
-        <v>0.3254289476982648</v>
-      </c>
-    </row>
-    <row r="369" spans="3:11">
+        <v>0.17948643078906526</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C369">
         <v>16777216</v>
       </c>
@@ -13375,28 +13351,234 @@
         <v>4</v>
       </c>
       <c r="G369" s="2">
-        <v>55.684000000000005</v>
+        <v>69.873614449999991</v>
       </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2">
-        <f t="shared" si="25"/>
-        <v>38.565542130594061</v>
+        <v>30.733827996499187</v>
       </c>
       <c r="J369" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K369" s="2">
-        <v>0.16169106345125991</v>
+        <v>0.60123778602693878</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>38360000</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="G370" s="2">
+        <v>94.093087299999993</v>
+      </c>
+      <c r="I370" s="2">
+        <v>3.2614510672985433</v>
+      </c>
+      <c r="J370" t="s">
+        <v>74</v>
+      </c>
+      <c r="K370" s="2">
+        <v>0.44266456971665574</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>38360000</v>
+      </c>
+      <c r="D371">
+        <v>4</v>
+      </c>
+      <c r="G371" s="2">
+        <v>121.55971085000002</v>
+      </c>
+      <c r="I371" s="2">
+        <v>5.0490412959056483</v>
+      </c>
+      <c r="J371" t="s">
+        <v>74</v>
+      </c>
+      <c r="K371" s="2">
+        <v>0.43840878987745957</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>38360000</v>
+      </c>
+      <c r="D372">
+        <v>8</v>
+      </c>
+      <c r="G372" s="2">
+        <v>138.540008</v>
+      </c>
+      <c r="I372" s="2">
+        <v>8.860400816491941</v>
+      </c>
+      <c r="J372" t="s">
+        <v>74</v>
+      </c>
+      <c r="K372" s="2">
+        <v>0.58647449444375255</v>
+      </c>
+    </row>
+    <row r="373" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>38360000</v>
+      </c>
+      <c r="D373">
+        <v>16</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="G373" s="2">
+        <v>169.60566775000001</v>
+      </c>
+      <c r="I373" s="2">
+        <v>14.474987968083393</v>
+      </c>
+      <c r="J373" t="s">
+        <v>74</v>
+      </c>
+      <c r="K373" s="2">
+        <v>5.893574568705267</v>
+      </c>
+    </row>
+    <row r="374" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>38360000</v>
+      </c>
+      <c r="D374">
+        <v>32</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="G374" s="2">
+        <v>177.12674189999996</v>
+      </c>
+      <c r="I374" s="2">
+        <v>27.720715389052167</v>
+      </c>
+      <c r="J374" t="s">
+        <v>74</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1.7454823613347787</v>
+      </c>
+    </row>
+    <row r="375" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>64500000</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="G375" s="2">
+        <v>181.62096509999995</v>
+      </c>
+      <c r="I375" s="2">
+        <v>2.8410816984475993</v>
+      </c>
+      <c r="J375" t="s">
+        <v>74</v>
+      </c>
+      <c r="K375" s="2">
+        <v>24.671503514428665</v>
+      </c>
+    </row>
+    <row r="376" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>64500000</v>
+      </c>
+      <c r="D376">
+        <v>4</v>
+      </c>
+      <c r="G376" s="2">
+        <v>283.46349025000001</v>
+      </c>
+      <c r="I376" s="2">
+        <v>3.6406804950077691</v>
+      </c>
+      <c r="J376" t="s">
+        <v>74</v>
+      </c>
+      <c r="K376" s="2">
+        <v>18.979416220705183</v>
+      </c>
+    </row>
+    <row r="377" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>64500000</v>
+      </c>
+      <c r="D377">
+        <v>8</v>
+      </c>
+      <c r="G377" s="2">
+        <v>313.26129219999996</v>
+      </c>
+      <c r="I377" s="2">
+        <v>6.5887489178913645</v>
+      </c>
+      <c r="J377" t="s">
+        <v>74</v>
+      </c>
+      <c r="K377" s="2">
+        <v>17.708838318489832</v>
+      </c>
+    </row>
+    <row r="378" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>64500000</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="G378" s="2">
+        <v>351.13418380000002</v>
+      </c>
+      <c r="I378" s="2">
+        <v>11.756189486669967</v>
+      </c>
+      <c r="J378" t="s">
+        <v>74</v>
+      </c>
+      <c r="K378" s="2">
+        <v>15.955614685662544</v>
+      </c>
+    </row>
+    <row r="379" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <v>64500000</v>
+      </c>
+      <c r="D379">
+        <v>32</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="G379" s="2">
+        <v>344.47437165000002</v>
+      </c>
+      <c r="I379" s="2">
+        <v>23.966949879187041</v>
+      </c>
+      <c r="J379" t="s">
+        <v>74</v>
+      </c>
+      <c r="K379" s="2">
+        <v>13.806289292392741</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13408,96 +13590,91 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_IA_KNL7250.xlsx
+++ b/results/train/DeepBench_IA_KNL7250.xlsx
@@ -1,39 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Syncplicity_folders\source_codes\git\ML\deepbench-github\DeepBench\results\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="32800" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="564" yWindow="456" windowWidth="32796" windowHeight="19284" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="78">
   <si>
     <t>Selected Algorithm</t>
-  </si>
-  <si>
-    <t># chips / accelerator cards</t>
   </si>
   <si>
     <t>Size # floats</t>
@@ -165,13 +154,7 @@
     <t>Bios Version</t>
   </si>
   <si>
-    <t>HCA Version</t>
-  </si>
-  <si>
     <t>ICC Version</t>
-  </si>
-  <si>
-    <t>Intel MKL version</t>
   </si>
   <si>
     <t>Intel MPI Version</t>
@@ -180,22 +163,10 @@
     <t>OPA Version</t>
   </si>
   <si>
-    <t>3.10.0-327.el7.mpsp_1.3.1.45.x86_64</t>
-  </si>
-  <si>
-    <t>5.1.3.181</t>
-  </si>
-  <si>
-    <t>series 100</t>
-  </si>
-  <si>
     <t>* = The backward pass wrt inputs is excluded for these kernels since they are typically the input layers of a neural network</t>
   </si>
   <si>
     <t>N/A*</t>
-  </si>
-  <si>
-    <t>LIBXSMM version</t>
   </si>
   <si>
     <t>master-1.5.2-190</t>
@@ -228,12 +199,6 @@
     <t>Hidden units</t>
   </si>
   <si>
-    <t>Intel(R) Xeon Phi(TM)  7250</t>
-  </si>
-  <si>
-    <t>17.0 20170620</t>
-  </si>
-  <si>
     <t>MKL 2017.3, MKLML (2017.0.1)</t>
   </si>
   <si>
@@ -252,7 +217,43 @@
     <t>R (Filter height)</t>
   </si>
   <si>
-    <t>OSU Allreduce</t>
+    <t>Intel MLSL</t>
+  </si>
+  <si>
+    <t># nodes (1 process per node)</t>
+  </si>
+  <si>
+    <t>Intel(R) Xeon Phi(TM) 7250F</t>
+  </si>
+  <si>
+    <t>3.10.0-514.6.2.0.1.el7.x86_64.knl1</t>
+  </si>
+  <si>
+    <t>17.0.4 20170411</t>
+  </si>
+  <si>
+    <t>Intel MKL Version</t>
+  </si>
+  <si>
+    <t>LIBXSMM Version</t>
+  </si>
+  <si>
+    <t>Intel MLSL Version</t>
+  </si>
+  <si>
+    <t>2017 Update 2 Preview</t>
+  </si>
+  <si>
+    <t>Intel Corporation Omni-Path HFI Silicon 100 Series [discrete] (rev 11)</t>
+  </si>
+  <si>
+    <t>IFS Version</t>
+  </si>
+  <si>
+    <t>10.5.0.0.155</t>
+  </si>
+  <si>
+    <t>2017 Update 3</t>
   </si>
 </sst>
 </file>
@@ -262,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,12 +314,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -409,12 +404,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,13 +427,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -822,63 +819,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="H370" sqref="H370"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M361" sqref="M361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="32.69921875" customWidth="1"/>
+    <col min="9" max="9" width="26.19921875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" customWidth="1"/>
+    <col min="12" max="12" width="19.796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="20.796875" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" customWidth="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.296875" customWidth="1"/>
+    <col min="22" max="22" width="24.69921875" customWidth="1"/>
+    <col min="24" max="24" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -889,12 +886,12 @@
         <v>1760</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="13">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
         <v>7.7356378963034378E-2</v>
       </c>
       <c r="J4" s="2">
@@ -904,7 +901,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -915,12 +912,12 @@
         <v>1760</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="13">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9">
         <v>9.1403771276049151E-2</v>
       </c>
       <c r="J5" s="2">
@@ -930,7 +927,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -941,12 +938,12 @@
         <v>1760</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="13">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9">
         <v>0.14639056739378112</v>
       </c>
       <c r="J6" s="2">
@@ -956,7 +953,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -967,12 +964,12 @@
         <v>1760</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="13">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
         <v>0.27744476997700024</v>
       </c>
       <c r="J7" s="2">
@@ -982,7 +979,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -993,12 +990,12 @@
         <v>1760</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="13">
+        <v>6</v>
+      </c>
+      <c r="I8" s="9">
         <v>10.011700000000001</v>
       </c>
       <c r="J8" s="2">
@@ -1008,7 +1005,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -1019,12 +1016,12 @@
         <v>2048</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="13">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
         <v>6.295216378649858E-2</v>
       </c>
       <c r="J9" s="2">
@@ -1034,7 +1031,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1045,12 +1042,12 @@
         <v>2048</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="13">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
         <v>0.10586211151636711</v>
       </c>
       <c r="J10" s="2">
@@ -1060,7 +1057,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1071,12 +1068,12 @@
         <v>2048</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="13">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
         <v>0.17985673817215311</v>
       </c>
       <c r="J11" s="2">
@@ -1086,7 +1083,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1097,12 +1094,12 @@
         <v>2048</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="13">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
         <v>0.36640791308710147</v>
       </c>
       <c r="J12" s="2">
@@ -1112,7 +1109,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1123,12 +1120,12 @@
         <v>2048</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="13">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9">
         <v>13.191700000000001</v>
       </c>
       <c r="J13" s="2">
@@ -1138,7 +1135,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1149,12 +1146,12 @@
         <v>2560</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="13">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9">
         <v>0.11476063047886545</v>
       </c>
       <c r="J14" s="2">
@@ -1164,7 +1161,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1175,12 +1172,12 @@
         <v>2560</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
         <v>0.1809272063806546</v>
       </c>
       <c r="J15" s="2">
@@ -1190,7 +1187,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1201,12 +1198,12 @@
         <v>2560</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="13">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9">
         <v>0.30669922927075632</v>
       </c>
       <c r="J16" s="2">
@@ -1216,7 +1213,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1227,12 +1224,12 @@
         <v>2560</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="13">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9">
         <v>0.57476437105345346</v>
       </c>
       <c r="J17" s="2">
@@ -1242,7 +1239,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1253,12 +1250,12 @@
         <v>2560</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="13">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9">
         <v>20.099799999999998</v>
       </c>
       <c r="J18" s="2">
@@ -1268,7 +1265,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1279,12 +1276,12 @@
         <v>4096</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="13">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9">
         <v>0.33791721481006559</v>
       </c>
       <c r="J19" s="2">
@@ -1294,7 +1291,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1305,12 +1302,12 @@
         <v>4096</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="13">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9">
         <v>0.43667394269615678</v>
       </c>
       <c r="J20" s="2">
@@ -1320,7 +1317,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1331,12 +1328,12 @@
         <v>4096</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="13">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9">
         <v>0.68239355548656533</v>
       </c>
       <c r="J21" s="2">
@@ -1346,7 +1343,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1357,12 +1354,12 @@
         <v>4096</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="13">
+        <v>6</v>
+      </c>
+      <c r="I22" s="9">
         <v>1.2370999999999999</v>
       </c>
       <c r="J22" s="2">
@@ -1372,7 +1369,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1383,12 +1380,12 @@
         <v>4096</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="13">
+        <v>6</v>
+      </c>
+      <c r="I23" s="9">
         <v>51.761600000000001</v>
       </c>
       <c r="J23" s="2">
@@ -1398,7 +1395,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1409,12 +1406,12 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="13">
+        <v>6</v>
+      </c>
+      <c r="I24" s="9">
         <v>6.4758328472423424E-2</v>
       </c>
       <c r="J24" s="2">
@@ -1424,7 +1421,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1435,12 +1432,12 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="13">
+        <v>6</v>
+      </c>
+      <c r="I25" s="9">
         <v>9.8997281397898776E-2</v>
       </c>
       <c r="J25" s="2">
@@ -1450,7 +1447,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1461,12 +1458,12 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="13">
+        <v>6</v>
+      </c>
+      <c r="I26" s="9">
         <v>0.15679155114432392</v>
       </c>
       <c r="J26" s="2">
@@ -1476,7 +1473,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1487,12 +1484,12 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="13">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9">
         <v>0.26350000000000001</v>
       </c>
       <c r="J27" s="2">
@@ -1502,7 +1499,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1513,12 +1510,12 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="13">
+        <v>6</v>
+      </c>
+      <c r="I28" s="9">
         <v>10.022200000000002</v>
       </c>
       <c r="J28" s="2">
@@ -1528,7 +1525,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1539,12 +1536,12 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="13">
+        <v>6</v>
+      </c>
+      <c r="I29" s="9">
         <v>6.1242220596004308E-2</v>
       </c>
       <c r="J29" s="2">
@@ -1554,7 +1551,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -1565,12 +1562,12 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="13">
+        <v>6</v>
+      </c>
+      <c r="I30" s="9">
         <v>0.10929302295429701</v>
       </c>
       <c r="J30" s="2">
@@ -1580,7 +1577,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -1591,12 +1588,12 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="13">
+        <v>6</v>
+      </c>
+      <c r="I31" s="9">
         <v>0.18271031870486523</v>
       </c>
       <c r="J31" s="2">
@@ -1606,7 +1603,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -1617,12 +1614,12 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="13">
+        <v>6</v>
+      </c>
+      <c r="I32" s="9">
         <v>0.36969999999999997</v>
       </c>
       <c r="J32" s="2">
@@ -1632,7 +1629,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -1643,12 +1640,12 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="13">
+        <v>6</v>
+      </c>
+      <c r="I33" s="9">
         <v>13.147</v>
       </c>
       <c r="J33" s="2">
@@ -1658,7 +1655,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -1669,12 +1666,12 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="13">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9">
         <v>0.11558753734338122</v>
       </c>
       <c r="J34" s="2">
@@ -1684,7 +1681,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -1695,12 +1692,12 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="13">
+        <v>6</v>
+      </c>
+      <c r="I35" s="9">
         <v>0.17572922057995649</v>
       </c>
       <c r="J35" s="2">
@@ -1710,7 +1707,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -1721,12 +1718,12 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="13">
+        <v>6</v>
+      </c>
+      <c r="I36" s="9">
         <v>0.3073868147869605</v>
       </c>
       <c r="J36" s="2">
@@ -1736,7 +1733,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -1747,12 +1744,12 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="13">
+        <v>6</v>
+      </c>
+      <c r="I37" s="9">
         <v>0.56329999999999991</v>
       </c>
       <c r="J37" s="2">
@@ -1762,7 +1759,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -1773,12 +1770,12 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="13">
+        <v>6</v>
+      </c>
+      <c r="I38" s="9">
         <v>20.104500000000002</v>
       </c>
       <c r="J38" s="2">
@@ -1788,7 +1785,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -1799,12 +1796,12 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="13">
+        <v>6</v>
+      </c>
+      <c r="I39" s="9">
         <v>0.34007619449715504</v>
       </c>
       <c r="J39" s="2">
@@ -1814,7 +1811,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -1825,12 +1822,12 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="13">
+        <v>6</v>
+      </c>
+      <c r="I40" s="9">
         <v>0.43582398207597262</v>
       </c>
       <c r="J40" s="2">
@@ -1840,7 +1837,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -1851,12 +1848,12 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="13">
+        <v>6</v>
+      </c>
+      <c r="I41" s="9">
         <v>0.68032879554214654</v>
       </c>
       <c r="J41" s="2">
@@ -1866,7 +1863,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -1877,12 +1874,12 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="13">
+        <v>6</v>
+      </c>
+      <c r="I42" s="9">
         <v>1.2324999999999999</v>
       </c>
       <c r="J42" s="2">
@@ -1892,7 +1889,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -1903,12 +1900,12 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="13">
+        <v>6</v>
+      </c>
+      <c r="I43" s="9">
         <v>52.286099999999998</v>
       </c>
       <c r="J43" s="2">
@@ -1918,7 +1915,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -1929,15 +1926,15 @@
         <v>1760</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="I44" s="9">
         <v>9.7014218552286664</v>
       </c>
       <c r="J44" s="2">
@@ -1947,7 +1944,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -1958,12 +1955,12 @@
         <v>2048</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="13">
+        <v>20</v>
+      </c>
+      <c r="I45" s="9">
         <v>14.819317409964837</v>
       </c>
       <c r="J45" s="2">
@@ -1973,7 +1970,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -1984,12 +1981,12 @@
         <v>2560</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="13">
+        <v>20</v>
+      </c>
+      <c r="I46" s="9">
         <v>23.369406371536737</v>
       </c>
       <c r="J46" s="2">
@@ -1999,7 +1996,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>4096</v>
       </c>
@@ -2010,12 +2007,12 @@
         <v>4096</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="13">
+        <v>20</v>
+      </c>
+      <c r="I47" s="9">
         <v>55.115699999999997</v>
       </c>
       <c r="J47" s="2">
@@ -2025,19 +2022,19 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="I48" s="13"/>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I48" s="9"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="I49" s="13"/>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I49" s="9"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -2048,12 +2045,12 @@
         <v>1760</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="13">
+        <v>6</v>
+      </c>
+      <c r="I50" s="9">
         <v>38.194600000000001</v>
       </c>
       <c r="J50" s="2">
@@ -2063,7 +2060,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>35</v>
       </c>
@@ -2074,12 +2071,12 @@
         <v>1760</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="13">
+        <v>6</v>
+      </c>
+      <c r="I51" s="9">
         <v>0.54730000000000001</v>
       </c>
       <c r="J51" s="2">
@@ -2089,7 +2086,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2100,12 +2097,12 @@
         <v>2048</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="13">
+        <v>6</v>
+      </c>
+      <c r="I52" s="9">
         <v>44.437100000000001</v>
       </c>
       <c r="J52" s="2">
@@ -2115,7 +2112,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2126,12 +2123,12 @@
         <v>2048</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="13">
+        <v>6</v>
+      </c>
+      <c r="I53" s="9">
         <v>0.66190000000000004</v>
       </c>
       <c r="J53" s="2">
@@ -2141,7 +2138,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2152,12 +2149,12 @@
         <v>2560</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="13">
+        <v>6</v>
+      </c>
+      <c r="I54" s="9">
         <v>55.539699999999996</v>
       </c>
       <c r="J54" s="2">
@@ -2167,7 +2164,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2178,12 +2175,12 @@
         <v>2560</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="13">
+        <v>6</v>
+      </c>
+      <c r="I55" s="9">
         <v>0.80349999999999999</v>
       </c>
       <c r="J55" s="2">
@@ -2193,7 +2190,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2204,12 +2201,12 @@
         <v>4096</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="13">
+        <v>6</v>
+      </c>
+      <c r="I56" s="9">
         <v>87.715199999999996</v>
       </c>
       <c r="J56" s="2">
@@ -2219,7 +2216,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2230,12 +2227,12 @@
         <v>4096</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="13">
+        <v>6</v>
+      </c>
+      <c r="I57" s="9">
         <v>1.2481</v>
       </c>
       <c r="J57" s="2">
@@ -2245,7 +2242,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2256,12 +2253,12 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="13">
+        <v>6</v>
+      </c>
+      <c r="I58" s="9">
         <v>37.909599999999998</v>
       </c>
       <c r="J58" s="2">
@@ -2271,7 +2268,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2282,12 +2279,12 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="13">
+        <v>6</v>
+      </c>
+      <c r="I59" s="9">
         <v>0.53960000000000008</v>
       </c>
       <c r="J59" s="2">
@@ -2297,7 +2294,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2308,12 +2305,12 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="13">
+        <v>6</v>
+      </c>
+      <c r="I60" s="9">
         <v>44.522400000000005</v>
       </c>
       <c r="J60" s="2">
@@ -2323,7 +2320,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2334,12 +2331,12 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="13">
+        <v>6</v>
+      </c>
+      <c r="I61" s="9">
         <v>0.64229999999999998</v>
       </c>
       <c r="J61" s="2">
@@ -2349,7 +2346,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2360,12 +2357,12 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="13">
+        <v>6</v>
+      </c>
+      <c r="I62" s="9">
         <v>55.704500000000003</v>
       </c>
       <c r="J62" s="2">
@@ -2375,7 +2372,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2386,12 +2383,12 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="13">
+        <v>6</v>
+      </c>
+      <c r="I63" s="9">
         <v>0.83720000000000006</v>
       </c>
       <c r="J63" s="2">
@@ -2401,7 +2398,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2412,12 +2409,12 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="13">
+        <v>6</v>
+      </c>
+      <c r="I64" s="9">
         <v>87.778100000000009</v>
       </c>
       <c r="J64" s="2">
@@ -2427,7 +2424,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2438,12 +2435,12 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="13">
+        <v>6</v>
+      </c>
+      <c r="I65" s="9">
         <v>1.2887999999999999</v>
       </c>
       <c r="J65" s="2">
@@ -2453,13 +2450,13 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="I66" s="13"/>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I66" s="9"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2470,12 +2467,12 @@
         <v>2560</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="13">
+        <v>6</v>
+      </c>
+      <c r="I67" s="9">
         <v>0.3831384926141691</v>
       </c>
       <c r="J67" s="2">
@@ -2485,7 +2482,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2496,12 +2493,12 @@
         <v>2560</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="13">
+        <v>6</v>
+      </c>
+      <c r="I68" s="9">
         <v>0.4926029105295946</v>
       </c>
       <c r="J68" s="2">
@@ -2511,7 +2508,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2522,12 +2519,12 @@
         <v>2560</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="13">
+        <v>6</v>
+      </c>
+      <c r="I69" s="9">
         <v>0.7779679445844544</v>
       </c>
       <c r="J69" s="2">
@@ -2537,7 +2534,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -2548,12 +2545,12 @@
         <v>2560</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="13">
+        <v>6</v>
+      </c>
+      <c r="I70" s="9">
         <v>1.3814000000000002</v>
       </c>
       <c r="J70" s="2">
@@ -2563,7 +2560,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -2574,12 +2571,12 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="13">
+        <v>6</v>
+      </c>
+      <c r="I71" s="9">
         <v>0.38737225707861489</v>
       </c>
       <c r="J71" s="2">
@@ -2589,7 +2586,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -2600,12 +2597,12 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="13">
+        <v>6</v>
+      </c>
+      <c r="I72" s="9">
         <v>0.48829698241569464</v>
       </c>
       <c r="J72" s="2">
@@ -2615,7 +2612,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -2626,12 +2623,12 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="13">
+        <v>6</v>
+      </c>
+      <c r="I73" s="9">
         <v>0.76290000000000002</v>
       </c>
       <c r="J73" s="2">
@@ -2641,7 +2638,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -2652,12 +2649,12 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="13">
+        <v>6</v>
+      </c>
+      <c r="I74" s="9">
         <v>1.3599000000000001</v>
       </c>
       <c r="J74" s="2">
@@ -2667,7 +2664,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>3*1024</f>
         <v>3072</v>
@@ -2679,12 +2676,12 @@
         <v>1024</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="13">
+        <v>6</v>
+      </c>
+      <c r="I75" s="9">
         <v>4.8450724264313495E-2</v>
       </c>
       <c r="J75" s="2">
@@ -2694,7 +2691,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C76">
         <f t="shared" ref="C76:C82" si="3">3*1024</f>
         <v>3072</v>
@@ -2706,12 +2703,12 @@
         <v>1024</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="13">
+        <v>6</v>
+      </c>
+      <c r="I76" s="9">
         <v>8.4680267294530751E-2</v>
       </c>
       <c r="J76" s="2">
@@ -2721,7 +2718,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C77">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2733,12 +2730,12 @@
         <v>1024</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="13">
+        <v>6</v>
+      </c>
+      <c r="I77" s="9">
         <v>0.14181100737104649</v>
       </c>
       <c r="J77" s="2">
@@ -2748,7 +2745,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C78">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2760,12 +2757,12 @@
         <v>1024</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="13">
+        <v>6</v>
+      </c>
+      <c r="I78" s="9">
         <v>0.25630000000000003</v>
       </c>
       <c r="J78" s="2">
@@ -2775,7 +2772,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C79">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2787,12 +2784,12 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="13">
+        <v>6</v>
+      </c>
+      <c r="I79" s="9">
         <v>5.0262903176011661E-2</v>
       </c>
       <c r="J79" s="2">
@@ -2802,7 +2799,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C80">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2814,12 +2811,12 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="13">
+        <v>6</v>
+      </c>
+      <c r="I80" s="9">
         <v>8.3912497052613791E-2</v>
       </c>
       <c r="J80" s="2">
@@ -2829,7 +2826,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2841,12 +2838,12 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="13">
+        <v>6</v>
+      </c>
+      <c r="I81" s="9">
         <v>0.13992666211977828</v>
       </c>
       <c r="J81" s="2">
@@ -2856,7 +2853,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82">
         <f t="shared" si="3"/>
         <v>3072</v>
@@ -2868,12 +2865,12 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="13">
+        <v>6</v>
+      </c>
+      <c r="I82" s="9">
         <v>0.27034239266366439</v>
       </c>
       <c r="J82" s="2">
@@ -2883,13 +2880,13 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="I83" s="13"/>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I83" s="9"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -2900,12 +2897,12 @@
         <v>1024</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="13">
+        <v>20</v>
+      </c>
+      <c r="I84" s="9">
         <v>10.945200000000002</v>
       </c>
       <c r="J84" s="2">
@@ -2915,7 +2912,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -2926,12 +2923,12 @@
         <v>2560</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="13">
+        <v>20</v>
+      </c>
+      <c r="I85" s="9">
         <v>52.102900000000005</v>
       </c>
       <c r="J85" s="2">
@@ -2941,10 +2938,10 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>512</v>
       </c>
@@ -2955,10 +2952,10 @@
         <v>500000</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" s="2">
         <v>3.8641705194298961</v>
@@ -2968,7 +2965,7 @@
         <v>1.0599946299999998</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -2979,10 +2976,10 @@
         <v>500000</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2">
         <v>7.1150378461474171</v>
@@ -2992,7 +2989,7 @@
         <v>1.1513642199999998</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>512</v>
       </c>
@@ -3003,10 +3000,10 @@
         <v>500000</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I89" s="2">
         <v>4.9454348655741818</v>
@@ -3016,7 +3013,7 @@
         <v>1.65647718</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -3027,10 +3024,10 @@
         <v>500000</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I90" s="2">
         <v>8.6077258731837585</v>
@@ -3040,7 +3037,7 @@
         <v>1.9034063400000001</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>512</v>
       </c>
@@ -3051,10 +3048,10 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I91" s="2">
         <v>3.8685726854797609</v>
@@ -3064,7 +3061,7 @@
         <v>1.0587884299999999</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -3075,10 +3072,10 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2">
         <v>7.1039843101846518</v>
@@ -3088,7 +3085,7 @@
         <v>1.1531556999999999</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>512</v>
       </c>
@@ -3099,10 +3096,10 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I93" s="2">
         <v>5.0176503753281487</v>
@@ -3112,7 +3109,7 @@
         <v>1.6326366700000003</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3123,10 +3120,10 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2">
         <v>8.614156690385057</v>
@@ -3136,7 +3133,7 @@
         <v>1.90198537</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3147,10 +3144,10 @@
         <v>512</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2">
         <v>0.31942357091104912</v>
@@ -3160,7 +3157,7 @@
         <v>2.2978992999999996</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3171,10 +3168,10 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I96" s="2">
         <v>0.31957592129232915</v>
@@ -3184,7 +3181,7 @@
         <v>2.2968038299999995</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3195,10 +3192,10 @@
         <v>2560</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I97" s="2">
         <v>221.64992493913047</v>
@@ -3208,7 +3205,7 @@
         <v>4.2576978099999989</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3219,10 +3216,10 @@
         <v>2048</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I98" s="2">
         <f>144847.5/1000</f>
@@ -3233,7 +3230,7 @@
         <v>4.169763206130586</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="C99" s="3">
         <v>4608</v>
@@ -3245,10 +3242,10 @@
         <v>1536</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2">
@@ -3259,7 +3256,7 @@
         <v>4.2727005199999999</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="C100" s="3">
         <v>8448</v>
@@ -3271,10 +3268,10 @@
         <v>2816</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2">
@@ -3285,7 +3282,7 @@
         <v>4.085631049999999</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="C101" s="3">
         <v>3072</v>
@@ -3297,10 +3294,10 @@
         <v>1024</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2">
@@ -3311,7 +3308,7 @@
         <v>4.2606199999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3322,10 +3319,10 @@
         <v>2560</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102" s="2">
         <v>439.01032691996892</v>
@@ -3335,7 +3332,7 @@
         <v>4.2992993199999994</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3346,10 +3343,10 @@
         <v>2048</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I103" s="2">
         <f>285128.3/1000</f>
@@ -3360,7 +3357,7 @@
         <v>4.2365473788466463</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="C104" s="3">
         <v>4608</v>
@@ -3372,10 +3369,10 @@
         <v>1536</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2">
@@ -3386,7 +3383,7 @@
         <v>4.2809756399999994</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="C105" s="3">
         <v>8448</v>
@@ -3398,10 +3395,10 @@
         <v>2816</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2">
@@ -3412,7 +3409,7 @@
         <v>4.2758863800000002</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="C106" s="3">
         <v>3072</v>
@@ -3424,10 +3421,10 @@
         <v>1024</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2">
@@ -3438,7 +3435,7 @@
         <v>4.2289213400000003</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3449,10 +3446,10 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I107" s="2">
         <v>231.47200301862847</v>
@@ -3462,7 +3459,7 @@
         <v>4.0770304299999998</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3473,10 +3470,10 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I108" s="2">
         <f>144892.5/1000</f>
@@ -3487,7 +3484,7 @@
         <v>4.1684681815828979</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="C109" s="3">
         <v>4608</v>
@@ -3499,10 +3496,10 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2">
@@ -3513,7 +3510,7 @@
         <v>4.2427837999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="C110" s="3">
         <v>8448</v>
@@ -3525,10 +3522,10 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2">
@@ -3539,7 +3536,7 @@
         <v>4.0724741399999997</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="C111" s="3">
         <v>3072</v>
@@ -3551,10 +3548,10 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2">
@@ -3565,7 +3562,7 @@
         <v>4.2419111999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -3576,10 +3573,10 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I112" s="2">
         <v>443.8841160217363</v>
@@ -3589,7 +3586,7 @@
         <v>4.2520935799999995</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -3600,10 +3597,10 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I113" s="2">
         <f>286129.4/1000</f>
@@ -3614,7 +3611,7 @@
         <v>4.2217246882005135</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="C114" s="3">
         <v>4608</v>
@@ -3626,10 +3623,10 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2">
@@ -3640,7 +3637,7 @@
         <v>4.2622795699999996</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="C115" s="3">
         <v>8448</v>
@@ -3652,10 +3649,10 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2">
@@ -3666,7 +3663,7 @@
         <v>4.2413645799999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="C116" s="3">
         <v>3072</v>
@@ -3678,10 +3675,10 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2">
@@ -3692,7 +3689,7 @@
         <v>4.2063460599999996</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="C117" s="3">
         <v>6144</v>
@@ -3704,10 +3701,10 @@
         <v>2048</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
@@ -3718,7 +3715,7 @@
         <v>1.4749200879120878</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="C118" s="3">
         <v>4608</v>
@@ -3730,10 +3727,10 @@
         <v>1536</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2">
@@ -3744,7 +3741,7 @@
         <v>1.4318038</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="C119" s="3">
         <v>8448</v>
@@ -3756,10 +3753,10 @@
         <v>2816</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2">
@@ -3770,7 +3767,7 @@
         <v>1.76749198</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="C120" s="3">
         <v>6144</v>
@@ -3782,10 +3779,10 @@
         <v>2048</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
@@ -3796,7 +3793,7 @@
         <v>2.3546969824561401</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="C121" s="3">
         <v>4608</v>
@@ -3808,10 +3805,10 @@
         <v>1536</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2">
@@ -3822,7 +3819,7 @@
         <v>2.21903753</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="C122" s="3">
         <v>8448</v>
@@ -3834,10 +3831,10 @@
         <v>2816</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2">
@@ -3848,7 +3845,7 @@
         <v>2.8292394500000002</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="C123" s="3">
         <v>6144</v>
@@ -3860,10 +3857,10 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
@@ -3874,7 +3871,7 @@
         <v>1.5368442137404577</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="C124" s="3">
         <v>4608</v>
@@ -3886,10 +3883,10 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="2">
@@ -3900,7 +3897,7 @@
         <v>1.4152145599999997</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="C125" s="3">
         <v>8448</v>
@@ -3912,10 +3909,10 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2">
@@ -3926,7 +3923,7 @@
         <v>1.7546539699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="C126" s="3">
         <v>6144</v>
@@ -3938,10 +3935,10 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
@@ -3952,7 +3949,7 @@
         <v>2.3074681031518627</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="C127" s="3">
         <v>4608</v>
@@ -3964,10 +3961,10 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2">
@@ -3978,7 +3975,7 @@
         <v>2.23528094</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="C128" s="3">
         <v>8448</v>
@@ -3990,10 +3987,10 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2">
@@ -4004,7 +4001,7 @@
         <v>2.81700917</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C129" s="3">
         <v>512</v>
       </c>
@@ -4016,10 +4013,10 @@
         <v>2816</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2">
@@ -4030,7 +4027,7 @@
         <v>4.4425542499999997</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C130" s="3">
         <v>512</v>
       </c>
@@ -4042,10 +4039,10 @@
         <v>2048</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2">
@@ -4056,7 +4053,7 @@
         <v>4.4663887500000001</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>512</v>
@@ -4069,10 +4066,10 @@
         <v>2560</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2">
@@ -4083,7 +4080,7 @@
         <v>4.4929700600000002</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>512</v>
@@ -4096,10 +4093,10 @@
         <v>1530</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2">
@@ -4110,7 +4107,7 @@
         <v>4.44064893</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C133" s="3">
         <v>1024</v>
       </c>
@@ -4122,10 +4119,10 @@
         <v>2816</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2">
@@ -4136,7 +4133,7 @@
         <v>4.3938375900000004</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C134" s="3">
         <v>1024</v>
       </c>
@@ -4148,10 +4145,10 @@
         <v>2048</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2">
@@ -4162,7 +4159,7 @@
         <v>4.3022431599999997</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="C135" s="3">
         <v>1024</v>
@@ -4175,10 +4172,10 @@
         <v>2560</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2">
@@ -4189,7 +4186,7 @@
         <v>4.3178591699999993</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
       <c r="C136" s="3">
         <v>1024</v>
@@ -4202,10 +4199,10 @@
         <v>1530</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="2">
@@ -4216,7 +4213,7 @@
         <v>4.2699570899999992</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="C137" s="3">
         <v>512</v>
@@ -4228,10 +4225,10 @@
         <v>512</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2">
@@ -4242,7 +4239,7 @@
         <v>0.39052141000000001</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
       <c r="C138" s="3">
         <v>1024</v>
@@ -4254,10 +4251,10 @@
         <v>512</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2">
@@ -4268,7 +4265,7 @@
         <v>0.61731619999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C139" s="3">
         <v>512</v>
       </c>
@@ -4280,10 +4277,10 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2">
@@ -4294,7 +4291,7 @@
         <v>4.4033284400000001</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C140" s="3">
         <v>512</v>
       </c>
@@ -4306,10 +4303,10 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2">
@@ -4320,7 +4317,7 @@
         <v>4.4219049899999998</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="3">
         <v>512</v>
@@ -4333,10 +4330,10 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2">
@@ -4347,7 +4344,7 @@
         <v>4.4222874000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="C142" s="3">
         <v>512</v>
@@ -4360,10 +4357,10 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2">
@@ -4374,7 +4371,7 @@
         <v>4.400438509999999</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C143" s="3">
         <v>1024</v>
       </c>
@@ -4386,10 +4383,10 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2">
@@ -4400,7 +4397,7 @@
         <v>4.2744737400000004</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C144" s="3">
         <v>1024</v>
       </c>
@@ -4412,10 +4409,10 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2">
@@ -4426,7 +4423,7 @@
         <v>4.3034794199999995</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="C145" s="3">
         <v>1024</v>
@@ -4439,10 +4436,10 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2">
@@ -4453,7 +4450,7 @@
         <v>4.2977067299999998</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="C146" s="3">
         <v>1024</v>
@@ -4466,10 +4463,10 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2">
@@ -4480,7 +4477,7 @@
         <v>4.2824884899999986</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
       <c r="C147" s="3">
         <v>512</v>
@@ -4492,10 +4489,10 @@
         <v>512</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4506,7 +4503,7 @@
         <v>0.37523603</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>1024</v>
@@ -4518,10 +4515,10 @@
         <v>512</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4532,7 +4529,7 @@
         <v>0.74416612999999987</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C149" s="3">
         <v>512</v>
       </c>
@@ -4544,10 +4541,10 @@
         <v>2816</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2">
@@ -4558,7 +4555,7 @@
         <v>4.4141461299999998</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C150" s="3">
         <v>512</v>
       </c>
@@ -4570,10 +4567,10 @@
         <v>2048</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2">
@@ -4584,7 +4581,7 @@
         <v>4.4351899399999999</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
       <c r="C151" s="3">
         <v>512</v>
@@ -4597,10 +4594,10 @@
         <v>2560</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2">
@@ -4611,7 +4608,7 @@
         <v>4.4221152699999999</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
       <c r="C152" s="3">
         <v>512</v>
@@ -4624,10 +4621,10 @@
         <v>1530</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2">
@@ -4638,7 +4635,7 @@
         <v>4.4024693199999998</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C153" s="3">
         <v>1024</v>
       </c>
@@ -4650,10 +4647,10 @@
         <v>2816</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2">
@@ -4664,7 +4661,7 @@
         <v>4.2860078499999998</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C154" s="3">
         <v>1024</v>
       </c>
@@ -4676,10 +4673,10 @@
         <v>2048</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2">
@@ -4690,7 +4687,7 @@
         <v>4.3105839599999998</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
       <c r="C155" s="3">
         <v>1024</v>
@@ -4703,10 +4700,10 @@
         <v>2560</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2">
@@ -4717,7 +4714,7 @@
         <v>4.3059116499999996</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
       <c r="C156" s="3">
         <v>1024</v>
@@ -4730,10 +4727,10 @@
         <v>1530</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2">
@@ -4744,7 +4741,7 @@
         <v>4.2938240299999997</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="C157" s="3">
         <v>512</v>
@@ -4756,10 +4753,10 @@
         <v>512</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2">
@@ -4770,7 +4767,7 @@
         <v>0.54402395000000003</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="C158" s="3">
         <v>1024</v>
@@ -4782,10 +4779,10 @@
         <v>512</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2">
@@ -4796,7 +4793,7 @@
         <v>1.09620674</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C159" s="3">
         <v>512</v>
       </c>
@@ -4808,10 +4805,10 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2">
@@ -4822,7 +4819,7 @@
         <v>4.4106923499999997</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C160" s="3">
         <v>512</v>
       </c>
@@ -4834,10 +4831,10 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2">
@@ -4848,7 +4845,7 @@
         <v>4.4182615900000002</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
       <c r="C161" s="3">
         <v>512</v>
@@ -4861,10 +4858,10 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2">
@@ -4875,7 +4872,7 @@
         <v>4.422924329999999</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="C162" s="3">
         <v>512</v>
@@ -4888,10 +4885,10 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2">
@@ -4902,7 +4899,7 @@
         <v>4.4157897199999994</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C163" s="3">
         <v>1024</v>
       </c>
@@ -4914,10 +4911,10 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2">
@@ -4928,7 +4925,7 @@
         <v>4.2919099200000002</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C164" s="3">
         <v>1024</v>
       </c>
@@ -4940,10 +4937,10 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2">
@@ -4954,7 +4951,7 @@
         <v>4.2996642500000002</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="C165" s="3">
         <v>1024</v>
@@ -4967,10 +4964,10 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2">
@@ -4981,7 +4978,7 @@
         <v>4.3004018100000003</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="C166" s="3">
         <v>1024</v>
@@ -4994,10 +4991,10 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2">
@@ -5008,7 +5005,7 @@
         <v>4.3043731699999999</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="C167" s="3">
         <v>512</v>
@@ -5020,10 +5017,10 @@
         <v>512</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -5034,7 +5031,7 @@
         <v>0.57691214000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="C168" s="3">
         <v>1024</v>
@@ -5046,10 +5043,10 @@
         <v>512</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -5060,80 +5057,80 @@
         <v>1.10957733</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J171" s="1"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H174" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I174" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J174" t="s">
+        <v>30</v>
+      </c>
+      <c r="K174" t="s">
+        <v>29</v>
+      </c>
+      <c r="L174" t="s">
+        <v>53</v>
+      </c>
+      <c r="M174" t="s">
+        <v>52</v>
+      </c>
+      <c r="N174" t="s">
+        <v>14</v>
+      </c>
+      <c r="O174" t="s">
+        <v>13</v>
+      </c>
+      <c r="P174" t="s">
+        <v>12</v>
+      </c>
+      <c r="R174" t="s">
         <v>31</v>
       </c>
-      <c r="K174" t="s">
-        <v>30</v>
-      </c>
-      <c r="L174" t="s">
-        <v>60</v>
-      </c>
-      <c r="M174" t="s">
-        <v>59</v>
-      </c>
-      <c r="N174" t="s">
-        <v>15</v>
-      </c>
-      <c r="O174" t="s">
-        <v>14</v>
-      </c>
-      <c r="P174" t="s">
-        <v>13</v>
-      </c>
-      <c r="R174" t="s">
+      <c r="S174" t="s">
         <v>32</v>
       </c>
-      <c r="S174" t="s">
+      <c r="T174" t="s">
+        <v>54</v>
+      </c>
+      <c r="U174" t="s">
         <v>33</v>
       </c>
-      <c r="T174" t="s">
-        <v>61</v>
-      </c>
-      <c r="U174" t="s">
+      <c r="V174" t="s">
         <v>34</v>
       </c>
-      <c r="V174" t="s">
-        <v>35</v>
-      </c>
       <c r="W174" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="X174" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5170,7 +5167,7 @@
       <c r="N175" s="2">
         <v>0.17917</v>
       </c>
-      <c r="O175" s="11"/>
+      <c r="O175" s="7"/>
       <c r="P175" s="2">
         <v>2.6216999999999997</v>
       </c>
@@ -5191,19 +5188,19 @@
         <v>3.8490729474800469</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="12">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>0.26305008200785751</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5240,7 +5237,7 @@
       <c r="N176" s="2">
         <v>0.35833000000000004</v>
       </c>
-      <c r="O176" s="11"/>
+      <c r="O176" s="7"/>
       <c r="P176" s="2">
         <v>2.6246</v>
       </c>
@@ -5261,19 +5258,19 @@
         <v>3.8491803644685065</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="12"/>
         <v>0.52551886001676451</v>
       </c>
       <c r="X176" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5310,7 +5307,7 @@
       <c r="N177" s="2">
         <v>0.76228000000000007</v>
       </c>
-      <c r="O177" s="11"/>
+      <c r="O177" s="7"/>
       <c r="P177" s="2">
         <v>2.6320999999999999</v>
       </c>
@@ -5331,19 +5328,19 @@
         <v>3.6188193314792461</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="12"/>
         <v>1.048042855514608</v>
       </c>
       <c r="X177" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5380,7 +5377,7 @@
       <c r="N178" s="2">
         <v>1.5425</v>
       </c>
-      <c r="O178" s="11"/>
+      <c r="O178" s="7"/>
       <c r="P178" s="2">
         <v>2.6388000000000003</v>
       </c>
@@ -5401,19 +5398,19 @@
         <v>3.5767307617504054</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="12"/>
         <v>2.0907636804608156</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5481,12 +5478,12 @@
         <v>0.81250213836477991</v>
       </c>
       <c r="X179" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5554,12 +5551,12 @@
         <v>1.599849411764706</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5627,12 +5624,12 @@
         <v>3.1702537423312886</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5700,12 +5697,12 @@
         <v>3.2551266771653546</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5742,7 +5739,7 @@
       <c r="N183" s="2">
         <v>8.4348000000000006E-2</v>
       </c>
-      <c r="O183" s="11"/>
+      <c r="O183" s="7"/>
       <c r="P183" s="2">
         <v>0.66164999999999996</v>
       </c>
@@ -5763,19 +5760,19 @@
         <v>1.2586939820742638</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W183" s="2">
         <f t="shared" si="12"/>
         <v>0.16045994105644981</v>
       </c>
       <c r="X183" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5843,12 +5840,12 @@
         <v>1.2868887272727272</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C185">
         <v>120</v>
       </c>
@@ -5916,12 +5913,12 @@
         <v>3.6928111304347828</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C186">
         <v>60</v>
       </c>
@@ -5989,12 +5986,12 @@
         <v>4.2467328000000002</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6031,7 +6028,7 @@
       <c r="N187" s="2">
         <v>0.03</v>
       </c>
-      <c r="O187" s="11"/>
+      <c r="O187" s="7"/>
       <c r="P187" s="2">
         <v>0.06</v>
       </c>
@@ -6052,19 +6049,19 @@
         <v>2.6873855999999998</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W187" s="2">
         <f t="shared" si="12"/>
         <v>1.3436927999999999</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6132,12 +6129,12 @@
         <v>3.2451448754716981</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6205,12 +6202,12 @@
         <v>3.9089245090909093</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6278,12 +6275,12 @@
         <v>4.4040191999999996</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6351,12 +6348,12 @@
         <v>3.9079017662469364</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6393,7 +6390,7 @@
       <c r="N192" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O192" s="11"/>
+      <c r="O192" s="7"/>
       <c r="P192" s="2">
         <v>1.23</v>
       </c>
@@ -6414,19 +6411,19 @@
         <v>2.5223019054545452</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W192" s="2">
         <f t="shared" si="12"/>
         <v>1.1278585756097561</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6494,12 +6491,12 @@
         <v>3.1754301527896995</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6568,12 +6565,12 @@
         <v>3.7652683236641216</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6642,12 +6639,12 @@
         <v>4.0877084287292815</v>
       </c>
       <c r="X195" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6715,12 +6712,12 @@
         <v>3.9146837333333333</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6788,12 +6785,12 @@
         <v>3.7928314960629921</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6830,7 +6827,7 @@
       <c r="N198" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="O198" s="11"/>
+      <c r="O198" s="7"/>
       <c r="P198" s="2">
         <v>1.32</v>
       </c>
@@ -6851,19 +6848,19 @@
         <v>2.3918380137931035</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W198" s="2">
         <f t="shared" si="12"/>
         <v>2.1019182545454544</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C199">
         <v>112</v>
       </c>
@@ -6931,12 +6928,12 @@
         <v>3.2273728488549618</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -7005,12 +7002,12 @@
         <v>3.7748735999999998</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7079,12 +7076,12 @@
         <v>4.0990317207756233</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7152,12 +7149,12 @@
         <v>3.9778237935483869</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7225,12 +7222,12 @@
         <v>3.87864720166076</v>
       </c>
       <c r="X203" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7267,7 +7264,7 @@
       <c r="N204" s="2">
         <v>0.99</v>
       </c>
-      <c r="O204" s="11"/>
+      <c r="O204" s="7"/>
       <c r="P204" s="2">
         <v>1.41</v>
       </c>
@@ -7288,19 +7285,19 @@
         <v>3.814592387878788</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W204" s="2">
         <f t="shared" si="12"/>
         <v>2.6783308255319151</v>
       </c>
       <c r="X204" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7368,12 +7365,12 @@
         <v>3.1076748387096771</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7441,12 +7438,12 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7514,12 +7511,12 @@
         <v>4.3297941573033709</v>
       </c>
       <c r="X207" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7587,12 +7584,12 @@
         <v>2.9360128000000003</v>
       </c>
       <c r="X208" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7660,12 +7657,12 @@
         <v>1.5670582582582584</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7733,12 +7730,12 @@
         <v>3.8643369434416366</v>
       </c>
       <c r="X210" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7806,10 +7803,10 @@
         <v>3.0828134400000007</v>
       </c>
       <c r="X211" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C212">
         <v>56</v>
       </c>
@@ -7877,10 +7874,10 @@
         <v>1.1417827555555558</v>
       </c>
       <c r="X212" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C213">
         <v>28</v>
       </c>
@@ -7948,10 +7945,10 @@
         <v>3.4899774792452831</v>
       </c>
       <c r="X213" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B214" s="3"/>
       <c r="C214" s="3">
         <v>28</v>
@@ -8020,10 +8017,10 @@
         <v>1.4680063999999997</v>
       </c>
       <c r="X214" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="215" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8091,10 +8088,10 @@
         <v>1.4680063999999997</v>
       </c>
       <c r="X215" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="216" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8162,10 +8159,10 @@
         <v>3.7748735999999998</v>
       </c>
       <c r="X216" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B217" s="3"/>
       <c r="C217" s="3">
         <v>14</v>
@@ -8234,10 +8231,10 @@
         <v>1.8683717818181815</v>
       </c>
       <c r="X217" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="218" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B218" s="3"/>
       <c r="C218">
         <v>7</v>
@@ -8306,10 +8303,10 @@
         <v>2.0552089599999999</v>
       </c>
       <c r="X218" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B219" s="3"/>
       <c r="C219">
         <v>7</v>
@@ -8378,10 +8375,10 @@
         <v>0.14974200072859745</v>
       </c>
       <c r="X219" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="220" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8449,10 +8446,10 @@
         <v>3.0828134400000007</v>
       </c>
       <c r="X220" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8520,10 +8517,10 @@
         <v>1.2845055999999999</v>
       </c>
       <c r="X221" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="222" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8591,10 +8588,10 @@
         <v>3.3327712864864862</v>
       </c>
       <c r="X222" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C223" s="3">
         <v>28</v>
       </c>
@@ -8662,10 +8659,10 @@
         <v>2.2835655111111115</v>
       </c>
       <c r="X223" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B224" s="3"/>
       <c r="C224">
         <v>14</v>
@@ -8734,10 +8731,10 @@
         <v>2.5690111999999998</v>
       </c>
       <c r="X224" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8805,10 +8802,10 @@
         <v>3.5232153599999996</v>
       </c>
       <c r="X225" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C226" s="3">
         <v>14</v>
       </c>
@@ -8876,10 +8873,10 @@
         <v>1.9573418666666667</v>
       </c>
       <c r="X226" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B227" s="3"/>
       <c r="C227">
         <v>7</v>
@@ -8948,10 +8945,10 @@
         <v>2.1633778526315788</v>
       </c>
       <c r="X227" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B228" s="3"/>
       <c r="C228">
         <v>7</v>
@@ -9020,12 +9017,12 @@
         <v>0.27679581952861948</v>
       </c>
       <c r="X228" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B229" s="3"/>
-      <c r="C229" s="12">
+      <c r="C229" s="8">
         <v>700</v>
       </c>
       <c r="D229">
@@ -9084,17 +9081,17 @@
         <v>0.2002106442577031</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W229" s="2">
         <f t="shared" si="18"/>
         <v>0.16837502944640753</v>
       </c>
       <c r="X229" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B230" s="3"/>
       <c r="C230">
         <v>350</v>
@@ -9163,10 +9160,10 @@
         <v>2.5079835990888384</v>
       </c>
       <c r="X230" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B231" s="3"/>
       <c r="C231">
         <v>350</v>
@@ -9235,10 +9232,10 @@
         <v>2.312674446177847</v>
       </c>
       <c r="X231" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B232" s="3"/>
       <c r="C232">
         <v>175</v>
@@ -9307,10 +9304,10 @@
         <v>2.7617177257525083</v>
       </c>
       <c r="X232" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="233" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B233" s="3"/>
       <c r="C233">
         <v>175</v>
@@ -9379,10 +9376,10 @@
         <v>2.8247981225554106</v>
       </c>
       <c r="X233" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="234" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B234" s="3"/>
       <c r="C234">
         <v>84</v>
@@ -9451,10 +9448,10 @@
         <v>3.5310621648106904</v>
       </c>
       <c r="X234" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="235" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B235" s="3"/>
       <c r="C235">
         <v>84</v>
@@ -9523,10 +9520,10 @@
         <v>2.8597527272727277</v>
       </c>
       <c r="X235" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B236" s="3"/>
       <c r="C236">
         <v>42</v>
@@ -9595,10 +9592,10 @@
         <v>3.8435076654545455</v>
       </c>
       <c r="X236" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B237" s="3"/>
       <c r="C237">
         <v>112</v>
@@ -9667,10 +9664,10 @@
         <v>2.9360127999999994</v>
       </c>
       <c r="X237" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B238" s="3"/>
       <c r="C238">
         <v>56</v>
@@ -9739,10 +9736,10 @@
         <v>1.9573418666666667</v>
       </c>
       <c r="X238" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B239" s="3"/>
       <c r="C239">
         <v>56</v>
@@ -9811,10 +9808,10 @@
         <v>3.2883343360000001</v>
       </c>
       <c r="X239" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B240" s="3"/>
       <c r="C240">
         <v>56</v>
@@ -9883,10 +9880,10 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X240" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B241" s="3"/>
       <c r="C241" s="3">
         <v>28</v>
@@ -9955,10 +9952,10 @@
         <v>3.2883343360000001</v>
       </c>
       <c r="X241" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B242" s="3"/>
       <c r="C242" s="3">
         <v>28</v>
@@ -10027,10 +10024,10 @@
         <v>3.9146837333333333</v>
       </c>
       <c r="X242" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B243" s="3"/>
       <c r="C243" s="3">
         <v>28</v>
@@ -10099,10 +10096,10 @@
         <v>2.2835655111111115</v>
       </c>
       <c r="X243" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B244" s="3"/>
       <c r="C244" s="3">
         <v>14</v>
@@ -10171,10 +10168,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X244" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B245" s="3"/>
       <c r="C245" s="3">
         <v>28</v>
@@ -10243,10 +10240,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X245" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B246" s="3"/>
       <c r="C246" s="3">
         <v>14</v>
@@ -10315,10 +10312,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X246" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B247" s="3"/>
       <c r="C247" s="3">
         <v>14</v>
@@ -10387,10 +10384,10 @@
         <v>3.425348266666667</v>
       </c>
       <c r="X247" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B248" s="3"/>
       <c r="C248" s="3">
         <v>14</v>
@@ -10459,10 +10456,10 @@
         <v>2.1633778526315788</v>
       </c>
       <c r="X248" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B249" s="3"/>
       <c r="C249" s="3">
         <v>7</v>
@@ -10531,10 +10528,10 @@
         <v>3.1891173517241378</v>
       </c>
       <c r="X249" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B250" s="3"/>
       <c r="C250" s="3">
         <v>7</v>
@@ -10603,10 +10600,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X250" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
       <c r="C251" s="3">
         <v>14</v>
@@ -10675,10 +10672,10 @@
         <v>2.0050819121951222</v>
       </c>
       <c r="X251" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B252" s="3"/>
       <c r="C252" s="3">
         <v>7</v>
@@ -10747,10 +10744,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X252" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B253" s="3"/>
       <c r="C253">
         <v>112</v>
@@ -10819,10 +10816,10 @@
         <v>3.1022022037735848</v>
       </c>
       <c r="X253" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
       <c r="C254">
         <v>56</v>
@@ -10891,10 +10888,10 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X254" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
       <c r="C255">
         <v>56</v>
@@ -10963,10 +10960,10 @@
         <v>3.1022022037735848</v>
       </c>
       <c r="X255" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B256" s="3"/>
       <c r="C256">
         <v>56</v>
@@ -11035,10 +11032,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X256" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="257" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B257" s="3"/>
       <c r="C257" s="3">
         <v>28</v>
@@ -11107,10 +11104,10 @@
         <v>3.5742764521739132</v>
       </c>
       <c r="X257" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="258" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B258" s="3"/>
       <c r="C258" s="3">
         <v>28</v>
@@ -11179,10 +11176,10 @@
         <v>3.3554431999999998</v>
       </c>
       <c r="X258" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="259" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B259" s="3"/>
       <c r="C259" s="3">
         <v>28</v>
@@ -11251,10 +11248,10 @@
         <v>2.4911623757575758</v>
       </c>
       <c r="X259" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B260" s="3"/>
       <c r="C260" s="3">
         <v>14</v>
@@ -11323,10 +11320,10 @@
         <v>3.161859938461538</v>
       </c>
       <c r="X260" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B261" s="3"/>
       <c r="C261" s="3">
         <v>28</v>
@@ -11395,10 +11392,10 @@
         <v>2.3488102400000002</v>
       </c>
       <c r="X261" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B262" s="3"/>
       <c r="C262" s="3">
         <v>14</v>
@@ -11467,10 +11464,10 @@
         <v>3.2238571921568622</v>
       </c>
       <c r="X262" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B263" s="3"/>
       <c r="C263" s="3">
         <v>14</v>
@@ -11539,10 +11536,10 @@
         <v>3.161859938461538</v>
       </c>
       <c r="X263" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B264" s="3"/>
       <c r="C264" s="3">
         <v>14</v>
@@ -11611,10 +11608,10 @@
         <v>2.0050819121951222</v>
       </c>
       <c r="X264" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B265" s="3"/>
       <c r="C265" s="3">
         <v>7</v>
@@ -11683,10 +11680,10 @@
         <v>3.0322755147540987</v>
       </c>
       <c r="X265" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B266" s="3"/>
       <c r="C266" s="3">
         <v>7</v>
@@ -11755,10 +11752,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X266" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B267" s="3"/>
       <c r="C267" s="3">
         <v>14</v>
@@ -11827,10 +11824,10 @@
         <v>1.9230025356725147</v>
       </c>
       <c r="X267" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B268" s="3"/>
       <c r="C268" s="3">
         <v>7</v>
@@ -11899,47 +11896,47 @@
         <v>2.2522837917808221</v>
       </c>
       <c r="X268" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="270" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="2:24" x14ac:dyDescent="0.3">
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D271" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E278" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I278" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278" t="s">
         <v>36</v>
       </c>
-      <c r="J278" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -11949,12 +11946,12 @@
       <c r="E280">
         <v>50</v>
       </c>
-      <c r="G280" s="9"/>
-      <c r="H280" s="9"/>
-      <c r="I280" s="9"/>
-      <c r="J280" s="9"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -11964,12 +11961,12 @@
       <c r="E281">
         <v>50</v>
       </c>
-      <c r="G281" s="9"/>
-      <c r="H281" s="9"/>
-      <c r="I281" s="9"/>
-      <c r="J281" s="9"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -11979,12 +11976,12 @@
       <c r="E282">
         <v>50</v>
       </c>
-      <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
-      <c r="I282" s="9"/>
-      <c r="J282" s="9"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C283">
         <v>1760</v>
       </c>
@@ -11994,12 +11991,12 @@
       <c r="E283">
         <v>50</v>
       </c>
-      <c r="G283" s="9"/>
-      <c r="H283" s="9"/>
-      <c r="I283" s="9"/>
-      <c r="J283" s="9"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -12009,12 +12006,12 @@
       <c r="E284">
         <v>50</v>
       </c>
-      <c r="G284" s="9"/>
-      <c r="H284" s="9"/>
-      <c r="I284" s="9"/>
-      <c r="J284" s="9"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -12024,12 +12021,12 @@
       <c r="E285">
         <v>50</v>
       </c>
-      <c r="G285" s="9"/>
-      <c r="H285" s="9"/>
-      <c r="I285" s="9"/>
-      <c r="J285" s="9"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12039,12 +12036,12 @@
       <c r="E286">
         <v>50</v>
       </c>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-      <c r="I286" s="9"/>
-      <c r="J286" s="9"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C287">
         <v>2048</v>
       </c>
@@ -12054,12 +12051,12 @@
       <c r="E287">
         <v>50</v>
       </c>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-      <c r="I287" s="9"/>
-      <c r="J287" s="9"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12069,12 +12066,12 @@
       <c r="E288">
         <v>50</v>
       </c>
-      <c r="G288" s="9"/>
-      <c r="H288" s="9"/>
-      <c r="I288" s="9"/>
-      <c r="J288" s="9"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12084,12 +12081,12 @@
       <c r="E289">
         <v>50</v>
       </c>
-      <c r="G289" s="9"/>
-      <c r="H289" s="9"/>
-      <c r="I289" s="9"/>
-      <c r="J289" s="9"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12099,12 +12096,12 @@
       <c r="E290">
         <v>50</v>
       </c>
-      <c r="G290" s="9"/>
-      <c r="H290" s="9"/>
-      <c r="I290" s="9"/>
-      <c r="J290" s="9"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12114,38 +12111,38 @@
       <c r="E291">
         <v>50</v>
       </c>
-      <c r="G291" s="9"/>
-      <c r="H291" s="9"/>
-      <c r="I291" s="9"/>
-      <c r="J291" s="9"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E295" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I295" t="s">
+        <v>35</v>
+      </c>
+      <c r="J295" t="s">
         <v>36</v>
       </c>
-      <c r="J295" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12155,12 +12152,12 @@
       <c r="E296">
         <v>25</v>
       </c>
-      <c r="G296" s="9"/>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12170,12 +12167,12 @@
       <c r="E297">
         <v>25</v>
       </c>
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12185,12 +12182,12 @@
       <c r="E298">
         <v>25</v>
       </c>
-      <c r="G298" s="9"/>
-      <c r="H298" s="9"/>
-      <c r="I298" s="9"/>
-      <c r="J298" s="9"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="6"/>
+      <c r="J298" s="6"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12200,12 +12197,12 @@
       <c r="E299">
         <v>25</v>
       </c>
-      <c r="G299" s="9"/>
-      <c r="H299" s="9"/>
-      <c r="I299" s="9"/>
-      <c r="J299" s="9"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12215,12 +12212,12 @@
       <c r="E300">
         <v>25</v>
       </c>
-      <c r="G300" s="9"/>
-      <c r="H300" s="9"/>
-      <c r="I300" s="9"/>
-      <c r="J300" s="9"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12230,12 +12227,12 @@
       <c r="E301">
         <v>25</v>
       </c>
-      <c r="G301" s="9"/>
-      <c r="H301" s="9"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="9"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12245,12 +12242,12 @@
       <c r="E302">
         <v>25</v>
       </c>
-      <c r="G302" s="9"/>
-      <c r="H302" s="9"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="6"/>
+      <c r="J302" s="6"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12260,12 +12257,12 @@
       <c r="E303">
         <v>25</v>
       </c>
-      <c r="G303" s="9"/>
-      <c r="H303" s="9"/>
-      <c r="I303" s="9"/>
-      <c r="J303" s="9"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="6"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12275,12 +12272,12 @@
       <c r="E304">
         <v>25</v>
       </c>
-      <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
-      <c r="I304" s="9"/>
-      <c r="J304" s="9"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -12290,12 +12287,12 @@
       <c r="E305">
         <v>25</v>
       </c>
-      <c r="G305" s="9"/>
-      <c r="H305" s="9"/>
-      <c r="I305" s="9"/>
-      <c r="J305" s="9"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="6"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -12305,12 +12302,12 @@
       <c r="E306">
         <v>25</v>
       </c>
-      <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
-      <c r="I306" s="9"/>
-      <c r="J306" s="9"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="6"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -12320,12 +12317,12 @@
       <c r="E307">
         <v>25</v>
       </c>
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-      <c r="I307" s="9"/>
-      <c r="J307" s="9"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="6"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -12335,12 +12332,12 @@
       <c r="E308">
         <v>25</v>
       </c>
-      <c r="G308" s="9"/>
-      <c r="H308" s="9"/>
-      <c r="I308" s="9"/>
-      <c r="J308" s="9"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="6"/>
+      <c r="J308" s="6"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -12350,12 +12347,12 @@
       <c r="E309">
         <v>25</v>
       </c>
-      <c r="G309" s="9"/>
-      <c r="H309" s="9"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="9"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="6"/>
+      <c r="J309" s="6"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -12365,12 +12362,12 @@
       <c r="E310">
         <v>25</v>
       </c>
-      <c r="G310" s="9"/>
-      <c r="H310" s="9"/>
-      <c r="I310" s="9"/>
-      <c r="J310" s="9"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="6"/>
+      <c r="J310" s="6"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -12380,12 +12377,12 @@
       <c r="E311">
         <v>25</v>
       </c>
-      <c r="G311" s="9"/>
-      <c r="H311" s="9"/>
-      <c r="I311" s="9"/>
-      <c r="J311" s="9"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="6"/>
+      <c r="J311" s="6"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -12395,12 +12392,12 @@
       <c r="E312">
         <v>50</v>
       </c>
-      <c r="G312" s="9"/>
-      <c r="H312" s="9"/>
-      <c r="I312" s="9"/>
-      <c r="J312" s="9"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="6"/>
+      <c r="J312" s="6"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -12410,12 +12407,12 @@
       <c r="E313">
         <v>50</v>
       </c>
-      <c r="G313" s="9"/>
-      <c r="H313" s="9"/>
-      <c r="I313" s="9"/>
-      <c r="J313" s="9"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="6"/>
+      <c r="J313" s="6"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -12425,12 +12422,12 @@
       <c r="E314">
         <v>50</v>
       </c>
-      <c r="G314" s="9"/>
-      <c r="H314" s="9"/>
-      <c r="I314" s="9"/>
-      <c r="J314" s="9"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="6"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C315">
         <v>256</v>
       </c>
@@ -12440,12 +12437,12 @@
       <c r="E315">
         <v>150</v>
       </c>
-      <c r="G315" s="9"/>
-      <c r="H315" s="9"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="9"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="6"/>
+      <c r="J315" s="6"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C316">
         <v>256</v>
       </c>
@@ -12455,12 +12452,12 @@
       <c r="E316">
         <v>150</v>
       </c>
-      <c r="G316" s="9"/>
-      <c r="H316" s="9"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="9"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C317">
         <v>256</v>
       </c>
@@ -12470,46 +12467,46 @@
       <c r="E317">
         <v>150</v>
       </c>
-      <c r="G317" s="9"/>
-      <c r="H317" s="9"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="9"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="6"/>
+      <c r="J317" s="6"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C320" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I320" t="s">
+        <v>35</v>
+      </c>
+      <c r="J320" t="s">
         <v>36</v>
       </c>
-      <c r="J320" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -12519,12 +12516,12 @@
       <c r="E321">
         <v>1500</v>
       </c>
-      <c r="G321" s="9"/>
-      <c r="H321" s="9"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="9"/>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+      <c r="I321" s="6"/>
+      <c r="J321" s="6"/>
+    </row>
+    <row r="322" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -12534,12 +12531,12 @@
       <c r="E322">
         <v>750</v>
       </c>
-      <c r="G322" s="9"/>
-      <c r="H322" s="9"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="9"/>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+      <c r="I322" s="6"/>
+      <c r="J322" s="6"/>
+    </row>
+    <row r="323" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -12549,12 +12546,12 @@
       <c r="E323">
         <v>375</v>
       </c>
-      <c r="G323" s="9"/>
-      <c r="H323" s="9"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="9"/>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="6"/>
+      <c r="J323" s="6"/>
+    </row>
+    <row r="324" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -12564,12 +12561,12 @@
       <c r="E324">
         <v>187</v>
       </c>
-      <c r="G324" s="9"/>
-      <c r="H324" s="9"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="9"/>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="6"/>
+      <c r="J324" s="6"/>
+    </row>
+    <row r="325" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -12579,12 +12576,12 @@
       <c r="E325">
         <v>1500</v>
       </c>
-      <c r="G325" s="9"/>
-      <c r="H325" s="9"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="9"/>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="6"/>
+      <c r="J325" s="6"/>
+    </row>
+    <row r="326" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -12594,12 +12591,12 @@
       <c r="E326">
         <v>750</v>
       </c>
-      <c r="G326" s="9"/>
-      <c r="H326" s="9"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="9"/>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="6"/>
+      <c r="J326" s="6"/>
+    </row>
+    <row r="327" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -12609,12 +12606,12 @@
       <c r="E327">
         <v>375</v>
       </c>
-      <c r="G327" s="9"/>
-      <c r="H327" s="9"/>
-      <c r="I327" s="9"/>
-      <c r="J327" s="9"/>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+      <c r="I327" s="6"/>
+      <c r="J327" s="6"/>
+    </row>
+    <row r="328" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -12624,12 +12621,12 @@
       <c r="E328">
         <v>187</v>
       </c>
-      <c r="G328" s="9"/>
-      <c r="H328" s="9"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="9"/>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+      <c r="I328" s="6"/>
+      <c r="J328" s="6"/>
+    </row>
+    <row r="329" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -12639,12 +12636,12 @@
       <c r="E329">
         <v>1500</v>
       </c>
-      <c r="G329" s="9"/>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+      <c r="I329" s="6"/>
+      <c r="J329" s="6"/>
+    </row>
+    <row r="330" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -12654,12 +12651,12 @@
       <c r="E330">
         <v>750</v>
       </c>
-      <c r="G330" s="9"/>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+      <c r="I330" s="6"/>
+      <c r="J330" s="6"/>
+    </row>
+    <row r="331" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -12669,12 +12666,12 @@
       <c r="E331">
         <v>375</v>
       </c>
-      <c r="G331" s="9"/>
-      <c r="H331" s="9"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="9"/>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+      <c r="I331" s="6"/>
+      <c r="J331" s="6"/>
+    </row>
+    <row r="332" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -12684,12 +12681,12 @@
       <c r="E332">
         <v>187</v>
       </c>
-      <c r="G332" s="9"/>
-      <c r="H332" s="9"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="9"/>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+      <c r="I332" s="6"/>
+      <c r="J332" s="6"/>
+    </row>
+    <row r="333" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -12699,12 +12696,12 @@
       <c r="E333" s="3">
         <v>1500</v>
       </c>
-      <c r="G333" s="9"/>
-      <c r="H333" s="9"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="9"/>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="6"/>
+    </row>
+    <row r="334" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -12714,12 +12711,12 @@
       <c r="E334" s="3">
         <v>750</v>
       </c>
-      <c r="G334" s="9"/>
-      <c r="H334" s="9"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="9"/>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="6"/>
+    </row>
+    <row r="335" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -12729,12 +12726,12 @@
       <c r="E335" s="3">
         <v>375</v>
       </c>
-      <c r="G335" s="9"/>
-      <c r="H335" s="9"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="9"/>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+    </row>
+    <row r="336" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -12744,12 +12741,12 @@
       <c r="E336" s="3">
         <v>187</v>
       </c>
-      <c r="G336" s="9"/>
-      <c r="H336" s="9"/>
-      <c r="I336" s="9"/>
-      <c r="J336" s="9"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C337">
         <v>512</v>
       </c>
@@ -12759,12 +12756,12 @@
       <c r="E337" s="3">
         <v>1</v>
       </c>
-      <c r="G337" s="9"/>
-      <c r="H337" s="9"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="9"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -12774,12 +12771,12 @@
       <c r="E338" s="3">
         <v>1500</v>
       </c>
-      <c r="G338" s="9"/>
-      <c r="H338" s="9"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="9"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="6"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -12789,888 +12786,875 @@
       <c r="E339" s="3">
         <v>1500</v>
       </c>
-      <c r="G339" s="9"/>
-      <c r="H339" s="9"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="9"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="6"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="G343" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I343" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J343" t="s">
         <v>0</v>
       </c>
       <c r="K343" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C345">
         <v>100000</v>
       </c>
       <c r="D345">
         <v>2</v>
       </c>
-      <c r="G345" s="2">
-        <v>0.4445164499999999</v>
-      </c>
-      <c r="H345" s="2"/>
+      <c r="G345" s="10">
+        <v>0.09</v>
+      </c>
       <c r="I345" s="2">
-        <v>1.7997084247388375</v>
+        <f>C345*4*D345/(G345/1000)/10^9</f>
+        <v>8.8888888888888893</v>
       </c>
       <c r="J345" t="s">
-        <v>74</v>
-      </c>
-      <c r="K345" s="2">
-        <v>5.5666513649070123E-3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K345" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C346">
         <v>100000</v>
       </c>
       <c r="D346">
         <v>4</v>
       </c>
-      <c r="G346" s="2">
-        <v>0.7709703499999998</v>
-      </c>
-      <c r="H346" s="2"/>
+      <c r="G346" s="10">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="I346" s="2">
-        <v>2.0753067870898021</v>
+        <f t="shared" ref="I346:I378" si="25">C346*4*D346/(G346/1000)/10^9</f>
+        <v>11.428571428571429</v>
       </c>
       <c r="J346" t="s">
-        <v>74</v>
-      </c>
-      <c r="K346" s="2">
-        <v>8.5766595280753876E-3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K346" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C347">
         <v>100000</v>
       </c>
       <c r="D347">
         <v>8</v>
       </c>
-      <c r="G347" s="2">
-        <v>0.76725119999999991</v>
-      </c>
-      <c r="H347" s="2"/>
+      <c r="G347" s="10">
+        <v>0.22</v>
+      </c>
       <c r="I347" s="2">
-        <v>4.1707331314698504</v>
+        <f t="shared" si="25"/>
+        <v>14.545454545454543</v>
       </c>
       <c r="J347" t="s">
-        <v>74</v>
-      </c>
-      <c r="K347" s="2">
-        <v>1.2150396556664745E-2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K347" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C348">
         <v>100000</v>
       </c>
       <c r="D348">
         <v>16</v>
       </c>
-      <c r="E348">
-        <v>2</v>
-      </c>
-      <c r="G348" s="2">
-        <v>1.1690529999999999</v>
+      <c r="G348" s="10">
+        <v>0.26</v>
       </c>
       <c r="I348" s="2">
-        <v>5.474516553141731</v>
+        <f t="shared" si="25"/>
+        <v>24.615384615384613</v>
       </c>
       <c r="J348" t="s">
-        <v>74</v>
-      </c>
-      <c r="K348" s="2">
-        <v>2.0839271219199769E-2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K348" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C349">
         <v>100000</v>
       </c>
       <c r="D349">
         <v>32</v>
       </c>
-      <c r="E349">
-        <v>4</v>
-      </c>
-      <c r="G349" s="2">
-        <v>1.4574516499999999</v>
+      <c r="G349" s="10">
+        <v>0.31</v>
       </c>
       <c r="I349" s="2">
-        <v>8.7824525774148334</v>
+        <f t="shared" si="25"/>
+        <v>41.290322580645167</v>
       </c>
       <c r="J349" t="s">
-        <v>74</v>
-      </c>
-      <c r="K349" s="2">
-        <v>5.4721532677322403E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K349" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C350">
         <v>3097600</v>
       </c>
       <c r="D350">
         <v>2</v>
       </c>
-      <c r="G350" s="2">
-        <v>6.0303596499999994</v>
-      </c>
-      <c r="H350" s="2"/>
+      <c r="G350" s="10">
+        <v>1.33</v>
+      </c>
       <c r="I350" s="2">
-        <v>4.1093403110708335</v>
+        <f t="shared" si="25"/>
+        <v>18.63218045112782</v>
       </c>
       <c r="J350" t="s">
-        <v>74</v>
-      </c>
-      <c r="K350" s="2">
-        <v>1.1829708851135504E-2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K350" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C351">
         <v>3097600</v>
       </c>
       <c r="D351">
         <v>4</v>
       </c>
-      <c r="G351" s="2">
-        <v>8.4984675000000003</v>
-      </c>
-      <c r="H351" s="2"/>
+      <c r="G351" s="10">
+        <v>1.85</v>
+      </c>
       <c r="I351" s="2">
-        <v>5.8318279148564143</v>
+        <f t="shared" si="25"/>
+        <v>26.790054054054053</v>
       </c>
       <c r="J351" t="s">
-        <v>74</v>
-      </c>
-      <c r="K351" s="2">
-        <v>0.11091616430368532</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K351" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C352">
         <v>3097600</v>
       </c>
       <c r="D352">
         <v>8</v>
       </c>
-      <c r="G352" s="2">
-        <v>10.474517499999999</v>
-      </c>
-      <c r="H352" s="2"/>
+      <c r="G352" s="10">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="I352" s="2">
-        <v>9.4632712198915137</v>
+        <f t="shared" si="25"/>
+        <v>43.859823008849567</v>
       </c>
       <c r="J352" t="s">
-        <v>74</v>
-      </c>
-      <c r="K352" s="2">
-        <v>0.39885700329309404</v>
-      </c>
-    </row>
-    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K352" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="353" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C353">
         <v>3097600</v>
       </c>
       <c r="D353">
         <v>16</v>
       </c>
-      <c r="E353">
-        <v>2</v>
-      </c>
-      <c r="G353" s="2">
-        <v>11.995003150000001</v>
+      <c r="G353" s="10">
+        <v>3.23</v>
       </c>
       <c r="I353" s="2">
-        <v>16.527415417977611</v>
+        <f t="shared" si="25"/>
+        <v>61.376594427244584</v>
       </c>
       <c r="J353" t="s">
-        <v>74</v>
-      </c>
-      <c r="K353" s="2">
-        <v>0.20739777582202684</v>
-      </c>
-    </row>
-    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K353" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="354" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C354">
         <v>3097600</v>
       </c>
       <c r="D354">
         <v>32</v>
       </c>
-      <c r="E354">
-        <v>4</v>
-      </c>
-      <c r="G354" s="2">
-        <v>13.057235100000003</v>
+      <c r="G354" s="10">
+        <v>3.88</v>
       </c>
       <c r="I354" s="2">
-        <v>30.365754844990107</v>
+        <f t="shared" si="25"/>
+        <v>102.18886597938146</v>
       </c>
       <c r="J354" t="s">
-        <v>74</v>
-      </c>
-      <c r="K354" s="2">
-        <v>0.26585140401040808</v>
-      </c>
-    </row>
-    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K354" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="355" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C355">
         <v>4194304</v>
       </c>
       <c r="D355">
         <v>2</v>
       </c>
-      <c r="G355" s="2">
-        <v>8.0017447500000003</v>
-      </c>
-      <c r="H355" s="2"/>
+      <c r="G355" s="10">
+        <v>1.63</v>
+      </c>
       <c r="I355" s="2">
-        <v>4.1933894479700822</v>
+        <f t="shared" si="25"/>
+        <v>20.585541104294478</v>
       </c>
       <c r="J355" t="s">
-        <v>74</v>
-      </c>
-      <c r="K355" s="2">
-        <v>7.7280202808045336E-3</v>
-      </c>
-    </row>
-    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K355" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C356">
         <v>4194304</v>
       </c>
       <c r="D356">
         <v>4</v>
       </c>
-      <c r="G356" s="2">
-        <v>11.263607949999999</v>
-      </c>
-      <c r="H356" s="2"/>
+      <c r="G356" s="10">
+        <v>2.31</v>
+      </c>
       <c r="I356" s="2">
-        <v>5.9580255543251583</v>
+        <f t="shared" si="25"/>
+        <v>29.051456277056278</v>
       </c>
       <c r="J356" t="s">
-        <v>74</v>
-      </c>
-      <c r="K356" s="2">
-        <v>9.9715355578015377E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K356" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C357">
         <v>4194304</v>
       </c>
       <c r="D357">
         <v>8</v>
       </c>
-      <c r="G357" s="2">
-        <v>13.393151850000001</v>
-      </c>
-      <c r="H357" s="2"/>
+      <c r="G357" s="10">
+        <v>2.74</v>
+      </c>
       <c r="I357" s="2">
-        <v>10.021369839094298</v>
+        <f t="shared" si="25"/>
+        <v>48.984572262773717</v>
       </c>
       <c r="J357" t="s">
-        <v>74</v>
-      </c>
-      <c r="K357" s="2">
-        <v>3.4559887239818274E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K357" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="358" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C358">
         <v>4194304</v>
       </c>
       <c r="D358">
         <v>16</v>
       </c>
-      <c r="E358">
-        <v>2</v>
-      </c>
-      <c r="G358" s="2">
-        <v>14.730728450000001</v>
+      <c r="G358" s="10">
+        <v>4.1900000000000004</v>
       </c>
       <c r="I358" s="2">
-        <v>18.222822918170078</v>
+        <f t="shared" si="25"/>
+        <v>64.065741288782817</v>
       </c>
       <c r="J358" t="s">
-        <v>74</v>
-      </c>
-      <c r="K358" s="2">
-        <v>0.57054643201283484</v>
-      </c>
-    </row>
-    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K358" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="359" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C359">
         <v>4194304</v>
       </c>
       <c r="D359">
         <v>32</v>
       </c>
-      <c r="E359">
-        <v>4</v>
-      </c>
-      <c r="G359" s="2">
-        <v>16.5919141</v>
+      <c r="G359" s="10">
+        <v>5</v>
       </c>
       <c r="I359" s="2">
-        <v>32.357382563835714</v>
+        <f t="shared" si="25"/>
+        <v>107.3741824</v>
       </c>
       <c r="J359" t="s">
-        <v>74</v>
-      </c>
-      <c r="K359" s="2">
-        <v>0.51876071718358907</v>
-      </c>
-    </row>
-    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K359" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="360" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C360">
         <v>6553600</v>
       </c>
       <c r="D360">
         <v>2</v>
       </c>
-      <c r="G360" s="2">
-        <v>12.041322900000001</v>
-      </c>
-      <c r="H360" s="2"/>
+      <c r="G360" s="10">
+        <v>2.35</v>
+      </c>
       <c r="I360" s="2">
-        <v>4.3540730894277404</v>
+        <f t="shared" si="25"/>
+        <v>22.310127659574466</v>
       </c>
       <c r="J360" t="s">
-        <v>74</v>
-      </c>
-      <c r="K360" s="2">
-        <v>2.9252402470656268E-2</v>
-      </c>
-    </row>
-    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K360" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C361">
         <v>6553600</v>
       </c>
       <c r="D361">
         <v>4</v>
       </c>
-      <c r="G361" s="2">
-        <v>17.198658599999998</v>
-      </c>
-      <c r="H361" s="2"/>
+      <c r="G361" s="10">
+        <v>3.33</v>
+      </c>
       <c r="I361" s="2">
-        <v>6.0968475762406262</v>
+        <f t="shared" si="25"/>
+        <v>31.488768768768768</v>
       </c>
       <c r="J361" t="s">
-        <v>74</v>
-      </c>
-      <c r="K361" s="2">
-        <v>0.10913955320568611</v>
-      </c>
-    </row>
-    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K361" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C362">
         <v>6553600</v>
       </c>
       <c r="D362">
         <v>8</v>
       </c>
-      <c r="G362" s="2">
-        <v>20.353788049999999</v>
-      </c>
-      <c r="H362" s="2"/>
+      <c r="G362" s="10">
+        <v>3.88</v>
+      </c>
       <c r="I362" s="2">
-        <v>10.303497289292055</v>
+        <f t="shared" si="25"/>
+        <v>54.050309278350518</v>
       </c>
       <c r="J362" t="s">
-        <v>74</v>
-      </c>
-      <c r="K362" s="2">
-        <v>4.2157436276633459E-2</v>
-      </c>
-    </row>
-    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K362" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="363" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C363">
         <v>6553600</v>
       </c>
       <c r="D363">
         <v>16</v>
       </c>
-      <c r="E363">
-        <v>2</v>
-      </c>
-      <c r="G363" s="2">
-        <v>22.591115449999997</v>
+      <c r="G363" s="10">
+        <v>6.29</v>
       </c>
       <c r="I363" s="2">
-        <v>18.566166019040026</v>
+        <f t="shared" si="25"/>
+        <v>66.68209856915739</v>
       </c>
       <c r="J363" t="s">
-        <v>74</v>
-      </c>
-      <c r="K363" s="2">
-        <v>0.41622908672097442</v>
-      </c>
-    </row>
-    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K363" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="364" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C364">
         <v>6553600</v>
       </c>
       <c r="D364">
         <v>32</v>
       </c>
-      <c r="E364">
-        <v>4</v>
-      </c>
-      <c r="G364" s="2">
-        <v>24.7970817</v>
+      <c r="G364" s="10">
+        <v>7.54</v>
       </c>
       <c r="I364" s="2">
-        <v>33.829013032610206</v>
+        <f t="shared" si="25"/>
+        <v>111.25474801061007</v>
       </c>
       <c r="J364" t="s">
-        <v>74</v>
-      </c>
-      <c r="K364" s="2">
-        <v>0.51456875228211085</v>
-      </c>
-    </row>
-    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K364" s="10">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="365" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C365">
         <v>16777216</v>
       </c>
       <c r="D365">
         <v>2</v>
       </c>
-      <c r="G365" s="2">
-        <v>41.680708999999993</v>
-      </c>
-      <c r="H365" s="2"/>
+      <c r="G365" s="10">
+        <v>5.4</v>
+      </c>
       <c r="I365" s="2">
-        <v>3.2201402332191615</v>
+        <f t="shared" si="25"/>
+        <v>24.855134814814811</v>
       </c>
       <c r="J365" t="s">
-        <v>74</v>
-      </c>
-      <c r="K365" s="2">
-        <v>0.55184563427513533</v>
-      </c>
-    </row>
-    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K365" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="366" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C366">
         <v>16777216</v>
       </c>
       <c r="D366">
         <v>4</v>
       </c>
-      <c r="G366" s="2">
-        <v>54.634749250000006</v>
-      </c>
-      <c r="H366" s="2"/>
+      <c r="G366" s="10">
+        <v>7.54</v>
+      </c>
       <c r="I366" s="2">
-        <v>4.9132733230216115</v>
+        <f t="shared" si="25"/>
+        <v>35.601519363395226</v>
       </c>
       <c r="J366" t="s">
-        <v>74</v>
-      </c>
-      <c r="K366" s="2">
-        <v>0.32170558766835178</v>
-      </c>
-    </row>
-    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K366" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="367" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C367">
         <v>16777216</v>
       </c>
       <c r="D367">
         <v>8</v>
       </c>
-      <c r="G367" s="2">
-        <v>61.778912650000009</v>
-      </c>
-      <c r="H367" s="2"/>
+      <c r="G367" s="10">
+        <v>8.66</v>
+      </c>
       <c r="I367" s="2">
-        <v>8.6901968482606495</v>
+        <f t="shared" si="25"/>
+        <v>61.994331639722873</v>
       </c>
       <c r="J367" t="s">
-        <v>74</v>
-      </c>
-      <c r="K367" s="2">
-        <v>0.19942395799382726</v>
-      </c>
-    </row>
-    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K367" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="368" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C368">
         <v>16777216</v>
       </c>
       <c r="D368">
         <v>16</v>
       </c>
-      <c r="E368">
-        <v>2</v>
-      </c>
-      <c r="G368" s="2">
-        <v>65.370429350000009</v>
-      </c>
-      <c r="H368" s="2"/>
+      <c r="G368" s="10">
+        <v>14.72</v>
+      </c>
       <c r="I368" s="2">
-        <v>16.425497502105664</v>
+        <f t="shared" si="25"/>
+        <v>72.944417391304356</v>
       </c>
       <c r="J368" t="s">
-        <v>74</v>
-      </c>
-      <c r="K368" s="2">
-        <v>0.17948643078906526</v>
-      </c>
-    </row>
-    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K368" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C369">
         <v>16777216</v>
       </c>
       <c r="D369">
         <v>32</v>
       </c>
-      <c r="E369">
-        <v>4</v>
-      </c>
-      <c r="G369" s="2">
-        <v>69.873614449999991</v>
-      </c>
-      <c r="H369" s="2"/>
+      <c r="G369" s="10">
+        <v>19</v>
+      </c>
       <c r="I369" s="2">
-        <v>30.733827996499187</v>
+        <f t="shared" si="25"/>
+        <v>113.02545515789474</v>
       </c>
       <c r="J369" t="s">
-        <v>74</v>
-      </c>
-      <c r="K369" s="2">
-        <v>0.60123778602693878</v>
-      </c>
-    </row>
-    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K369" s="10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C370">
         <v>38360000</v>
       </c>
       <c r="D370">
         <v>2</v>
       </c>
-      <c r="G370" s="2">
-        <v>94.093087299999993</v>
+      <c r="G370" s="10">
+        <v>29.84</v>
       </c>
       <c r="I370" s="2">
-        <v>3.2614510672985433</v>
+        <f t="shared" si="25"/>
+        <v>10.284182305630027</v>
       </c>
       <c r="J370" t="s">
-        <v>74</v>
-      </c>
-      <c r="K370" s="2">
-        <v>0.44266456971665574</v>
-      </c>
-    </row>
-    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K370" s="10">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C371">
         <v>38360000</v>
       </c>
       <c r="D371">
         <v>4</v>
       </c>
-      <c r="G371" s="2">
-        <v>121.55971085000002</v>
+      <c r="G371" s="10">
+        <v>35.46</v>
       </c>
       <c r="I371" s="2">
-        <v>5.0490412959056483</v>
+        <f t="shared" si="25"/>
+        <v>17.308516638465878</v>
       </c>
       <c r="J371" t="s">
-        <v>74</v>
-      </c>
-      <c r="K371" s="2">
-        <v>0.43840878987745957</v>
-      </c>
-    </row>
-    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K371" s="10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C372">
         <v>38360000</v>
       </c>
       <c r="D372">
         <v>8</v>
       </c>
-      <c r="G372" s="2">
-        <v>138.540008</v>
+      <c r="G372" s="10">
+        <v>38.340000000000003</v>
       </c>
       <c r="I372" s="2">
-        <v>8.860400816491941</v>
+        <f t="shared" si="25"/>
+        <v>32.016692749087106</v>
       </c>
       <c r="J372" t="s">
-        <v>74</v>
-      </c>
-      <c r="K372" s="2">
-        <v>0.58647449444375255</v>
-      </c>
-    </row>
-    <row r="373" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K372" s="10">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="373" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C373">
         <v>38360000</v>
       </c>
       <c r="D373">
         <v>16</v>
       </c>
-      <c r="E373">
-        <v>2</v>
-      </c>
-      <c r="G373" s="2">
-        <v>169.60566775000001</v>
+      <c r="G373" s="10">
+        <v>48.61</v>
       </c>
       <c r="I373" s="2">
-        <v>14.474987968083393</v>
+        <f t="shared" si="25"/>
+        <v>50.504834396214768</v>
       </c>
       <c r="J373" t="s">
-        <v>74</v>
-      </c>
-      <c r="K373" s="2">
-        <v>5.893574568705267</v>
-      </c>
-    </row>
-    <row r="374" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K373" s="10">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="374" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C374">
         <v>38360000</v>
       </c>
       <c r="D374">
         <v>32</v>
       </c>
-      <c r="E374">
-        <v>4</v>
-      </c>
-      <c r="G374" s="2">
-        <v>177.12674189999996</v>
+      <c r="G374" s="10">
+        <v>54.61</v>
       </c>
       <c r="I374" s="2">
-        <v>27.720715389052167</v>
+        <f t="shared" si="25"/>
+        <v>89.911737776963932</v>
       </c>
       <c r="J374" t="s">
-        <v>74</v>
-      </c>
-      <c r="K374" s="2">
-        <v>1.7454823613347787</v>
-      </c>
-    </row>
-    <row r="375" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K374" s="10">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="375" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C375">
         <v>64500000</v>
       </c>
       <c r="D375">
         <v>2</v>
       </c>
-      <c r="G375" s="2">
-        <v>181.62096509999995</v>
+      <c r="G375" s="10">
+        <v>37.659999999999997</v>
       </c>
       <c r="I375" s="2">
-        <v>2.8410816984475993</v>
+        <f t="shared" si="25"/>
+        <v>13.70154009559214</v>
       </c>
       <c r="J375" t="s">
-        <v>74</v>
-      </c>
-      <c r="K375" s="2">
-        <v>24.671503514428665</v>
-      </c>
-    </row>
-    <row r="376" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K375" s="10">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="376" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C376">
         <v>64500000</v>
       </c>
       <c r="D376">
         <v>4</v>
       </c>
-      <c r="G376" s="2">
-        <v>283.46349025000001</v>
+      <c r="G376" s="10">
+        <v>47.45</v>
       </c>
       <c r="I376" s="2">
-        <v>3.6406804950077691</v>
+        <f t="shared" si="25"/>
+        <v>21.749209694415171</v>
       </c>
       <c r="J376" t="s">
-        <v>74</v>
-      </c>
-      <c r="K376" s="2">
-        <v>18.979416220705183</v>
-      </c>
-    </row>
-    <row r="377" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K376" s="10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="377" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C377">
         <v>64500000</v>
       </c>
       <c r="D377">
         <v>8</v>
       </c>
-      <c r="G377" s="2">
-        <v>313.26129219999996</v>
+      <c r="G377" s="10">
+        <v>54.73</v>
       </c>
       <c r="I377" s="2">
-        <v>6.5887489178913645</v>
+        <f t="shared" si="25"/>
+        <v>37.712406358487122</v>
       </c>
       <c r="J377" t="s">
-        <v>74</v>
-      </c>
-      <c r="K377" s="2">
-        <v>17.708838318489832</v>
-      </c>
-    </row>
-    <row r="378" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K377" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="378" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C378">
         <v>64500000</v>
       </c>
       <c r="D378">
         <v>16</v>
       </c>
-      <c r="E378">
-        <v>2</v>
-      </c>
-      <c r="G378" s="2">
-        <v>351.13418380000002</v>
+      <c r="G378" s="10">
+        <v>66.11</v>
       </c>
       <c r="I378" s="2">
-        <v>11.756189486669967</v>
+        <f t="shared" si="25"/>
+        <v>62.441385569505371</v>
       </c>
       <c r="J378" t="s">
-        <v>74</v>
-      </c>
-      <c r="K378" s="2">
-        <v>15.955614685662544</v>
-      </c>
-    </row>
-    <row r="379" spans="3:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="K378" s="10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="379" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C379">
         <v>64500000</v>
       </c>
       <c r="D379">
         <v>32</v>
       </c>
-      <c r="E379">
-        <v>4</v>
-      </c>
-      <c r="G379" s="2">
-        <v>344.47437165000002</v>
+      <c r="G379" s="10">
+        <v>76.680000000000007</v>
       </c>
       <c r="I379" s="2">
-        <v>23.966949879187041</v>
+        <f>C379*4*D379/(G379/1000)/10^9</f>
+        <v>107.66823161189357</v>
       </c>
       <c r="J379" t="s">
-        <v>74</v>
-      </c>
-      <c r="K379" s="2">
-        <v>13.806289292392741</v>
+        <v>65</v>
+      </c>
+      <c r="K379" s="10">
+        <v>2.89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B8" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
+      <c r="B10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
